--- a/real_algebraic_numbers/Book1.xlsx
+++ b/real_algebraic_numbers/Book1.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshu\Desktop\UHasselt\Bapr\RealAlgebraicNumbers\real_algebraic_numbers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshu\Desktop\bapr\RealAlgebraicNumbers\real_algebraic_numbers\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43297258-880A-421D-8B49-84979B5BC35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="130">
   <si>
     <t>Function</t>
   </si>
@@ -420,16 +421,22 @@
   <si>
     <t>Kolom22</t>
   </si>
+  <si>
+    <t>mine</t>
+  </si>
+  <si>
+    <t>boost for rational</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -517,24 +524,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="41">
     <dxf>
@@ -674,77 +669,77 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:BC41" totalsRowShown="0">
-  <autoFilter ref="A1:BC41"/>
-  <sortState ref="A2:BC41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:BC41" totalsRowShown="0">
+  <autoFilter ref="A1:BC41" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BC41">
     <sortCondition descending="1" ref="AY1:AY41"/>
   </sortState>
   <tableColumns count="55">
-    <tableColumn id="1" name="Function"/>
-    <tableColumn id="2" name="Calls"/>
-    <tableColumn id="3" name="Total"/>
-    <tableColumn id="4" name="Avg"/>
-    <tableColumn id="5" name="Min"/>
-    <tableColumn id="6" name="Max"/>
-    <tableColumn id="7" name="Std"/>
-    <tableColumn id="8" name="Column1"/>
-    <tableColumn id="9" name="Column2"/>
-    <tableColumn id="10" name="Column3"/>
-    <tableColumn id="11" name="Column4"/>
-    <tableColumn id="12" name="Column5"/>
-    <tableColumn id="13" name="Column6"/>
-    <tableColumn id="14" name="Column7"/>
-    <tableColumn id="15" name="Column8"/>
-    <tableColumn id="16" name="Column9" dataDxfId="40"/>
-    <tableColumn id="17" name="Column10" dataDxfId="39"/>
-    <tableColumn id="18" name="Column11" dataDxfId="38"/>
-    <tableColumn id="19" name="Column12" dataDxfId="37"/>
-    <tableColumn id="20" name="Column13" dataDxfId="36"/>
-    <tableColumn id="21" name="Column14" dataDxfId="35"/>
-    <tableColumn id="22" name="Column15" dataDxfId="34">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Function"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Calls"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Total"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Avg"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Min"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Max"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Std"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Column2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Column3"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Column4"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Column5"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Column6"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Column7"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Column8"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Column9" dataDxfId="40"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Column10" dataDxfId="39"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Column11" dataDxfId="38"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Column12" dataDxfId="37"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Column13" dataDxfId="36"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Column14" dataDxfId="35"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Column15" dataDxfId="34">
       <calculatedColumnFormula>Q2/C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="Column16" dataDxfId="33"/>
-    <tableColumn id="24" name="Column17" dataDxfId="32"/>
-    <tableColumn id="25" name="Column18" dataDxfId="31"/>
-    <tableColumn id="26" name="Column19" dataDxfId="30"/>
-    <tableColumn id="27" name="Column20" dataDxfId="29"/>
-    <tableColumn id="28" name="Column21" dataDxfId="28"/>
-    <tableColumn id="29" name="Column22" dataDxfId="27"/>
-    <tableColumn id="30" name="Column23" dataDxfId="26">
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Column16" dataDxfId="33"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Column17" dataDxfId="32"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Column18" dataDxfId="31"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Column19" dataDxfId="30"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Column20" dataDxfId="29"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Column21" dataDxfId="28"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Column22" dataDxfId="27"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Column23" dataDxfId="26">
       <calculatedColumnFormula>Y2/Q2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" name="Column24" dataDxfId="25"/>
-    <tableColumn id="32" name="Column25" dataDxfId="24"/>
-    <tableColumn id="33" name="Column26" dataDxfId="23"/>
-    <tableColumn id="34" name="Column27" dataDxfId="22"/>
-    <tableColumn id="35" name="Column28" dataDxfId="21"/>
-    <tableColumn id="36" name="Column29" dataDxfId="20"/>
-    <tableColumn id="37" name="Column30" dataDxfId="19"/>
-    <tableColumn id="38" name="Column31" dataDxfId="18">
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="Column24" dataDxfId="25"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Column25" dataDxfId="24"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Column26" dataDxfId="23"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="Column27" dataDxfId="22"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Column28" dataDxfId="21"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Column29" dataDxfId="20"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="Column30" dataDxfId="19"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Column31" dataDxfId="18">
       <calculatedColumnFormula>AG2/Y2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" name="Column32" dataDxfId="17">
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="Column32" dataDxfId="17">
       <calculatedColumnFormula>AG2/C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="40" name="Column33" dataDxfId="16"/>
-    <tableColumn id="41" name="Column34" dataDxfId="15"/>
-    <tableColumn id="42" name="Column35" dataDxfId="14"/>
-    <tableColumn id="43" name="Column36" dataDxfId="13"/>
-    <tableColumn id="44" name="Column37" dataDxfId="12"/>
-    <tableColumn id="45" name="Column38" dataDxfId="11"/>
-    <tableColumn id="46" name="Column39" dataDxfId="10"/>
-    <tableColumn id="47" name="Column40" dataDxfId="9">
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="Column33" dataDxfId="16"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="Column34" dataDxfId="15"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="Column35" dataDxfId="14"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="Column36" dataDxfId="13"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="Column37" dataDxfId="12"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="Column38" dataDxfId="11"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="Column39" dataDxfId="10"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="Column40" dataDxfId="9">
       <calculatedColumnFormula>AP2/AG2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="48" name="Column41" dataDxfId="8"/>
-    <tableColumn id="49" name="Column42" dataDxfId="7"/>
-    <tableColumn id="50" name="Column43" dataDxfId="6"/>
-    <tableColumn id="51" name="Column44" dataDxfId="5"/>
-    <tableColumn id="52" name="Column45" dataDxfId="4"/>
-    <tableColumn id="53" name="Column46" dataDxfId="3"/>
-    <tableColumn id="54" name="Column47" dataDxfId="2"/>
-    <tableColumn id="55" name="Column48" dataDxfId="1">
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" name="Column41" dataDxfId="8"/>
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" name="Column42" dataDxfId="7"/>
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" name="Column43" dataDxfId="6"/>
+    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0000-000033000000}" name="Column44" dataDxfId="5"/>
+    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" name="Column45" dataDxfId="4"/>
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" name="Column46" dataDxfId="3"/>
+    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" name="Column47" dataDxfId="2"/>
+    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0000-000037000000}" name="Column48" dataDxfId="1">
       <calculatedColumnFormula>AX2/AP2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -753,34 +748,34 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel4" displayName="Tabel4" ref="A61:V112" totalsRowShown="0">
-  <autoFilter ref="A61:V112"/>
-  <sortState ref="A62:V112">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabel4" displayName="Tabel4" ref="A61:V112" totalsRowShown="0">
+  <autoFilter ref="A61:V112" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A62:V112">
     <sortCondition descending="1" ref="P61:P112"/>
   </sortState>
   <tableColumns count="22">
-    <tableColumn id="1" name="Kolom1"/>
-    <tableColumn id="2" name="Kolom2"/>
-    <tableColumn id="3" name="Kolom3"/>
-    <tableColumn id="4" name="Kolom4"/>
-    <tableColumn id="5" name="Kolom5"/>
-    <tableColumn id="6" name="Kolom6"/>
-    <tableColumn id="7" name="Kolom7"/>
-    <tableColumn id="8" name="Kolom8"/>
-    <tableColumn id="9" name="Kolom9"/>
-    <tableColumn id="10" name="Kolom10"/>
-    <tableColumn id="11" name="Kolom11"/>
-    <tableColumn id="12" name="Kolom12"/>
-    <tableColumn id="13" name="Kolom13"/>
-    <tableColumn id="14" name="Kolom14"/>
-    <tableColumn id="17" name="Kolom15"/>
-    <tableColumn id="18" name="Kolom16"/>
-    <tableColumn id="19" name="Kolom17"/>
-    <tableColumn id="20" name="Kolom18"/>
-    <tableColumn id="21" name="Kolom19"/>
-    <tableColumn id="22" name="Kolom20"/>
-    <tableColumn id="23" name="Kolom21"/>
-    <tableColumn id="24" name="Kolom22" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Kolom1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Kolom2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Kolom3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Kolom4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Kolom5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Kolom6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Kolom7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Kolom8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Kolom9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Kolom10"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Kolom11"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Kolom12"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Kolom13"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Kolom14"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="Kolom15"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="Kolom16"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="Kolom17"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name="Kolom18"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0100-000015000000}" name="Kolom19"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" name="Kolom20"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0100-000017000000}" name="Kolom21"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0100-000018000000}" name="Kolom22" dataDxfId="0">
       <calculatedColumnFormula>Q62/Q$117</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1104,33 +1099,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC117"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BC161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W79" sqref="W79"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P124" sqref="P124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.125" customWidth="1"/>
-    <col min="2" max="7" width="11.5" customWidth="1"/>
-    <col min="8" max="8" width="53.75" customWidth="1"/>
-    <col min="9" max="9" width="9.375" customWidth="1"/>
-    <col min="10" max="14" width="10.375" customWidth="1"/>
-    <col min="15" max="15" width="50.75" customWidth="1"/>
-    <col min="17" max="17" width="9.375" customWidth="1"/>
+    <col min="1" max="1" width="51.140625" customWidth="1"/>
+    <col min="2" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="53.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" customWidth="1"/>
+    <col min="10" max="14" width="10.42578125" customWidth="1"/>
+    <col min="15" max="15" width="50.7109375" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" customWidth="1"/>
     <col min="23" max="23" width="51" customWidth="1"/>
-    <col min="31" max="31" width="51.375" customWidth="1"/>
-    <col min="40" max="40" width="51.375" customWidth="1"/>
-    <col min="42" max="42" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="43" max="46" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="51.25" customWidth="1"/>
-    <col min="49" max="49" width="9.75" customWidth="1"/>
+    <col min="31" max="31" width="51.42578125" customWidth="1"/>
+    <col min="40" max="40" width="51.42578125" customWidth="1"/>
+    <col min="42" max="42" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="46" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="51.28515625" customWidth="1"/>
+    <col min="49" max="49" width="9.7109375" customWidth="1"/>
     <col min="50" max="50" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1297,7 +1292,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:55">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1362,7 +1357,7 @@
         <v>19.565000000000001</v>
       </c>
       <c r="V2">
-        <f>Q2/C2</f>
+        <f t="shared" ref="V2:V41" si="0">Q2/C2</f>
         <v>0.9600631111113902</v>
       </c>
       <c r="W2" t="s">
@@ -1387,42 +1382,42 @@
         <v>15.372</v>
       </c>
       <c r="AD2">
-        <f>Y2/Q2</f>
+        <f t="shared" ref="AD2:AD41" si="1">Y2/Q2</f>
         <v>0.80371852081407147</v>
       </c>
-      <c r="AE2" s="11" t="s">
+      <c r="AE2" t="s">
         <v>33</v>
       </c>
-      <c r="AF2" s="11">
+      <c r="AF2">
         <v>4400</v>
       </c>
-      <c r="AG2" s="11">
+      <c r="AG2">
         <v>33193.021000000001</v>
       </c>
-      <c r="AH2" s="11">
+      <c r="AH2">
         <v>7.5439999999999996</v>
       </c>
-      <c r="AI2" s="11">
+      <c r="AI2">
         <v>0.85699999999999998</v>
       </c>
-      <c r="AJ2" s="11">
+      <c r="AJ2">
         <v>74.741</v>
       </c>
-      <c r="AK2" s="11">
+      <c r="AK2">
         <v>14.138999999999999</v>
       </c>
-      <c r="AL2" s="11">
-        <f>AG2/Y2</f>
+      <c r="AL2">
+        <f t="shared" ref="AL2:AL41" si="2">AG2/Y2</f>
         <v>0.90093210980209337</v>
       </c>
-      <c r="AM2" s="11">
-        <f>AG2/C2</f>
+      <c r="AM2">
+        <f t="shared" ref="AM2:AM41" si="3">AG2/C2</f>
         <v>0.69517768823039761</v>
       </c>
-      <c r="AN2" s="11" t="s">
+      <c r="AN2" t="s">
         <v>33</v>
       </c>
-      <c r="AO2" s="11">
+      <c r="AO2">
         <v>4400</v>
       </c>
       <c r="AP2" s="5">
@@ -1440,14 +1435,14 @@
       <c r="AT2" s="5">
         <v>13.808</v>
       </c>
-      <c r="AU2" s="11">
-        <f>AP2/AG2</f>
+      <c r="AU2">
+        <f t="shared" ref="AU2:AU41" si="4">AP2/AG2</f>
         <v>0.97980168783070398</v>
       </c>
       <c r="AV2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AW2" s="19">
+      <c r="AW2" s="10">
         <v>4400</v>
       </c>
       <c r="AX2" s="5">
@@ -1466,11 +1461,11 @@
         <v>14.164999999999999</v>
       </c>
       <c r="BC2" s="5">
-        <f>AX2/AP2</f>
+        <f t="shared" ref="BC2:BC41" si="5">AX2/AP2</f>
         <v>1.0291360666426874</v>
       </c>
     </row>
-    <row r="3" spans="1:55">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1535,92 +1530,92 @@
         <v>6.0709999999999997</v>
       </c>
       <c r="V3">
-        <f>Q3/C3</f>
+        <f t="shared" si="0"/>
         <v>0.95538679311717212</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="W3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="X3" s="12">
+      <c r="X3" s="6">
         <v>3000</v>
       </c>
-      <c r="Y3" s="12">
+      <c r="Y3" s="6">
         <v>12737.64</v>
       </c>
-      <c r="Z3" s="12">
+      <c r="Z3" s="6">
         <v>4.2460000000000004</v>
       </c>
-      <c r="AA3" s="12">
+      <c r="AA3" s="6">
         <v>0.77500000000000002</v>
       </c>
-      <c r="AB3" s="12">
+      <c r="AB3" s="6">
         <v>28.937000000000001</v>
       </c>
-      <c r="AC3" s="12">
+      <c r="AC3" s="6">
         <v>4.827</v>
       </c>
       <c r="AD3">
-        <f>Y3/Q3</f>
+        <f t="shared" si="1"/>
         <v>0.81147275765386384</v>
       </c>
-      <c r="AE3" s="16" t="s">
+      <c r="AE3" t="s">
         <v>30</v>
       </c>
-      <c r="AF3" s="16">
+      <c r="AF3">
         <v>3000</v>
       </c>
-      <c r="AG3" s="16">
+      <c r="AG3">
         <v>11524.505999999999</v>
       </c>
-      <c r="AH3" s="16">
+      <c r="AH3">
         <v>3.8420000000000001</v>
       </c>
-      <c r="AI3" s="16">
+      <c r="AI3">
         <v>0.71799999999999997</v>
       </c>
-      <c r="AJ3" s="16">
+      <c r="AJ3">
         <v>21.93</v>
       </c>
-      <c r="AK3" s="16">
+      <c r="AK3">
         <v>4.2930000000000001</v>
       </c>
-      <c r="AL3" s="11">
-        <f>AG3/Y3</f>
+      <c r="AL3">
+        <f t="shared" si="2"/>
         <v>0.90475990842887688</v>
       </c>
-      <c r="AM3" s="11">
-        <f>AG3/C3</f>
+      <c r="AM3">
+        <f t="shared" si="3"/>
         <v>0.70143353597364022</v>
       </c>
-      <c r="AN3" s="17" t="s">
+      <c r="AN3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AO3" s="17">
+      <c r="AO3" s="6">
         <v>3000</v>
       </c>
-      <c r="AP3" s="18">
+      <c r="AP3" s="7">
         <v>11218.21</v>
       </c>
-      <c r="AQ3" s="18">
+      <c r="AQ3" s="7">
         <v>3.7389999999999999</v>
       </c>
-      <c r="AR3" s="18">
+      <c r="AR3" s="7">
         <v>0.68200000000000005</v>
       </c>
-      <c r="AS3" s="18">
+      <c r="AS3" s="7">
         <v>20.984000000000002</v>
       </c>
-      <c r="AT3" s="18">
+      <c r="AT3" s="7">
         <v>4.2690000000000001</v>
       </c>
-      <c r="AU3" s="11">
-        <f>AP3/AG3</f>
+      <c r="AU3">
+        <f t="shared" si="4"/>
         <v>0.9734222013507563</v>
       </c>
       <c r="AV3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AW3" s="19">
+      <c r="AW3" s="10">
         <v>3000</v>
       </c>
       <c r="AX3" s="5">
@@ -1639,11 +1634,11 @@
         <v>4.3899999999999997</v>
       </c>
       <c r="BC3" s="5">
-        <f>AX3/AP3</f>
+        <f t="shared" si="5"/>
         <v>1.0294511334695999</v>
       </c>
     </row>
-    <row r="4" spans="1:55">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1708,7 +1703,7 @@
         <v>5.7969999999999997</v>
       </c>
       <c r="V4">
-        <f>Q4/C4</f>
+        <f t="shared" si="0"/>
         <v>0.95586109490859505</v>
       </c>
       <c r="W4" t="s">
@@ -1733,42 +1728,42 @@
         <v>4.6159999999999997</v>
       </c>
       <c r="AD4">
-        <f>Y4/Q4</f>
+        <f t="shared" si="1"/>
         <v>0.81317276022112728</v>
       </c>
-      <c r="AE4" s="11" t="s">
+      <c r="AE4" t="s">
         <v>31</v>
       </c>
-      <c r="AF4" s="11">
+      <c r="AF4">
         <v>3400</v>
       </c>
-      <c r="AG4" s="11">
+      <c r="AG4">
         <v>12650.316000000001</v>
       </c>
-      <c r="AH4" s="11">
+      <c r="AH4">
         <v>3.7210000000000001</v>
       </c>
-      <c r="AI4" s="11">
+      <c r="AI4">
         <v>0.71199999999999997</v>
       </c>
-      <c r="AJ4" s="11">
+      <c r="AJ4">
         <v>21.925000000000001</v>
       </c>
-      <c r="AK4" s="11">
+      <c r="AK4">
         <v>4.1109999999999998</v>
       </c>
-      <c r="AL4" s="11">
-        <f>AG4/Y4</f>
+      <c r="AL4">
+        <f t="shared" si="2"/>
         <v>0.90712992766303568</v>
       </c>
-      <c r="AM4" s="11">
-        <f>AG4/C4</f>
+      <c r="AM4">
+        <f t="shared" si="3"/>
         <v>0.70509413607642479</v>
       </c>
-      <c r="AN4" s="11" t="s">
+      <c r="AN4" t="s">
         <v>31</v>
       </c>
-      <c r="AO4" s="11">
+      <c r="AO4">
         <v>3400</v>
       </c>
       <c r="AP4" s="5">
@@ -1786,14 +1781,14 @@
       <c r="AT4" s="5">
         <v>4.0860000000000003</v>
       </c>
-      <c r="AU4" s="11">
-        <f>AP4/AG4</f>
+      <c r="AU4">
+        <f t="shared" si="4"/>
         <v>0.97344256064433476</v>
       </c>
       <c r="AV4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AW4" s="19">
+      <c r="AW4" s="10">
         <v>3400</v>
       </c>
       <c r="AX4" s="5">
@@ -1812,11 +1807,11 @@
         <v>4.2039999999999997</v>
       </c>
       <c r="BC4" s="5">
-        <f>AX4/AP4</f>
+        <f t="shared" si="5"/>
         <v>1.0301063246831583</v>
       </c>
     </row>
-    <row r="5" spans="1:55">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -1881,67 +1876,67 @@
         <v>3.7829999999999999</v>
       </c>
       <c r="V5">
-        <f>Q5/C5</f>
+        <f t="shared" si="0"/>
         <v>0.93355038039757476</v>
       </c>
-      <c r="W5" s="9" t="s">
+      <c r="W5" t="s">
         <v>34</v>
       </c>
-      <c r="X5" s="9">
+      <c r="X5">
         <v>3200</v>
       </c>
-      <c r="Y5" s="9">
+      <c r="Y5">
         <v>9196.9590000000007</v>
       </c>
-      <c r="Z5" s="9">
+      <c r="Z5">
         <v>2.8740000000000001</v>
       </c>
-      <c r="AA5" s="9">
+      <c r="AA5">
         <v>0.90800000000000003</v>
       </c>
-      <c r="AB5" s="9">
+      <c r="AB5">
         <v>14.114000000000001</v>
       </c>
-      <c r="AC5" s="9">
+      <c r="AC5">
         <v>3.0070000000000001</v>
       </c>
       <c r="AD5">
-        <f>Y5/Q5</f>
+        <f t="shared" si="1"/>
         <v>0.81486476967807075</v>
       </c>
-      <c r="AE5" s="11" t="s">
+      <c r="AE5" t="s">
         <v>34</v>
       </c>
-      <c r="AF5" s="11">
+      <c r="AF5">
         <v>3200</v>
       </c>
-      <c r="AG5" s="11">
+      <c r="AG5">
         <v>9497.5390000000007</v>
       </c>
-      <c r="AH5" s="11">
+      <c r="AH5">
         <v>2.968</v>
       </c>
-      <c r="AI5" s="11">
+      <c r="AI5">
         <v>0.876</v>
       </c>
-      <c r="AJ5" s="11">
+      <c r="AJ5">
         <v>18.593</v>
       </c>
-      <c r="AK5" s="11">
+      <c r="AK5">
         <v>3.194</v>
       </c>
-      <c r="AL5" s="11">
-        <f>AG5/Y5</f>
+      <c r="AL5">
+        <f t="shared" si="2"/>
         <v>1.0326825421315893</v>
       </c>
-      <c r="AM5" s="11">
-        <f>AG5/C5</f>
+      <c r="AM5">
+        <f t="shared" si="3"/>
         <v>0.78557949142632111</v>
       </c>
-      <c r="AN5" s="11" t="s">
+      <c r="AN5" t="s">
         <v>34</v>
       </c>
-      <c r="AO5" s="11">
+      <c r="AO5">
         <v>3200</v>
       </c>
       <c r="AP5" s="5">
@@ -1959,14 +1954,14 @@
       <c r="AT5" s="5">
         <v>3.738</v>
       </c>
-      <c r="AU5" s="11">
-        <f>AP5/AG5</f>
+      <c r="AU5">
+        <f t="shared" si="4"/>
         <v>1.164467974282601</v>
       </c>
       <c r="AV5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AW5" s="19">
+      <c r="AW5" s="10">
         <v>3200</v>
       </c>
       <c r="AX5" s="5">
@@ -1985,11 +1980,11 @@
         <v>3.2080000000000002</v>
       </c>
       <c r="BC5" s="5">
-        <f>AX5/AP5</f>
+        <f t="shared" si="5"/>
         <v>0.8713717880787516</v>
       </c>
     </row>
-    <row r="6" spans="1:55">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2054,7 +2049,7 @@
         <v>4.62</v>
       </c>
       <c r="V6">
-        <f>Q6/C6</f>
+        <f t="shared" si="0"/>
         <v>0.95593748567417858</v>
       </c>
       <c r="W6" t="s">
@@ -2079,42 +2074,42 @@
         <v>3.7090000000000001</v>
       </c>
       <c r="AD6">
-        <f>Y6/Q6</f>
+        <f t="shared" si="1"/>
         <v>0.81890997641244923</v>
       </c>
-      <c r="AE6" s="11" t="s">
+      <c r="AE6" t="s">
         <v>29</v>
       </c>
-      <c r="AF6" s="11">
+      <c r="AF6">
         <v>6800</v>
       </c>
-      <c r="AG6" s="11">
+      <c r="AG6">
         <v>20533.491000000002</v>
       </c>
-      <c r="AH6" s="11">
+      <c r="AH6">
         <v>3.02</v>
       </c>
-      <c r="AI6" s="11">
+      <c r="AI6">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AJ6" s="11">
+      <c r="AJ6">
         <v>21.664000000000001</v>
       </c>
-      <c r="AK6" s="11">
+      <c r="AK6">
         <v>3.2919999999999998</v>
       </c>
-      <c r="AL6" s="11">
-        <f>AG6/Y6</f>
+      <c r="AL6">
+        <f t="shared" si="2"/>
         <v>0.89534545738051718</v>
       </c>
-      <c r="AM6" s="11">
-        <f>AG6/C6</f>
+      <c r="AM6">
+        <f t="shared" si="3"/>
         <v>0.70090036901779729</v>
       </c>
-      <c r="AN6" s="11" t="s">
+      <c r="AN6" t="s">
         <v>29</v>
       </c>
-      <c r="AO6" s="11">
+      <c r="AO6">
         <v>6800</v>
       </c>
       <c r="AP6" s="5">
@@ -2132,14 +2127,14 @@
       <c r="AT6" s="5">
         <v>3.26</v>
       </c>
-      <c r="AU6" s="11">
-        <f>AP6/AG6</f>
+      <c r="AU6">
+        <f t="shared" si="4"/>
         <v>0.97089812930494857</v>
       </c>
       <c r="AV6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AW6" s="19">
+      <c r="AW6" s="10">
         <v>6800</v>
       </c>
       <c r="AX6" s="5">
@@ -2158,11 +2153,11 @@
         <v>3.3540000000000001</v>
       </c>
       <c r="BC6" s="5">
-        <f>AX6/AP6</f>
+        <f t="shared" si="5"/>
         <v>1.0265768917303473</v>
       </c>
     </row>
-    <row r="7" spans="1:55">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -2227,7 +2222,7 @@
         <v>12.257</v>
       </c>
       <c r="V7">
-        <f>Q7/C7</f>
+        <f t="shared" si="0"/>
         <v>0.94910094244850418</v>
       </c>
       <c r="W7" t="s">
@@ -2252,42 +2247,42 @@
         <v>9.5259999999999998</v>
       </c>
       <c r="AD7">
-        <f>Y7/Q7</f>
+        <f t="shared" si="1"/>
         <v>0.79593527164651356</v>
       </c>
-      <c r="AE7" s="16" t="s">
+      <c r="AE7" t="s">
         <v>37</v>
       </c>
-      <c r="AF7" s="16">
+      <c r="AF7">
         <v>5000</v>
       </c>
-      <c r="AG7" s="16">
+      <c r="AG7">
         <v>13341.887000000001</v>
       </c>
-      <c r="AH7" s="16">
+      <c r="AH7">
         <v>2.6680000000000001</v>
       </c>
-      <c r="AI7" s="16">
+      <c r="AI7">
         <v>0.64800000000000002</v>
       </c>
-      <c r="AJ7" s="16">
+      <c r="AJ7">
         <v>71.978999999999999</v>
       </c>
-      <c r="AK7" s="16">
+      <c r="AK7">
         <v>8.6029999999999998</v>
       </c>
-      <c r="AL7" s="11">
-        <f>AG7/Y7</f>
+      <c r="AL7">
+        <f t="shared" si="2"/>
         <v>0.90945049216193874</v>
       </c>
-      <c r="AM7" s="11">
-        <f>AG7/C7</f>
+      <c r="AM7">
+        <f t="shared" si="3"/>
         <v>0.68701974315377901</v>
       </c>
-      <c r="AN7" s="11" t="s">
+      <c r="AN7" t="s">
         <v>37</v>
       </c>
-      <c r="AO7" s="11">
+      <c r="AO7">
         <v>5000</v>
       </c>
       <c r="AP7" s="5">
@@ -2305,14 +2300,14 @@
       <c r="AT7" s="5">
         <v>8.4049999999999994</v>
       </c>
-      <c r="AU7" s="11">
-        <f>AP7/AG7</f>
+      <c r="AU7">
+        <f t="shared" si="4"/>
         <v>0.97965580131206331</v>
       </c>
       <c r="AV7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AW7" s="19">
+      <c r="AW7" s="10">
         <v>5000</v>
       </c>
       <c r="AX7" s="5">
@@ -2331,11 +2326,11 @@
         <v>8.6340000000000003</v>
       </c>
       <c r="BC7" s="5">
-        <f>AX7/AP7</f>
+        <f t="shared" si="5"/>
         <v>1.0329016039760506</v>
       </c>
     </row>
-    <row r="8" spans="1:55">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2400,7 +2395,7 @@
         <v>10.564</v>
       </c>
       <c r="V8">
-        <f>Q8/C8</f>
+        <f t="shared" si="0"/>
         <v>0.9628980361303926</v>
       </c>
       <c r="W8" t="s">
@@ -2425,42 +2420,42 @@
         <v>8.0920000000000005</v>
       </c>
       <c r="AD8">
-        <f>Y8/Q8</f>
+        <f t="shared" si="1"/>
         <v>0.78687761920075994</v>
       </c>
-      <c r="AE8" s="11" t="s">
+      <c r="AE8" t="s">
         <v>11</v>
       </c>
-      <c r="AF8" s="11">
+      <c r="AF8">
         <v>18200</v>
       </c>
-      <c r="AG8" s="11">
+      <c r="AG8">
         <v>47737.593999999997</v>
       </c>
-      <c r="AH8" s="11">
+      <c r="AH8">
         <v>2.6230000000000002</v>
       </c>
-      <c r="AI8" s="11">
+      <c r="AI8">
         <v>0.17299999999999999</v>
       </c>
-      <c r="AJ8" s="11">
+      <c r="AJ8">
         <v>63.963999999999999</v>
       </c>
-      <c r="AK8" s="11">
+      <c r="AK8">
         <v>7.2939999999999996</v>
       </c>
-      <c r="AL8" s="11">
-        <f>AG8/Y8</f>
+      <c r="AL8">
+        <f t="shared" si="2"/>
         <v>0.86454958336715448</v>
       </c>
-      <c r="AM8" s="11">
-        <f>AG8/C8</f>
+      <c r="AM8">
+        <f t="shared" si="3"/>
         <v>0.65505444779893562</v>
       </c>
-      <c r="AN8" s="11" t="s">
+      <c r="AN8" t="s">
         <v>11</v>
       </c>
-      <c r="AO8" s="11">
+      <c r="AO8">
         <v>18200</v>
       </c>
       <c r="AP8" s="5">
@@ -2478,14 +2473,14 @@
       <c r="AT8" s="5">
         <v>7.13</v>
       </c>
-      <c r="AU8" s="11">
-        <f>AP8/AG8</f>
+      <c r="AU8">
+        <f t="shared" si="4"/>
         <v>0.98581026098634128</v>
       </c>
       <c r="AV8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AW8" s="19">
+      <c r="AW8" s="10">
         <v>18200</v>
       </c>
       <c r="AX8" s="5">
@@ -2504,11 +2499,11 @@
         <v>7.3140000000000001</v>
       </c>
       <c r="BC8" s="5">
-        <f>AX8/AP8</f>
+        <f t="shared" si="5"/>
         <v>1.0261892583989745</v>
       </c>
     </row>
-    <row r="9" spans="1:55">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -2573,7 +2568,7 @@
         <v>11.805</v>
       </c>
       <c r="V9">
-        <f>Q9/C9</f>
+        <f t="shared" si="0"/>
         <v>0.94931630248189358</v>
       </c>
       <c r="W9" t="s">
@@ -2598,42 +2593,42 @@
         <v>9.1739999999999995</v>
       </c>
       <c r="AD9">
-        <f>Y9/Q9</f>
+        <f t="shared" si="1"/>
         <v>0.79768893726739032</v>
       </c>
-      <c r="AE9" s="11" t="s">
+      <c r="AE9" t="s">
         <v>32</v>
       </c>
-      <c r="AF9" s="11">
+      <c r="AF9">
         <v>5400</v>
       </c>
-      <c r="AG9" s="11">
+      <c r="AG9">
         <v>14009.286</v>
       </c>
-      <c r="AH9" s="11">
+      <c r="AH9">
         <v>2.5939999999999999</v>
       </c>
-      <c r="AI9" s="11">
+      <c r="AI9">
         <v>0.64100000000000001</v>
       </c>
-      <c r="AJ9" s="11">
+      <c r="AJ9">
         <v>71.962999999999994</v>
       </c>
-      <c r="AK9" s="11">
+      <c r="AK9">
         <v>8.2850000000000001</v>
       </c>
-      <c r="AL9" s="11">
-        <f>AG9/Y9</f>
+      <c r="AL9">
+        <f t="shared" si="2"/>
         <v>0.90911619408601785</v>
       </c>
-      <c r="AM9" s="11">
-        <f>AG9/C9</f>
+      <c r="AM9">
+        <f t="shared" si="3"/>
         <v>0.68843652225421825</v>
       </c>
-      <c r="AN9" s="11" t="s">
+      <c r="AN9" t="s">
         <v>32</v>
       </c>
-      <c r="AO9" s="11">
+      <c r="AO9">
         <v>5400</v>
       </c>
       <c r="AP9" s="5">
@@ -2651,14 +2646,14 @@
       <c r="AT9" s="5">
         <v>8.0950000000000006</v>
       </c>
-      <c r="AU9" s="11">
-        <f>AP9/AG9</f>
+      <c r="AU9">
+        <f t="shared" si="4"/>
         <v>0.97997042818599034</v>
       </c>
       <c r="AV9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AW9" s="19">
+      <c r="AW9" s="10">
         <v>5400</v>
       </c>
       <c r="AX9" s="5">
@@ -2677,11 +2672,11 @@
         <v>8.3160000000000007</v>
       </c>
       <c r="BC9" s="5">
-        <f>AX9/AP9</f>
+        <f t="shared" si="5"/>
         <v>1.0334469008905878</v>
       </c>
     </row>
-    <row r="10" spans="1:55">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -2746,7 +2741,7 @@
         <v>2.9470000000000001</v>
       </c>
       <c r="V10">
-        <f>Q10/C10</f>
+        <f t="shared" si="0"/>
         <v>0.95588770012435709</v>
       </c>
       <c r="W10" t="s">
@@ -2771,42 +2766,42 @@
         <v>2.4670000000000001</v>
       </c>
       <c r="AD10">
-        <f>Y10/Q10</f>
+        <f t="shared" si="1"/>
         <v>0.82990438263005351</v>
       </c>
-      <c r="AE10" s="11" t="s">
+      <c r="AE10" t="s">
         <v>36</v>
       </c>
-      <c r="AF10" s="11">
+      <c r="AF10">
         <v>3000</v>
       </c>
-      <c r="AG10" s="11">
+      <c r="AG10">
         <v>7508.549</v>
       </c>
-      <c r="AH10" s="11">
+      <c r="AH10">
         <v>2.5030000000000001</v>
       </c>
-      <c r="AI10" s="11">
+      <c r="AI10">
         <v>0.58499999999999996</v>
       </c>
-      <c r="AJ10" s="11">
+      <c r="AJ10">
         <v>12.41</v>
       </c>
-      <c r="AK10" s="11">
+      <c r="AK10">
         <v>2.1469999999999998</v>
       </c>
-      <c r="AL10" s="11">
-        <f>AG10/Y10</f>
+      <c r="AL10">
+        <f t="shared" si="2"/>
         <v>0.88154655729463427</v>
       </c>
-      <c r="AM10" s="11">
-        <f>AG10/C10</f>
+      <c r="AM10">
+        <f t="shared" si="3"/>
         <v>0.69932682141385571</v>
       </c>
-      <c r="AN10" s="11" t="s">
+      <c r="AN10" t="s">
         <v>36</v>
       </c>
-      <c r="AO10" s="11">
+      <c r="AO10">
         <v>3000</v>
       </c>
       <c r="AP10" s="5">
@@ -2824,14 +2819,14 @@
       <c r="AT10" s="5">
         <v>2.0870000000000002</v>
       </c>
-      <c r="AU10" s="11">
-        <f>AP10/AG10</f>
+      <c r="AU10">
+        <f t="shared" si="4"/>
         <v>0.96336842178162518</v>
       </c>
       <c r="AV10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AW10" s="19">
+      <c r="AW10" s="10">
         <v>3000</v>
       </c>
       <c r="AX10" s="5">
@@ -2850,11 +2845,11 @@
         <v>2.1459999999999999</v>
       </c>
       <c r="BC10" s="5">
-        <f>AX10/AP10</f>
+        <f t="shared" si="5"/>
         <v>1.0253745801305842</v>
       </c>
     </row>
-    <row r="11" spans="1:55">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -2919,7 +2914,7 @@
         <v>10.385</v>
       </c>
       <c r="V11">
-        <f>Q11/C11</f>
+        <f t="shared" si="0"/>
         <v>0.94937909702386059</v>
       </c>
       <c r="W11" t="s">
@@ -2944,42 +2939,42 @@
         <v>8.0660000000000007</v>
       </c>
       <c r="AD11">
-        <f>Y11/Q11</f>
+        <f t="shared" si="1"/>
         <v>0.8005979406816226</v>
       </c>
-      <c r="AE11" s="11" t="s">
+      <c r="AE11" t="s">
         <v>28</v>
       </c>
-      <c r="AF11" s="11">
+      <c r="AF11">
         <v>7000</v>
       </c>
-      <c r="AG11" s="11">
+      <c r="AG11">
         <v>15514.097</v>
       </c>
-      <c r="AH11" s="11">
+      <c r="AH11">
         <v>2.2160000000000002</v>
       </c>
-      <c r="AI11" s="11">
+      <c r="AI11">
         <v>0.5</v>
       </c>
-      <c r="AJ11" s="11">
+      <c r="AJ11">
         <v>71.7</v>
       </c>
-      <c r="AK11" s="11">
+      <c r="AK11">
         <v>7.282</v>
       </c>
-      <c r="AL11" s="11">
-        <f>AG11/Y11</f>
+      <c r="AL11">
+        <f t="shared" si="2"/>
         <v>0.90054690148848193</v>
       </c>
-      <c r="AM11" s="11">
-        <f>AG11/C11</f>
+      <c r="AM11">
+        <f t="shared" si="3"/>
         <v>0.68447953893704172</v>
       </c>
-      <c r="AN11" s="11" t="s">
+      <c r="AN11" t="s">
         <v>28</v>
       </c>
-      <c r="AO11" s="11">
+      <c r="AO11">
         <v>7000</v>
       </c>
       <c r="AP11" s="5">
@@ -2997,14 +2992,14 @@
       <c r="AT11" s="5">
         <v>7.117</v>
       </c>
-      <c r="AU11" s="11">
-        <f>AP11/AG11</f>
+      <c r="AU11">
+        <f t="shared" si="4"/>
         <v>0.9865153608360191</v>
       </c>
       <c r="AV11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AW11" s="19">
+      <c r="AW11" s="10">
         <v>7000</v>
       </c>
       <c r="AX11" s="5">
@@ -3023,11 +3018,11 @@
         <v>7.3079999999999998</v>
       </c>
       <c r="BC11" s="5">
-        <f>AX11/AP11</f>
+        <f t="shared" si="5"/>
         <v>1.0294057554788842</v>
       </c>
     </row>
-    <row r="12" spans="1:55">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -3092,7 +3087,7 @@
         <v>1.363</v>
       </c>
       <c r="V12">
-        <f>Q12/C12</f>
+        <f t="shared" si="0"/>
         <v>0.95369795023451875</v>
       </c>
       <c r="W12" t="s">
@@ -3117,42 +3112,42 @@
         <v>1.145</v>
       </c>
       <c r="AD12">
-        <f>Y12/Q12</f>
+        <f t="shared" si="1"/>
         <v>0.83098415644455081</v>
       </c>
-      <c r="AE12" s="16" t="s">
+      <c r="AE12" t="s">
         <v>35</v>
       </c>
-      <c r="AF12" s="16">
+      <c r="AF12">
         <v>1200</v>
       </c>
-      <c r="AG12" s="16">
+      <c r="AG12">
         <v>1835.471</v>
       </c>
-      <c r="AH12" s="16">
+      <c r="AH12">
         <v>1.53</v>
       </c>
-      <c r="AI12" s="16">
+      <c r="AI12">
         <v>0.505</v>
       </c>
-      <c r="AJ12" s="16">
+      <c r="AJ12">
         <v>4.4820000000000002</v>
       </c>
-      <c r="AK12" s="16">
+      <c r="AK12">
         <v>1.002</v>
       </c>
-      <c r="AL12" s="11">
-        <f>AG12/Y12</f>
+      <c r="AL12">
+        <f t="shared" si="2"/>
         <v>0.89275531357097071</v>
       </c>
-      <c r="AM12" s="11">
-        <f>AG12/C12</f>
+      <c r="AM12">
+        <f t="shared" si="3"/>
         <v>0.70751562687915726</v>
       </c>
-      <c r="AN12" s="11" t="s">
+      <c r="AN12" t="s">
         <v>35</v>
       </c>
-      <c r="AO12" s="11">
+      <c r="AO12">
         <v>1200</v>
       </c>
       <c r="AP12" s="5">
@@ -3170,14 +3165,14 @@
       <c r="AT12" s="5">
         <v>0.99099999999999999</v>
       </c>
-      <c r="AU12" s="11">
-        <f>AP12/AG12</f>
+      <c r="AU12">
+        <f t="shared" si="4"/>
         <v>0.99498766256726467</v>
       </c>
       <c r="AV12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AW12" s="19">
+      <c r="AW12" s="10">
         <v>1200</v>
       </c>
       <c r="AX12" s="5">
@@ -3196,11 +3191,11 @@
         <v>1.0329999999999999</v>
       </c>
       <c r="BC12" s="5">
-        <f>AX12/AP12</f>
+        <f t="shared" si="5"/>
         <v>1.0332343885436499</v>
       </c>
     </row>
-    <row r="13" spans="1:55">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -3265,7 +3260,7 @@
         <v>0.64300000000000002</v>
       </c>
       <c r="V13">
-        <f>Q13/C13</f>
+        <f t="shared" si="0"/>
         <v>0.93370431808923193</v>
       </c>
       <c r="W13" t="s">
@@ -3290,42 +3285,42 @@
         <v>0.503</v>
       </c>
       <c r="AD13">
-        <f>Y13/Q13</f>
+        <f t="shared" si="1"/>
         <v>0.80752565235454321</v>
       </c>
-      <c r="AE13" s="11" t="s">
+      <c r="AE13" t="s">
         <v>45</v>
       </c>
-      <c r="AF13" s="11">
+      <c r="AF13">
         <v>23000</v>
       </c>
-      <c r="AG13" s="11">
+      <c r="AG13">
         <v>9819.3649999999998</v>
       </c>
-      <c r="AH13" s="11">
+      <c r="AH13">
         <v>0.42699999999999999</v>
       </c>
-      <c r="AI13" s="11">
+      <c r="AI13">
         <v>0.11600000000000001</v>
       </c>
-      <c r="AJ13" s="11">
+      <c r="AJ13">
         <v>6.2880000000000003</v>
       </c>
-      <c r="AK13" s="11">
+      <c r="AK13">
         <v>0.50900000000000001</v>
       </c>
-      <c r="AL13" s="11">
-        <f>AG13/Y13</f>
+      <c r="AL13">
+        <f t="shared" si="2"/>
         <v>1.0023392149543164</v>
       </c>
-      <c r="AM13" s="11">
-        <f>AG13/C13</f>
+      <c r="AM13">
+        <f t="shared" si="3"/>
         <v>0.75575393369577482</v>
       </c>
-      <c r="AN13" s="11" t="s">
+      <c r="AN13" t="s">
         <v>45</v>
       </c>
-      <c r="AO13" s="11">
+      <c r="AO13">
         <v>23000</v>
       </c>
       <c r="AP13" s="5">
@@ -3343,14 +3338,14 @@
       <c r="AT13" s="5">
         <v>0.73499999999999999</v>
       </c>
-      <c r="AU13" s="11">
-        <f>AP13/AG13</f>
+      <c r="AU13">
+        <f t="shared" si="4"/>
         <v>1.1895680627005922</v>
       </c>
       <c r="AV13" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AW13" s="19">
+      <c r="AW13" s="10">
         <v>23000</v>
       </c>
       <c r="AX13" s="5">
@@ -3369,11 +3364,11 @@
         <v>0.51</v>
       </c>
       <c r="BC13" s="5">
-        <f>AX13/AP13</f>
+        <f t="shared" si="5"/>
         <v>0.85449639035946412</v>
       </c>
     </row>
-    <row r="14" spans="1:55">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -3438,7 +3433,7 @@
         <v>0.46300000000000002</v>
       </c>
       <c r="V14">
-        <f>Q14/C14</f>
+        <f t="shared" si="0"/>
         <v>0.96123528889399645</v>
       </c>
       <c r="W14" t="s">
@@ -3463,42 +3458,42 @@
         <v>0.113</v>
       </c>
       <c r="AD14">
-        <f>Y14/Q14</f>
+        <f t="shared" si="1"/>
         <v>0.79025012317769472</v>
       </c>
-      <c r="AE14" s="11" t="s">
+      <c r="AE14" t="s">
         <v>40</v>
       </c>
-      <c r="AF14" s="11">
+      <c r="AF14">
         <v>3600</v>
       </c>
-      <c r="AG14" s="11">
+      <c r="AG14">
         <v>1278.528</v>
       </c>
-      <c r="AH14" s="11">
+      <c r="AH14">
         <v>0.35499999999999998</v>
       </c>
-      <c r="AI14" s="11">
+      <c r="AI14">
         <v>0.14399999999999999</v>
       </c>
-      <c r="AJ14" s="11">
+      <c r="AJ14">
         <v>0.94199999999999995</v>
       </c>
-      <c r="AK14" s="11">
+      <c r="AK14">
         <v>0.11</v>
       </c>
-      <c r="AL14" s="11">
-        <f>AG14/Y14</f>
+      <c r="AL14">
+        <f t="shared" si="2"/>
         <v>0.9768943005941465</v>
       </c>
-      <c r="AM14" s="11">
-        <f>AG14/C14</f>
+      <c r="AM14">
+        <f t="shared" si="3"/>
         <v>0.74206483943368662</v>
       </c>
-      <c r="AN14" s="11" t="s">
+      <c r="AN14" t="s">
         <v>40</v>
       </c>
-      <c r="AO14" s="11">
+      <c r="AO14">
         <v>3600</v>
       </c>
       <c r="AP14" s="5">
@@ -3516,14 +3511,14 @@
       <c r="AT14" s="5">
         <v>0.111</v>
       </c>
-      <c r="AU14" s="11">
-        <f>AP14/AG14</f>
+      <c r="AU14">
+        <f t="shared" si="4"/>
         <v>0.89021515367672821</v>
       </c>
       <c r="AV14" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AW14" s="19">
+      <c r="AW14" s="10">
         <v>3600</v>
       </c>
       <c r="AX14" s="5">
@@ -3542,11 +3537,11 @@
         <v>0.11</v>
       </c>
       <c r="BC14" s="5">
-        <f>AX14/AP14</f>
+        <f t="shared" si="5"/>
         <v>1.1504404018749479</v>
       </c>
     </row>
-    <row r="15" spans="1:55">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -3589,29 +3584,29 @@
       <c r="N15">
         <v>0.79200000000000004</v>
       </c>
-      <c r="O15" s="9" t="s">
+      <c r="O15" t="s">
         <v>38</v>
       </c>
-      <c r="P15" s="9">
+      <c r="P15">
         <v>29600</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="Q15" s="5">
         <v>10284.471</v>
       </c>
-      <c r="R15" s="9">
+      <c r="R15">
         <v>0.34699999999999998</v>
       </c>
-      <c r="S15" s="9">
+      <c r="S15">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="T15" s="9">
+      <c r="T15">
         <v>13.071</v>
       </c>
-      <c r="U15" s="9">
+      <c r="U15">
         <v>0.77400000000000002</v>
       </c>
       <c r="V15">
-        <f>Q15/C15</f>
+        <f t="shared" si="0"/>
         <v>0.95686507620098793</v>
       </c>
       <c r="W15" t="s">
@@ -3636,42 +3631,42 @@
         <v>0.70899999999999996</v>
       </c>
       <c r="AD15">
-        <f>Y15/Q15</f>
+        <f t="shared" si="1"/>
         <v>0.87950406005325898</v>
       </c>
-      <c r="AE15" s="11" t="s">
+      <c r="AE15" t="s">
         <v>38</v>
       </c>
-      <c r="AF15" s="11">
+      <c r="AF15">
         <v>29600</v>
       </c>
-      <c r="AG15" s="11">
+      <c r="AG15">
         <v>8603.8979999999992</v>
       </c>
-      <c r="AH15" s="11">
+      <c r="AH15">
         <v>0.29099999999999998</v>
       </c>
-      <c r="AI15" s="11">
+      <c r="AI15">
         <v>2.4E-2</v>
       </c>
-      <c r="AJ15" s="11">
+      <c r="AJ15">
         <v>11.689</v>
       </c>
-      <c r="AK15" s="11">
+      <c r="AK15">
         <v>0.67700000000000005</v>
       </c>
-      <c r="AL15" s="11">
-        <f>AG15/Y15</f>
+      <c r="AL15">
+        <f t="shared" si="2"/>
         <v>0.9512078957824639</v>
       </c>
-      <c r="AM15" s="11">
-        <f>AG15/C15</f>
+      <c r="AM15">
+        <f t="shared" si="3"/>
         <v>0.80050490836091881</v>
       </c>
-      <c r="AN15" s="11" t="s">
+      <c r="AN15" t="s">
         <v>38</v>
       </c>
-      <c r="AO15" s="11">
+      <c r="AO15">
         <v>32000</v>
       </c>
       <c r="AP15" s="5">
@@ -3689,14 +3684,14 @@
       <c r="AT15" s="5">
         <v>0.68700000000000006</v>
       </c>
-      <c r="AU15" s="11">
-        <f>AP15/AG15</f>
+      <c r="AU15">
+        <f t="shared" si="4"/>
         <v>1.1986083517029142</v>
       </c>
       <c r="AV15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AW15" s="19">
+      <c r="AW15" s="10">
         <v>29600</v>
       </c>
       <c r="AX15" s="5">
@@ -3715,11 +3710,11 @@
         <v>0.68400000000000005</v>
       </c>
       <c r="BC15" s="5">
-        <f>AX15/AP15</f>
+        <f t="shared" si="5"/>
         <v>0.84452613010128097</v>
       </c>
     </row>
-    <row r="16" spans="1:55">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -3784,92 +3779,92 @@
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="V16">
-        <f>Q16/C16</f>
+        <f t="shared" si="0"/>
         <v>0.95306003058850064</v>
       </c>
-      <c r="W16" s="9" t="s">
+      <c r="W16" t="s">
         <v>30</v>
       </c>
-      <c r="X16" s="9">
+      <c r="X16">
         <v>3400</v>
       </c>
-      <c r="Y16" s="9">
+      <c r="Y16">
         <v>616.31399999999996</v>
       </c>
-      <c r="Z16" s="9">
+      <c r="Z16">
         <v>0.18099999999999999</v>
       </c>
-      <c r="AA16" s="9">
+      <c r="AA16">
         <v>0.13</v>
       </c>
-      <c r="AB16" s="9">
+      <c r="AB16">
         <v>0.54600000000000004</v>
       </c>
-      <c r="AC16" s="9">
+      <c r="AC16">
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="AD16">
-        <f>Y16/Q16</f>
+        <f t="shared" si="1"/>
         <v>0.84822568924513342</v>
       </c>
-      <c r="AE16" s="13" t="s">
+      <c r="AE16" t="s">
         <v>30</v>
       </c>
-      <c r="AF16" s="13">
+      <c r="AF16">
         <v>3400</v>
       </c>
-      <c r="AG16" s="13">
+      <c r="AG16">
         <v>626.94299999999998</v>
       </c>
-      <c r="AH16" s="13">
+      <c r="AH16">
         <v>0.184</v>
       </c>
-      <c r="AI16" s="13">
+      <c r="AI16">
         <v>0.128</v>
       </c>
-      <c r="AJ16" s="13">
+      <c r="AJ16">
         <v>0.77700000000000002</v>
       </c>
-      <c r="AK16" s="13">
+      <c r="AK16">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="AL16" s="11">
-        <f>AG16/Y16</f>
+      <c r="AL16">
+        <f t="shared" si="2"/>
         <v>1.0172460791090256</v>
       </c>
-      <c r="AM16" s="11">
-        <f>AG16/C16</f>
+      <c r="AM16">
+        <f t="shared" si="3"/>
         <v>0.82235190417352011</v>
       </c>
-      <c r="AN16" s="16" t="s">
+      <c r="AN16" t="s">
         <v>30</v>
       </c>
-      <c r="AO16" s="16">
+      <c r="AO16">
         <v>3400</v>
       </c>
-      <c r="AP16" s="10">
+      <c r="AP16" s="5">
         <v>595.42700000000002</v>
       </c>
-      <c r="AQ16" s="10">
+      <c r="AQ16" s="5">
         <v>0.17499999999999999</v>
       </c>
-      <c r="AR16" s="10">
+      <c r="AR16" s="5">
         <v>0.124</v>
       </c>
-      <c r="AS16" s="10">
+      <c r="AS16" s="5">
         <v>0.58299999999999996</v>
       </c>
-      <c r="AT16" s="10">
+      <c r="AT16" s="5">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="AU16" s="11">
-        <f>AP16/AG16</f>
+      <c r="AU16">
+        <f t="shared" si="4"/>
         <v>0.94973067727050153</v>
       </c>
       <c r="AV16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AW16" s="19">
+      <c r="AW16" s="10">
         <v>3400</v>
       </c>
       <c r="AX16" s="5">
@@ -3888,11 +3883,11 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="BC16" s="5">
-        <f>AX16/AP16</f>
+        <f t="shared" si="5"/>
         <v>1.0690983109600338</v>
       </c>
     </row>
-    <row r="17" spans="1:55">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -3935,29 +3930,29 @@
       <c r="N17">
         <v>0.40600000000000003</v>
       </c>
-      <c r="O17" s="9" t="s">
+      <c r="O17" t="s">
         <v>8</v>
       </c>
-      <c r="P17" s="9">
+      <c r="P17">
         <v>6800</v>
       </c>
-      <c r="Q17" s="10">
+      <c r="Q17" s="5">
         <v>1565.57</v>
       </c>
-      <c r="R17" s="9">
+      <c r="R17">
         <v>0.23</v>
       </c>
-      <c r="S17" s="9">
+      <c r="S17">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="T17" s="9">
+      <c r="T17">
         <v>27.581</v>
       </c>
-      <c r="U17" s="9">
+      <c r="U17">
         <v>0.51700000000000002</v>
       </c>
       <c r="V17">
-        <f>Q17/C17</f>
+        <f t="shared" si="0"/>
         <v>0.96674317520950315</v>
       </c>
       <c r="W17" t="s">
@@ -3982,42 +3977,42 @@
         <v>0.32</v>
       </c>
       <c r="AD17">
-        <f>Y17/Q17</f>
+        <f t="shared" si="1"/>
         <v>0.79855771380391816</v>
       </c>
-      <c r="AE17" s="11" t="s">
+      <c r="AE17" t="s">
         <v>8</v>
       </c>
-      <c r="AF17" s="11">
+      <c r="AF17">
         <v>6800</v>
       </c>
-      <c r="AG17" s="11">
+      <c r="AG17">
         <v>1230.9880000000001</v>
       </c>
-      <c r="AH17" s="11">
+      <c r="AH17">
         <v>0.18099999999999999</v>
       </c>
-      <c r="AI17" s="11">
+      <c r="AI17">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="AJ17" s="11">
+      <c r="AJ17">
         <v>1.605</v>
       </c>
-      <c r="AK17" s="11">
+      <c r="AK17">
         <v>0.313</v>
       </c>
-      <c r="AL17" s="11">
-        <f>AG17/Y17</f>
+      <c r="AL17">
+        <f t="shared" si="2"/>
         <v>0.98463443390566929</v>
       </c>
-      <c r="AM17" s="11">
-        <f>AG17/C17</f>
+      <c r="AM17">
+        <f t="shared" si="3"/>
         <v>0.76013799942819293</v>
       </c>
-      <c r="AN17" s="11" t="s">
+      <c r="AN17" t="s">
         <v>8</v>
       </c>
-      <c r="AO17" s="11">
+      <c r="AO17">
         <v>6800</v>
       </c>
       <c r="AP17" s="5">
@@ -4035,14 +4030,14 @@
       <c r="AT17" s="5">
         <v>0.27400000000000002</v>
       </c>
-      <c r="AU17" s="11">
-        <f>AP17/AG17</f>
+      <c r="AU17">
+        <f t="shared" si="4"/>
         <v>0.89111104251219331</v>
       </c>
       <c r="AV17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AW17" s="19">
+      <c r="AW17" s="10">
         <v>6800</v>
       </c>
       <c r="AX17" s="5">
@@ -4061,11 +4056,11 @@
         <v>0.32100000000000001</v>
       </c>
       <c r="BC17" s="5">
-        <f>AX17/AP17</f>
+        <f t="shared" si="5"/>
         <v>1.1519480886496796</v>
       </c>
     </row>
-    <row r="18" spans="1:55">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -4108,29 +4103,29 @@
       <c r="N18">
         <v>0.30199999999999999</v>
       </c>
-      <c r="O18" s="9" t="s">
+      <c r="O18" t="s">
         <v>41</v>
       </c>
-      <c r="P18" s="9">
+      <c r="P18">
         <v>96000</v>
       </c>
-      <c r="Q18" s="10">
+      <c r="Q18" s="5">
         <v>20133.52</v>
       </c>
-      <c r="R18" s="9">
+      <c r="R18">
         <v>0.21</v>
       </c>
-      <c r="S18" s="9">
+      <c r="S18">
         <v>6.3E-2</v>
       </c>
-      <c r="T18" s="9">
+      <c r="T18">
         <v>20.428999999999998</v>
       </c>
-      <c r="U18" s="9">
+      <c r="U18">
         <v>0.308</v>
       </c>
       <c r="V18">
-        <f>Q18/C18</f>
+        <f t="shared" si="0"/>
         <v>0.91921469781454634</v>
       </c>
       <c r="W18" t="s">
@@ -4155,42 +4150,42 @@
         <v>0.248</v>
       </c>
       <c r="AD18">
-        <f>Y18/Q18</f>
+        <f t="shared" si="1"/>
         <v>0.79699709737790514</v>
       </c>
-      <c r="AE18" s="11" t="s">
+      <c r="AE18" t="s">
         <v>41</v>
       </c>
-      <c r="AF18" s="11">
+      <c r="AF18">
         <v>96000</v>
       </c>
-      <c r="AG18" s="11">
+      <c r="AG18">
         <v>16357.037</v>
       </c>
-      <c r="AH18" s="11">
+      <c r="AH18">
         <v>0.17</v>
       </c>
-      <c r="AI18" s="11">
+      <c r="AI18">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="AJ18" s="11">
+      <c r="AJ18">
         <v>5.2069999999999999</v>
       </c>
-      <c r="AK18" s="11">
+      <c r="AK18">
         <v>0.25600000000000001</v>
       </c>
-      <c r="AL18" s="11">
-        <f>AG18/Y18</f>
+      <c r="AL18">
+        <f t="shared" si="2"/>
         <v>1.0193614039622825</v>
       </c>
-      <c r="AM18" s="11">
-        <f>AG18/C18</f>
+      <c r="AM18">
+        <f t="shared" si="3"/>
         <v>0.74679583217918943</v>
       </c>
-      <c r="AN18" s="11" t="s">
+      <c r="AN18" t="s">
         <v>41</v>
       </c>
-      <c r="AO18" s="11">
+      <c r="AO18">
         <v>96000</v>
       </c>
       <c r="AP18" s="5">
@@ -4208,14 +4203,14 @@
       <c r="AT18" s="5">
         <v>0.25</v>
       </c>
-      <c r="AU18" s="11">
-        <f>AP18/AG18</f>
+      <c r="AU18">
+        <f t="shared" si="4"/>
         <v>0.99256625756853145</v>
       </c>
       <c r="AV18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AW18" s="19">
+      <c r="AW18" s="10">
         <v>96000</v>
       </c>
       <c r="AX18" s="5">
@@ -4234,11 +4229,11 @@
         <v>0.25800000000000001</v>
       </c>
       <c r="BC18" s="5">
-        <f>AX18/AP18</f>
+        <f t="shared" si="5"/>
         <v>1.0250253719593609</v>
       </c>
     </row>
-    <row r="19" spans="1:55">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -4303,7 +4298,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="V19">
-        <f>Q19/C19</f>
+        <f t="shared" si="0"/>
         <v>0.95269553391497597</v>
       </c>
       <c r="W19" t="s">
@@ -4328,42 +4323,42 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="AD19">
-        <f>Y19/Q19</f>
+        <f t="shared" si="1"/>
         <v>0.83800561801921047</v>
       </c>
-      <c r="AE19" s="11" t="s">
+      <c r="AE19" t="s">
         <v>27</v>
       </c>
-      <c r="AF19" s="11">
+      <c r="AF19">
         <v>6800</v>
       </c>
-      <c r="AG19" s="11">
+      <c r="AG19">
         <v>1145.8230000000001</v>
       </c>
-      <c r="AH19" s="11">
+      <c r="AH19">
         <v>0.16900000000000001</v>
       </c>
-      <c r="AI19" s="11">
+      <c r="AI19">
         <v>0.122</v>
       </c>
-      <c r="AJ19" s="11">
+      <c r="AJ19">
         <v>3.3090000000000002</v>
       </c>
-      <c r="AK19" s="11">
+      <c r="AK19">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="AL19" s="11">
-        <f>AG19/Y19</f>
+      <c r="AL19">
+        <f t="shared" si="2"/>
         <v>1.0144793703944066</v>
       </c>
-      <c r="AM19" s="11">
-        <f>AG19/C19</f>
+      <c r="AM19">
+        <f t="shared" si="3"/>
         <v>0.80992402078419268</v>
       </c>
-      <c r="AN19" s="11" t="s">
+      <c r="AN19" t="s">
         <v>27</v>
       </c>
-      <c r="AO19" s="11">
+      <c r="AO19">
         <v>6800</v>
       </c>
       <c r="AP19" s="5">
@@ -4381,14 +4376,14 @@
       <c r="AT19" s="5">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="AU19" s="11">
-        <f>AP19/AG19</f>
+      <c r="AU19">
+        <f t="shared" si="4"/>
         <v>0.94677973823182116</v>
       </c>
       <c r="AV19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AW19" s="19">
+      <c r="AW19" s="10">
         <v>6800</v>
       </c>
       <c r="AX19" s="5">
@@ -4407,11 +4402,11 @@
         <v>6.2E-2</v>
       </c>
       <c r="BC19" s="5">
-        <f>AX19/AP19</f>
+        <f t="shared" si="5"/>
         <v>1.0740421185757925</v>
       </c>
     </row>
-    <row r="20" spans="1:55">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -4476,7 +4471,7 @@
         <v>0.46400000000000002</v>
       </c>
       <c r="V20">
-        <f>Q20/C20</f>
+        <f t="shared" si="0"/>
         <v>0.96522352048147053</v>
       </c>
       <c r="W20" t="s">
@@ -4501,42 +4496,42 @@
         <v>0.29899999999999999</v>
       </c>
       <c r="AD20">
-        <f>Y20/Q20</f>
+        <f t="shared" si="1"/>
         <v>0.80034265620348166</v>
       </c>
-      <c r="AE20" s="11" t="s">
+      <c r="AE20" t="s">
         <v>9</v>
       </c>
-      <c r="AF20" s="11">
+      <c r="AF20">
         <v>9600</v>
       </c>
-      <c r="AG20" s="11">
+      <c r="AG20">
         <v>1403.1780000000001</v>
       </c>
-      <c r="AH20" s="11">
+      <c r="AH20">
         <v>0.14599999999999999</v>
       </c>
-      <c r="AI20" s="11">
+      <c r="AI20">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AJ20" s="11">
+      <c r="AJ20">
         <v>1.7210000000000001</v>
       </c>
-      <c r="AK20" s="11">
+      <c r="AK20">
         <v>0.29299999999999998</v>
       </c>
-      <c r="AL20" s="11">
-        <f>AG20/Y20</f>
+      <c r="AL20">
+        <f t="shared" si="2"/>
         <v>0.98483974345476988</v>
       </c>
-      <c r="AM20" s="11">
-        <f>AG20/C20</f>
+      <c r="AM20">
+        <f t="shared" si="3"/>
         <v>0.76079811315639667</v>
       </c>
-      <c r="AN20" s="11" t="s">
+      <c r="AN20" t="s">
         <v>9</v>
       </c>
-      <c r="AO20" s="11">
+      <c r="AO20">
         <v>9600</v>
       </c>
       <c r="AP20" s="5">
@@ -4554,14 +4549,14 @@
       <c r="AT20" s="5">
         <v>0.26100000000000001</v>
       </c>
-      <c r="AU20" s="11">
-        <f>AP20/AG20</f>
+      <c r="AU20">
+        <f t="shared" si="4"/>
         <v>0.90243433121100813</v>
       </c>
       <c r="AV20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AW20" s="19">
+      <c r="AW20" s="10">
         <v>9600</v>
       </c>
       <c r="AX20" s="5">
@@ -4580,11 +4575,11 @@
         <v>0.3</v>
       </c>
       <c r="BC20" s="5">
-        <f>AX20/AP20</f>
+        <f t="shared" si="5"/>
         <v>1.1356228815834777</v>
       </c>
     </row>
-    <row r="21" spans="1:55">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -4649,7 +4644,7 @@
         <v>0.217</v>
       </c>
       <c r="V21">
-        <f>Q21/C21</f>
+        <f t="shared" si="0"/>
         <v>0.96697059085469717</v>
       </c>
       <c r="W21" t="s">
@@ -4674,42 +4669,42 @@
         <v>0.16700000000000001</v>
       </c>
       <c r="AD21">
-        <f>Y21/Q21</f>
+        <f t="shared" si="1"/>
         <v>0.83495836625287079</v>
       </c>
-      <c r="AE21" s="11" t="s">
+      <c r="AE21" t="s">
         <v>42</v>
       </c>
-      <c r="AF21" s="11">
+      <c r="AF21">
         <v>205800</v>
       </c>
-      <c r="AG21" s="11">
+      <c r="AG21">
         <v>30228.37</v>
       </c>
-      <c r="AH21" s="11">
+      <c r="AH21">
         <v>0.14699999999999999</v>
       </c>
-      <c r="AI21" s="11">
+      <c r="AI21">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="AJ21" s="11">
+      <c r="AJ21">
         <v>3.9359999999999999</v>
       </c>
-      <c r="AK21" s="11">
+      <c r="AK21">
         <v>0.14199999999999999</v>
       </c>
-      <c r="AL21" s="11">
-        <f>AG21/Y21</f>
+      <c r="AL21">
+        <f t="shared" si="2"/>
         <v>0.81247597113181447</v>
       </c>
-      <c r="AM21" s="11">
-        <f>AG21/C21</f>
+      <c r="AM21">
+        <f t="shared" si="3"/>
         <v>0.65597699968108647</v>
       </c>
-      <c r="AN21" s="11" t="s">
+      <c r="AN21" t="s">
         <v>42</v>
       </c>
-      <c r="AO21" s="11">
+      <c r="AO21">
         <v>213400</v>
       </c>
       <c r="AP21" s="5">
@@ -4727,14 +4722,14 @@
       <c r="AT21" s="5">
         <v>0.13600000000000001</v>
       </c>
-      <c r="AU21" s="11">
-        <f>AP21/AG21</f>
+      <c r="AU21">
+        <f t="shared" si="4"/>
         <v>1.0306367495170927</v>
       </c>
       <c r="AV21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AW21" s="19">
+      <c r="AW21" s="10">
         <v>205800</v>
       </c>
       <c r="AX21" s="5">
@@ -4753,11 +4748,11 @@
         <v>0.14099999999999999</v>
       </c>
       <c r="BC21" s="5">
-        <f>AX21/AP21</f>
+        <f t="shared" si="5"/>
         <v>0.97557448339113084</v>
       </c>
     </row>
-    <row r="22" spans="1:55">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -4800,114 +4795,114 @@
       <c r="N22">
         <v>0.218</v>
       </c>
-      <c r="O22" s="9" t="s">
+      <c r="O22" t="s">
         <v>39</v>
       </c>
-      <c r="P22" s="9">
+      <c r="P22">
         <v>46600</v>
       </c>
-      <c r="Q22" s="10">
+      <c r="Q22" s="5">
         <v>5518.125</v>
       </c>
-      <c r="R22" s="9">
+      <c r="R22">
         <v>0.11799999999999999</v>
       </c>
-      <c r="S22" s="9">
+      <c r="S22">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="T22" s="9">
+      <c r="T22">
         <v>1.804</v>
       </c>
-      <c r="U22" s="9">
+      <c r="U22">
         <v>0.215</v>
       </c>
       <c r="V22">
-        <f>Q22/C22</f>
+        <f t="shared" si="0"/>
         <v>0.99759375279651652</v>
       </c>
-      <c r="W22" s="9" t="s">
+      <c r="W22" t="s">
         <v>39</v>
       </c>
-      <c r="X22" s="9">
+      <c r="X22">
         <v>46600</v>
       </c>
-      <c r="Y22" s="9">
+      <c r="Y22">
         <v>5397.6819999999998</v>
       </c>
-      <c r="Z22" s="9">
+      <c r="Z22">
         <v>0.11600000000000001</v>
       </c>
-      <c r="AA22" s="9">
+      <c r="AA22">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AB22" s="9">
+      <c r="AB22">
         <v>2.214</v>
       </c>
-      <c r="AC22" s="9">
+      <c r="AC22">
         <v>0.21299999999999999</v>
       </c>
       <c r="AD22">
-        <f>Y22/Q22</f>
+        <f t="shared" si="1"/>
         <v>0.9781732019481254</v>
       </c>
-      <c r="AE22" s="11" t="s">
+      <c r="AE22" t="s">
         <v>39</v>
       </c>
-      <c r="AF22" s="11">
+      <c r="AF22">
         <v>46600</v>
       </c>
-      <c r="AG22" s="11">
+      <c r="AG22">
         <v>5467.0069999999996</v>
       </c>
-      <c r="AH22" s="11">
+      <c r="AH22">
         <v>0.11700000000000001</v>
       </c>
-      <c r="AI22" s="11">
+      <c r="AI22">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AJ22" s="11">
+      <c r="AJ22">
         <v>2.3839999999999999</v>
       </c>
-      <c r="AK22" s="11">
+      <c r="AK22">
         <v>0.216</v>
       </c>
-      <c r="AL22" s="11">
-        <f>AG22/Y22</f>
+      <c r="AL22">
+        <f t="shared" si="2"/>
         <v>1.0128434761440188</v>
       </c>
-      <c r="AM22" s="11">
-        <f>AG22/C22</f>
+      <c r="AM22">
+        <f t="shared" si="3"/>
         <v>0.98835238956979499</v>
       </c>
-      <c r="AN22" s="16" t="s">
+      <c r="AN22" t="s">
         <v>39</v>
       </c>
-      <c r="AO22" s="16">
+      <c r="AO22">
         <v>46600</v>
       </c>
-      <c r="AP22" s="10">
+      <c r="AP22" s="5">
         <v>5435.5619999999999</v>
       </c>
-      <c r="AQ22" s="10">
+      <c r="AQ22" s="5">
         <v>0.11700000000000001</v>
       </c>
-      <c r="AR22" s="10">
+      <c r="AR22" s="5">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AS22" s="10">
+      <c r="AS22" s="5">
         <v>1.8620000000000001</v>
       </c>
-      <c r="AT22" s="10">
+      <c r="AT22" s="5">
         <v>0.215</v>
       </c>
-      <c r="AU22" s="11">
-        <f>AP22/AG22</f>
+      <c r="AU22">
+        <f t="shared" si="4"/>
         <v>0.99424822393679035</v>
       </c>
       <c r="AV22" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AW22" s="19">
+      <c r="AW22" s="10">
         <v>46600</v>
       </c>
       <c r="AX22" s="5">
@@ -4926,11 +4921,11 @@
         <v>0.221</v>
       </c>
       <c r="BC22" s="5">
-        <f>AX22/AP22</f>
+        <f t="shared" si="5"/>
         <v>1.0284643979776149</v>
       </c>
     </row>
-    <row r="23" spans="1:55">
+    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -4995,67 +4990,67 @@
         <v>0.23200000000000001</v>
       </c>
       <c r="V23">
-        <f>Q23/C23</f>
+        <f t="shared" si="0"/>
         <v>0.95771429042720302</v>
       </c>
-      <c r="W23" s="9" t="s">
+      <c r="W23" t="s">
         <v>43</v>
       </c>
-      <c r="X23" s="9">
+      <c r="X23">
         <v>95600</v>
       </c>
-      <c r="Y23" s="9">
+      <c r="Y23">
         <v>10578.442999999999</v>
       </c>
-      <c r="Z23" s="9">
+      <c r="Z23">
         <v>0.111</v>
       </c>
-      <c r="AA23" s="9">
+      <c r="AA23">
         <v>0</v>
       </c>
-      <c r="AB23" s="9">
+      <c r="AB23">
         <v>2.6680000000000001</v>
       </c>
-      <c r="AC23" s="9">
+      <c r="AC23">
         <v>0.216</v>
       </c>
       <c r="AD23">
-        <f>Y23/Q23</f>
+        <f t="shared" si="1"/>
         <v>0.87595199275287305</v>
       </c>
-      <c r="AE23" s="11" t="s">
+      <c r="AE23" t="s">
         <v>43</v>
       </c>
-      <c r="AF23" s="11">
+      <c r="AF23">
         <v>95600</v>
       </c>
-      <c r="AG23" s="11">
+      <c r="AG23">
         <v>10745.699000000001</v>
       </c>
-      <c r="AH23" s="11">
+      <c r="AH23">
         <v>0.112</v>
       </c>
-      <c r="AI23" s="11">
+      <c r="AI23">
         <v>0</v>
       </c>
-      <c r="AJ23" s="11">
+      <c r="AJ23">
         <v>6.0469999999999997</v>
       </c>
-      <c r="AK23" s="11">
+      <c r="AK23">
         <v>0.222</v>
       </c>
-      <c r="AL23" s="11">
-        <f>AG23/Y23</f>
+      <c r="AL23">
+        <f t="shared" si="2"/>
         <v>1.0158110224727781</v>
       </c>
-      <c r="AM23" s="11">
-        <f>AG23/C23</f>
+      <c r="AM23">
+        <f t="shared" si="3"/>
         <v>0.85217579358020701</v>
       </c>
-      <c r="AN23" s="11" t="s">
+      <c r="AN23" t="s">
         <v>43</v>
       </c>
-      <c r="AO23" s="11">
+      <c r="AO23">
         <v>98800</v>
       </c>
       <c r="AP23" s="5">
@@ -5073,14 +5068,14 @@
       <c r="AT23" s="5">
         <v>0.21199999999999999</v>
       </c>
-      <c r="AU23" s="11">
-        <f>AP23/AG23</f>
+      <c r="AU23">
+        <f t="shared" si="4"/>
         <v>0.97951087221036059</v>
       </c>
       <c r="AV23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AW23" s="19">
+      <c r="AW23" s="10">
         <v>95600</v>
       </c>
       <c r="AX23" s="5">
@@ -5099,11 +5094,11 @@
         <v>0.224</v>
       </c>
       <c r="BC23" s="5">
-        <f>AX23/AP23</f>
+        <f t="shared" si="5"/>
         <v>1.0375336004489655</v>
       </c>
     </row>
-    <row r="24" spans="1:55">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -5168,7 +5163,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="V24">
-        <f>Q24/C24</f>
+        <f t="shared" si="0"/>
         <v>0.91945944241234678</v>
       </c>
       <c r="W24" t="s">
@@ -5193,42 +5188,42 @@
         <v>7.8E-2</v>
       </c>
       <c r="AD24">
-        <f>Y24/Q24</f>
+        <f t="shared" si="1"/>
         <v>0.72654672632871997</v>
       </c>
-      <c r="AE24" s="11" t="s">
+      <c r="AE24" t="s">
         <v>10</v>
       </c>
-      <c r="AF24" s="11">
+      <c r="AF24">
         <v>6800</v>
       </c>
-      <c r="AG24" s="11">
+      <c r="AG24">
         <v>1167.124</v>
       </c>
-      <c r="AH24" s="11">
+      <c r="AH24">
         <v>0.17199999999999999</v>
       </c>
-      <c r="AI24" s="11">
+      <c r="AI24">
         <v>0.13100000000000001</v>
       </c>
-      <c r="AJ24" s="11">
+      <c r="AJ24">
         <v>0.68100000000000005</v>
       </c>
-      <c r="AK24" s="11">
+      <c r="AK24">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="AL24" s="11">
-        <f>AG24/Y24</f>
+      <c r="AL24">
+        <f t="shared" si="2"/>
         <v>0.9338807464171035</v>
       </c>
-      <c r="AM24" s="11">
-        <f>AG24/C24</f>
+      <c r="AM24">
+        <f t="shared" si="3"/>
         <v>0.6238605865163146</v>
       </c>
-      <c r="AN24" s="11" t="s">
+      <c r="AN24" t="s">
         <v>10</v>
       </c>
-      <c r="AO24" s="11">
+      <c r="AO24">
         <v>6800</v>
       </c>
       <c r="AP24" s="5">
@@ -5246,14 +5241,14 @@
       <c r="AT24" s="5">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="AU24" s="11">
-        <f>AP24/AG24</f>
+      <c r="AU24">
+        <f t="shared" si="4"/>
         <v>0.63664614899530803</v>
       </c>
       <c r="AV24" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AW24" s="19">
+      <c r="AW24" s="10">
         <v>6800</v>
       </c>
       <c r="AX24" s="5">
@@ -5272,11 +5267,11 @@
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="BC24" s="5">
-        <f>AX24/AP24</f>
+        <f t="shared" si="5"/>
         <v>1.0216460645048417</v>
       </c>
     </row>
-    <row r="25" spans="1:55">
+    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -5341,7 +5336,7 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="V25">
-        <f>Q25/C25</f>
+        <f t="shared" si="0"/>
         <v>0.97400969318691355</v>
       </c>
       <c r="W25" t="s">
@@ -5366,42 +5361,42 @@
         <v>0.159</v>
       </c>
       <c r="AD25">
-        <f>Y25/Q25</f>
+        <f t="shared" si="1"/>
         <v>0.83519421489903467</v>
       </c>
-      <c r="AE25" s="11" t="s">
+      <c r="AE25" t="s">
         <v>14</v>
       </c>
-      <c r="AF25" s="11">
+      <c r="AF25">
         <v>307400</v>
       </c>
-      <c r="AG25" s="11">
+      <c r="AG25">
         <v>26720.541000000001</v>
       </c>
-      <c r="AH25" s="11">
+      <c r="AH25">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="AI25" s="11">
+      <c r="AI25">
         <v>1E-3</v>
       </c>
-      <c r="AJ25" s="11">
+      <c r="AJ25">
         <v>3.9590000000000001</v>
       </c>
-      <c r="AK25" s="11">
+      <c r="AK25">
         <v>0.13100000000000001</v>
       </c>
-      <c r="AL25" s="11">
-        <f>AG25/Y25</f>
+      <c r="AL25">
+        <f t="shared" si="2"/>
         <v>0.79149816075191759</v>
       </c>
-      <c r="AM25" s="11">
-        <f>AG25/C25</f>
+      <c r="AM25">
+        <f t="shared" si="3"/>
         <v>0.64387367088080527</v>
       </c>
-      <c r="AN25" s="11" t="s">
+      <c r="AN25" t="s">
         <v>14</v>
       </c>
-      <c r="AO25" s="11">
+      <c r="AO25">
         <v>307400</v>
       </c>
       <c r="AP25" s="5">
@@ -5419,14 +5414,14 @@
       <c r="AT25" s="5">
         <v>0.126</v>
       </c>
-      <c r="AU25" s="11">
-        <f>AP25/AG25</f>
+      <c r="AU25">
+        <f t="shared" si="4"/>
         <v>0.98211465853180135</v>
       </c>
       <c r="AV25" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AW25" s="19">
+      <c r="AW25" s="10">
         <v>307400</v>
       </c>
       <c r="AX25" s="5">
@@ -5445,11 +5440,11 @@
         <v>0.13</v>
       </c>
       <c r="BC25" s="5">
-        <f>AX25/AP25</f>
+        <f t="shared" si="5"/>
         <v>1.02447517179582</v>
       </c>
     </row>
-    <row r="26" spans="1:55">
+    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -5514,7 +5509,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="V26">
-        <f>Q26/C26</f>
+        <f t="shared" si="0"/>
         <v>0.91057577838322923</v>
       </c>
       <c r="W26" t="s">
@@ -5539,42 +5534,42 @@
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="AD26">
-        <f>Y26/Q26</f>
+        <f t="shared" si="1"/>
         <v>0.78761271766713092</v>
       </c>
-      <c r="AE26" s="11" t="s">
+      <c r="AE26" t="s">
         <v>23</v>
       </c>
-      <c r="AF26" s="11">
+      <c r="AF26">
         <v>309200</v>
       </c>
-      <c r="AG26" s="11">
+      <c r="AG26">
         <v>14916.228999999999</v>
       </c>
-      <c r="AH26" s="11">
+      <c r="AH26">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="AI26" s="11">
+      <c r="AI26">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="AJ26" s="11">
+      <c r="AJ26">
         <v>4.97</v>
       </c>
-      <c r="AK26" s="11">
+      <c r="AK26">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="AL26" s="11">
-        <f>AG26/Y26</f>
+      <c r="AL26">
+        <f t="shared" si="2"/>
         <v>1.0193547315723333</v>
       </c>
-      <c r="AM26" s="11">
-        <f>AG26/C26</f>
+      <c r="AM26">
+        <f t="shared" si="3"/>
         <v>0.73106191042619628</v>
       </c>
-      <c r="AN26" s="11" t="s">
+      <c r="AN26" t="s">
         <v>23</v>
       </c>
-      <c r="AO26" s="11">
+      <c r="AO26">
         <v>308800</v>
       </c>
       <c r="AP26" s="5">
@@ -5592,14 +5587,14 @@
       <c r="AT26" s="5">
         <v>0.05</v>
       </c>
-      <c r="AU26" s="11">
-        <f>AP26/AG26</f>
+      <c r="AU26">
+        <f t="shared" si="4"/>
         <v>0.98994109033858357</v>
       </c>
       <c r="AV26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AW26" s="19">
+      <c r="AW26" s="10">
         <v>309200</v>
       </c>
       <c r="AX26" s="5">
@@ -5618,11 +5613,11 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="BC26" s="5">
-        <f>AX26/AP26</f>
+        <f t="shared" si="5"/>
         <v>1.0238607960294153</v>
       </c>
     </row>
-    <row r="27" spans="1:55">
+    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -5687,7 +5682,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="V27">
-        <f>Q27/C27</f>
+        <f t="shared" si="0"/>
         <v>0.91981696447240935</v>
       </c>
       <c r="W27" s="4" t="s">
@@ -5712,42 +5707,42 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="AD27">
-        <f>Y27/Q27</f>
+        <f t="shared" si="1"/>
         <v>0.76495309665347089</v>
       </c>
-      <c r="AE27" s="11" t="s">
+      <c r="AE27" t="s">
         <v>20</v>
       </c>
-      <c r="AF27" s="11">
+      <c r="AF27">
         <v>94798</v>
       </c>
-      <c r="AG27" s="11">
+      <c r="AG27">
         <v>4042.337</v>
       </c>
-      <c r="AH27" s="11">
+      <c r="AH27">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="AI27" s="11">
+      <c r="AI27">
         <v>2.3E-2</v>
       </c>
-      <c r="AJ27" s="11">
+      <c r="AJ27">
         <v>5.7679999999999998</v>
       </c>
-      <c r="AK27" s="11">
+      <c r="AK27">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="AL27" s="11">
-        <f>AG27/Y27</f>
+      <c r="AL27">
+        <f t="shared" si="2"/>
         <v>1.0180403777264686</v>
       </c>
-      <c r="AM27" s="11">
-        <f>AG27/C27</f>
+      <c r="AM27">
+        <f t="shared" si="3"/>
         <v>0.71631034881157685</v>
       </c>
-      <c r="AN27" s="14" t="s">
+      <c r="AN27" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AO27" s="14">
+      <c r="AO27" s="4">
         <v>94792</v>
       </c>
       <c r="AP27" s="8">
@@ -5765,14 +5760,14 @@
       <c r="AT27" s="8">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="AU27" s="11">
-        <f>AP27/AG27</f>
+      <c r="AU27">
+        <f t="shared" si="4"/>
         <v>0.95611424777300857</v>
       </c>
       <c r="AV27" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AW27" s="19">
+      <c r="AW27" s="10">
         <v>94818</v>
       </c>
       <c r="AX27" s="5">
@@ -5791,11 +5786,11 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="BC27" s="5">
-        <f>AX27/AP27</f>
+        <f t="shared" si="5"/>
         <v>1.0538772181479847</v>
       </c>
     </row>
-    <row r="28" spans="1:55">
+    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -5860,92 +5855,92 @@
         <v>0.09</v>
       </c>
       <c r="V28">
-        <f>Q28/C28</f>
+        <f t="shared" si="0"/>
         <v>0.90510529796111949</v>
       </c>
-      <c r="W28" s="9" t="s">
+      <c r="W28" t="s">
         <v>12</v>
       </c>
-      <c r="X28" s="9">
+      <c r="X28">
         <v>638000</v>
       </c>
-      <c r="Y28" s="9">
+      <c r="Y28">
         <v>12303.745000000001</v>
       </c>
-      <c r="Z28" s="9">
+      <c r="Z28">
         <v>1.9E-2</v>
       </c>
-      <c r="AA28" s="9">
+      <c r="AA28">
         <v>0</v>
       </c>
-      <c r="AB28" s="9">
+      <c r="AB28">
         <v>3.4220000000000002</v>
       </c>
-      <c r="AC28" s="9">
+      <c r="AC28">
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="AD28">
-        <f>Y28/Q28</f>
+        <f t="shared" si="1"/>
         <v>0.68150101271797869</v>
       </c>
-      <c r="AE28" s="14" t="s">
+      <c r="AE28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AF28" s="14">
+      <c r="AF28" s="4">
         <v>638000</v>
       </c>
-      <c r="AG28" s="14">
+      <c r="AG28" s="4">
         <v>11711.659</v>
       </c>
-      <c r="AH28" s="14">
+      <c r="AH28" s="4">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="AI28" s="14">
+      <c r="AI28" s="4">
         <v>1E-3</v>
       </c>
-      <c r="AJ28" s="14">
+      <c r="AJ28" s="4">
         <v>2.5680000000000001</v>
       </c>
-      <c r="AK28" s="15">
+      <c r="AK28" s="9">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="AL28" s="11">
-        <f>AG28/Y28</f>
+      <c r="AL28">
+        <f t="shared" si="2"/>
         <v>0.95187757873720558</v>
       </c>
-      <c r="AM28" s="11">
-        <f>AG28/C28</f>
+      <c r="AM28">
+        <f t="shared" si="3"/>
         <v>0.58714681554319925</v>
       </c>
-      <c r="AN28" s="16" t="s">
+      <c r="AN28" t="s">
         <v>12</v>
       </c>
-      <c r="AO28" s="16">
+      <c r="AO28">
         <v>614800</v>
       </c>
-      <c r="AP28" s="10">
+      <c r="AP28" s="5">
         <v>11226.602000000001</v>
       </c>
-      <c r="AQ28" s="10">
+      <c r="AQ28" s="5">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="AR28" s="10">
+      <c r="AR28" s="5">
         <v>1E-3</v>
       </c>
-      <c r="AS28" s="10">
+      <c r="AS28" s="5">
         <v>2.395</v>
       </c>
-      <c r="AT28" s="10">
+      <c r="AT28" s="5">
         <v>0.06</v>
       </c>
-      <c r="AU28" s="11">
-        <f>AP28/AG28</f>
+      <c r="AU28">
+        <f t="shared" si="4"/>
         <v>0.95858340820886279</v>
       </c>
       <c r="AV28" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AW28" s="19">
+      <c r="AW28" s="10">
         <v>614800</v>
       </c>
       <c r="AX28" s="5">
@@ -5964,11 +5959,11 @@
         <v>6.3E-2</v>
       </c>
       <c r="BC28" s="5">
-        <f>AX28/AP28</f>
+        <f t="shared" si="5"/>
         <v>1.0305104785936117</v>
       </c>
     </row>
-    <row r="29" spans="1:55">
+    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -6033,7 +6028,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="V29">
-        <f>Q29/C29</f>
+        <f t="shared" si="0"/>
         <v>1.0160685268138119</v>
       </c>
       <c r="W29" t="s">
@@ -6058,42 +6053,42 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="AD29">
-        <f>Y29/Q29</f>
+        <f t="shared" si="1"/>
         <v>0.6140352998847749</v>
       </c>
-      <c r="AE29" s="11" t="s">
+      <c r="AE29" t="s">
         <v>13</v>
       </c>
-      <c r="AF29" s="11">
+      <c r="AF29">
         <v>307400</v>
       </c>
-      <c r="AG29" s="11">
+      <c r="AG29">
         <v>4494.1559999999999</v>
       </c>
-      <c r="AH29" s="11">
+      <c r="AH29">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AI29" s="11">
+      <c r="AI29">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AJ29" s="11">
+      <c r="AJ29">
         <v>13.471</v>
       </c>
-      <c r="AK29" s="11">
+      <c r="AK29">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="AL29" s="11">
-        <f>AG29/Y29</f>
+      <c r="AL29">
+        <f t="shared" si="2"/>
         <v>1.0292145721098487</v>
       </c>
-      <c r="AM29" s="11">
-        <f>AG29/C29</f>
+      <c r="AM29">
+        <f t="shared" si="3"/>
         <v>0.64212897085615794</v>
       </c>
-      <c r="AN29" s="11" t="s">
+      <c r="AN29" t="s">
         <v>13</v>
       </c>
-      <c r="AO29" s="11">
+      <c r="AO29">
         <v>307400</v>
       </c>
       <c r="AP29" s="5">
@@ -6111,14 +6106,14 @@
       <c r="AT29" s="5">
         <v>1.4E-2</v>
       </c>
-      <c r="AU29" s="11">
-        <f>AP29/AG29</f>
+      <c r="AU29">
+        <f t="shared" si="4"/>
         <v>0.98067201049540775</v>
       </c>
       <c r="AV29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AW29" s="19">
+      <c r="AW29" s="10">
         <v>307400</v>
       </c>
       <c r="AX29" s="5">
@@ -6137,11 +6132,11 @@
         <v>1.6E-2</v>
       </c>
       <c r="BC29" s="5">
-        <f>AX29/AP29</f>
+        <f t="shared" si="5"/>
         <v>1.0275459335242745</v>
       </c>
     </row>
-    <row r="30" spans="1:55">
+    <row r="30" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -6206,7 +6201,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="V30">
-        <f>Q30/C30</f>
+        <f t="shared" si="0"/>
         <v>1.032952763649247</v>
       </c>
       <c r="W30" t="s">
@@ -6231,42 +6226,42 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="AD30">
-        <f>Y30/Q30</f>
+        <f t="shared" si="1"/>
         <v>0.94335913883088074</v>
       </c>
-      <c r="AE30" s="11" t="s">
+      <c r="AE30" t="s">
         <v>15</v>
       </c>
-      <c r="AF30" s="11">
+      <c r="AF30">
         <v>1025200</v>
       </c>
-      <c r="AG30" s="11">
+      <c r="AG30">
         <v>6997.8869999999997</v>
       </c>
-      <c r="AH30" s="11">
+      <c r="AH30">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AI30" s="11">
+      <c r="AI30">
         <v>0</v>
       </c>
-      <c r="AJ30" s="11">
+      <c r="AJ30">
         <v>3.544</v>
       </c>
-      <c r="AK30" s="11">
+      <c r="AK30">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="AL30" s="11">
-        <f>AG30/Y30</f>
+      <c r="AL30">
+        <f t="shared" si="2"/>
         <v>0.37879238302146956</v>
       </c>
-      <c r="AM30" s="11">
-        <f>AG30/C30</f>
+      <c r="AM30">
+        <f t="shared" si="3"/>
         <v>0.36911250639087112</v>
       </c>
-      <c r="AN30" s="11" t="s">
+      <c r="AN30" t="s">
         <v>15</v>
       </c>
-      <c r="AO30" s="11">
+      <c r="AO30">
         <v>1058000</v>
       </c>
       <c r="AP30" s="5">
@@ -6284,14 +6279,14 @@
       <c r="AT30" s="5">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AU30" s="11">
-        <f>AP30/AG30</f>
+      <c r="AU30">
+        <f t="shared" si="4"/>
         <v>1.0498889164686427</v>
       </c>
       <c r="AV30" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AW30" s="19">
+      <c r="AW30" s="10">
         <v>1025200</v>
       </c>
       <c r="AX30" s="5">
@@ -6310,11 +6305,11 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="BC30" s="5">
-        <f>AX30/AP30</f>
+        <f t="shared" si="5"/>
         <v>0.97246986662862844</v>
       </c>
     </row>
-    <row r="31" spans="1:55">
+    <row r="31" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -6379,7 +6374,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="V31">
-        <f>Q31/C31</f>
+        <f t="shared" si="0"/>
         <v>1.0200514308432296</v>
       </c>
       <c r="W31" t="s">
@@ -6404,42 +6399,42 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="AD31">
-        <f>Y31/Q31</f>
+        <f t="shared" si="1"/>
         <v>0.60517663507842245</v>
       </c>
-      <c r="AE31" s="11" t="s">
+      <c r="AE31" t="s">
         <v>25</v>
       </c>
-      <c r="AF31" s="11">
+      <c r="AF31">
         <v>1168782</v>
       </c>
-      <c r="AG31" s="11">
+      <c r="AG31">
         <v>6364.8689999999997</v>
       </c>
-      <c r="AH31" s="11">
+      <c r="AH31">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AI31" s="11">
+      <c r="AI31">
         <v>2E-3</v>
       </c>
-      <c r="AJ31" s="11">
+      <c r="AJ31">
         <v>4.8449999999999998</v>
       </c>
-      <c r="AK31" s="11">
+      <c r="AK31">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AL31" s="11">
-        <f>AG31/Y31</f>
+      <c r="AL31">
+        <f t="shared" si="2"/>
         <v>1.0214671394560033</v>
       </c>
-      <c r="AM31" s="11">
-        <f>AG31/C31</f>
+      <c r="AM31">
+        <f t="shared" si="3"/>
         <v>0.63056320012902789</v>
       </c>
-      <c r="AN31" s="11" t="s">
+      <c r="AN31" t="s">
         <v>25</v>
       </c>
-      <c r="AO31" s="11">
+      <c r="AO31">
         <v>1167582</v>
       </c>
       <c r="AP31" s="5">
@@ -6457,14 +6452,14 @@
       <c r="AT31" s="5">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AU31" s="11">
-        <f>AP31/AG31</f>
+      <c r="AU31">
+        <f t="shared" si="4"/>
         <v>1.0036013309936151</v>
       </c>
       <c r="AV31" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AW31" s="19">
+      <c r="AW31" s="10">
         <v>1168850</v>
       </c>
       <c r="AX31" s="5">
@@ -6483,11 +6478,11 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="BC31" s="5">
-        <f>AX31/AP31</f>
+        <f t="shared" si="5"/>
         <v>1.0224468834374825</v>
       </c>
     </row>
-    <row r="32" spans="1:55">
+    <row r="32" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -6552,7 +6547,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="V32">
-        <f>Q32/C32</f>
+        <f t="shared" si="0"/>
         <v>0.69737237466785229</v>
       </c>
       <c r="W32" t="s">
@@ -6577,42 +6572,42 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AD32">
-        <f>Y32/Q32</f>
+        <f t="shared" si="1"/>
         <v>0.87463308747328261</v>
       </c>
-      <c r="AE32" s="11" t="s">
+      <c r="AE32" t="s">
         <v>24</v>
       </c>
-      <c r="AF32" s="11">
+      <c r="AF32">
         <v>3215782</v>
       </c>
-      <c r="AG32" s="11">
+      <c r="AG32">
         <v>15051.15</v>
       </c>
-      <c r="AH32" s="11">
+      <c r="AH32">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AI32" s="11">
+      <c r="AI32">
         <v>2E-3</v>
       </c>
-      <c r="AJ32" s="11">
+      <c r="AJ32">
         <v>5.657</v>
       </c>
-      <c r="AK32" s="11">
+      <c r="AK32">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AL32" s="11">
-        <f>AG32/Y32</f>
+      <c r="AL32">
+        <f t="shared" si="2"/>
         <v>1.0265247365374919</v>
       </c>
-      <c r="AM32" s="11">
-        <f>AG32/C32</f>
+      <c r="AM32">
+        <f t="shared" si="3"/>
         <v>0.62612358235963994</v>
       </c>
-      <c r="AN32" s="11" t="s">
+      <c r="AN32" t="s">
         <v>24</v>
       </c>
-      <c r="AO32" s="11">
+      <c r="AO32">
         <v>3267782</v>
       </c>
       <c r="AP32" s="5">
@@ -6630,14 +6625,14 @@
       <c r="AT32" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AU32" s="11">
-        <f>AP32/AG32</f>
+      <c r="AU32">
+        <f t="shared" si="4"/>
         <v>0.94328878524232374</v>
       </c>
       <c r="AV32" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AW32" s="19">
+      <c r="AW32" s="10">
         <v>3192650</v>
       </c>
       <c r="AX32" s="5">
@@ -6656,11 +6651,11 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="BC32" s="5">
-        <f>AX32/AP32</f>
+        <f t="shared" si="5"/>
         <v>1.0592260752025293</v>
       </c>
     </row>
-    <row r="33" spans="1:55">
+    <row r="33" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -6703,89 +6698,89 @@
       <c r="N33">
         <v>1.2E-2</v>
       </c>
-      <c r="O33" s="9" t="s">
+      <c r="O33" t="s">
         <v>26</v>
       </c>
-      <c r="P33" s="9">
+      <c r="P33">
         <v>414200</v>
       </c>
-      <c r="Q33" s="10">
+      <c r="Q33" s="5">
         <v>1812.431</v>
       </c>
-      <c r="R33" s="9">
+      <c r="R33">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="S33" s="9">
+      <c r="S33">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="T33" s="9">
+      <c r="T33">
         <v>0.59899999999999998</v>
       </c>
-      <c r="U33" s="9">
+      <c r="U33">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="V33">
-        <f>Q33/C33</f>
+        <f t="shared" si="0"/>
         <v>0.67675850022366546</v>
       </c>
-      <c r="W33" s="9" t="s">
+      <c r="W33" t="s">
         <v>26</v>
       </c>
-      <c r="X33" s="9">
+      <c r="X33">
         <v>414200</v>
       </c>
-      <c r="Y33" s="9">
+      <c r="Y33">
         <v>1610.3209999999999</v>
       </c>
-      <c r="Z33" s="9">
+      <c r="Z33">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AA33" s="9">
+      <c r="AA33">
         <v>2E-3</v>
       </c>
-      <c r="AB33" s="9">
+      <c r="AB33">
         <v>0.58399999999999996</v>
       </c>
-      <c r="AC33" s="9">
+      <c r="AC33">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="AD33">
-        <f>Y33/Q33</f>
+        <f t="shared" si="1"/>
         <v>0.88848678929018532</v>
       </c>
-      <c r="AE33" s="11" t="s">
+      <c r="AE33" t="s">
         <v>26</v>
       </c>
-      <c r="AF33" s="11">
+      <c r="AF33">
         <v>525200</v>
       </c>
-      <c r="AG33" s="11">
+      <c r="AG33">
         <v>1892.693</v>
       </c>
-      <c r="AH33" s="11">
+      <c r="AH33">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AI33" s="11">
+      <c r="AI33">
         <v>2E-3</v>
       </c>
-      <c r="AJ33" s="11">
+      <c r="AJ33">
         <v>1.4550000000000001</v>
       </c>
-      <c r="AK33" s="11">
+      <c r="AK33">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AL33" s="11">
-        <f>AG33/Y33</f>
+      <c r="AL33">
+        <f t="shared" si="2"/>
         <v>1.1753513740428152</v>
       </c>
-      <c r="AM33" s="11">
-        <f>AG33/C33</f>
+      <c r="AM33">
+        <f t="shared" si="3"/>
         <v>0.7067281877565712</v>
       </c>
-      <c r="AN33" s="11" t="s">
+      <c r="AN33" t="s">
         <v>26</v>
       </c>
-      <c r="AO33" s="11">
+      <c r="AO33">
         <v>540400</v>
       </c>
       <c r="AP33" s="5">
@@ -6803,14 +6798,14 @@
       <c r="AT33" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AU33" s="11">
-        <f>AP33/AG33</f>
+      <c r="AU33">
+        <f t="shared" si="4"/>
         <v>1.0243103345339155</v>
       </c>
       <c r="AV33" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AW33" s="19">
+      <c r="AW33" s="10">
         <v>525200</v>
       </c>
       <c r="AX33" s="5">
@@ -6829,11 +6824,11 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="BC33" s="5">
-        <f>AX33/AP33</f>
+        <f t="shared" si="5"/>
         <v>1.0577292574166777</v>
       </c>
     </row>
-    <row r="34" spans="1:55">
+    <row r="34" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -6898,7 +6893,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="V34">
-        <f>Q34/C34</f>
+        <f t="shared" si="0"/>
         <v>1.113643665397779</v>
       </c>
       <c r="W34" t="s">
@@ -6923,42 +6918,42 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="AD34">
-        <f>Y34/Q34</f>
+        <f t="shared" si="1"/>
         <v>0.88491003329966755</v>
       </c>
-      <c r="AE34" s="11" t="s">
+      <c r="AE34" t="s">
         <v>7</v>
       </c>
-      <c r="AF34" s="11">
+      <c r="AF34">
         <v>1149400</v>
       </c>
-      <c r="AG34" s="11">
+      <c r="AG34">
         <v>3672.3989999999999</v>
       </c>
-      <c r="AH34" s="11">
+      <c r="AH34">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AI34" s="11">
+      <c r="AI34">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AJ34" s="11">
+      <c r="AJ34">
         <v>2.0270000000000001</v>
       </c>
-      <c r="AK34" s="11">
+      <c r="AK34">
         <v>2E-3</v>
       </c>
-      <c r="AL34" s="11">
-        <f>AG34/Y34</f>
+      <c r="AL34">
+        <f t="shared" si="2"/>
         <v>0.69486354472461553</v>
       </c>
-      <c r="AM34" s="11">
-        <f>AG34/C34</f>
+      <c r="AM34">
+        <f t="shared" si="3"/>
         <v>0.68477027166875037</v>
       </c>
-      <c r="AN34" s="11" t="s">
+      <c r="AN34" t="s">
         <v>7</v>
       </c>
-      <c r="AO34" s="11">
+      <c r="AO34">
         <v>1153400</v>
       </c>
       <c r="AP34" s="5">
@@ -6976,14 +6971,14 @@
       <c r="AT34" s="5">
         <v>1E-3</v>
       </c>
-      <c r="AU34" s="11">
-        <f>AP34/AG34</f>
+      <c r="AU34">
+        <f t="shared" si="4"/>
         <v>0.97653604632829938</v>
       </c>
       <c r="AV34" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AW34" s="19">
+      <c r="AW34" s="10">
         <v>1149400</v>
       </c>
       <c r="AX34" s="5">
@@ -7002,11 +6997,11 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="BC34" s="5">
-        <f>AX34/AP34</f>
+        <f t="shared" si="5"/>
         <v>1.0105921817619059</v>
       </c>
     </row>
-    <row r="35" spans="1:55">
+    <row r="35" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -7071,7 +7066,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="V35">
-        <f>Q35/C35</f>
+        <f t="shared" si="0"/>
         <v>1.0084193111782773</v>
       </c>
       <c r="W35" t="s">
@@ -7096,42 +7091,42 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AD35">
-        <f>Y35/Q35</f>
+        <f t="shared" si="1"/>
         <v>0.46530021109127184</v>
       </c>
-      <c r="AE35" s="11" t="s">
+      <c r="AE35" t="s">
         <v>22</v>
       </c>
-      <c r="AF35" s="11">
+      <c r="AF35">
         <v>673200</v>
       </c>
-      <c r="AG35" s="11">
+      <c r="AG35">
         <v>2364.7809999999999</v>
       </c>
-      <c r="AH35" s="11">
+      <c r="AH35">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AI35" s="11">
+      <c r="AI35">
         <v>2E-3</v>
       </c>
-      <c r="AJ35" s="11">
+      <c r="AJ35">
         <v>3.8130000000000002</v>
       </c>
-      <c r="AK35" s="11">
+      <c r="AK35">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AL35" s="11">
-        <f>AG35/Y35</f>
+      <c r="AL35">
+        <f t="shared" si="2"/>
         <v>1.0232952118763432</v>
       </c>
-      <c r="AM35" s="11">
-        <f>AG35/C35</f>
+      <c r="AM35">
+        <f t="shared" si="3"/>
         <v>0.48014824452509247</v>
       </c>
-      <c r="AN35" s="11" t="s">
+      <c r="AN35" t="s">
         <v>22</v>
       </c>
-      <c r="AO35" s="11">
+      <c r="AO35">
         <v>673200</v>
       </c>
       <c r="AP35" s="5">
@@ -7149,14 +7144,14 @@
       <c r="AT35" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AU35" s="11">
-        <f>AP35/AG35</f>
+      <c r="AU35">
+        <f t="shared" si="4"/>
         <v>0.97635806444655981</v>
       </c>
       <c r="AV35" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AW35" s="19">
+      <c r="AW35" s="10">
         <v>673200</v>
       </c>
       <c r="AX35" s="5">
@@ -7175,11 +7170,11 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="BC35" s="5">
-        <f>AX35/AP35</f>
+        <f t="shared" si="5"/>
         <v>1.0188802069234644</v>
       </c>
     </row>
-    <row r="36" spans="1:55">
+    <row r="36" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -7244,7 +7239,7 @@
         <v>2E-3</v>
       </c>
       <c r="V36">
-        <f>Q36/C36</f>
+        <f t="shared" si="0"/>
         <v>1.041204693758524</v>
       </c>
       <c r="W36" t="s">
@@ -7269,42 +7264,42 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="AD36">
-        <f>Y36/Q36</f>
+        <f t="shared" si="1"/>
         <v>0.78797864678057838</v>
       </c>
-      <c r="AE36" s="11" t="s">
+      <c r="AE36" t="s">
         <v>21</v>
       </c>
-      <c r="AF36" s="11">
+      <c r="AF36">
         <v>1157000</v>
       </c>
-      <c r="AG36" s="11">
+      <c r="AG36">
         <v>950.02499999999998</v>
       </c>
-      <c r="AH36" s="11">
+      <c r="AH36">
         <v>1E-3</v>
       </c>
-      <c r="AI36" s="11">
+      <c r="AI36">
         <v>0</v>
       </c>
-      <c r="AJ36" s="11">
+      <c r="AJ36">
         <v>3.53</v>
       </c>
-      <c r="AK36" s="11">
+      <c r="AK36">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AL36" s="11">
-        <f>AG36/Y36</f>
+      <c r="AL36">
+        <f t="shared" si="2"/>
         <v>0.57281215632175031</v>
       </c>
-      <c r="AM36" s="11">
-        <f>AG36/C36</f>
+      <c r="AM36">
+        <f t="shared" si="3"/>
         <v>0.46996205279958919</v>
       </c>
-      <c r="AN36" s="11" t="s">
+      <c r="AN36" t="s">
         <v>21</v>
       </c>
-      <c r="AO36" s="11">
+      <c r="AO36">
         <v>1201400</v>
       </c>
       <c r="AP36" s="5">
@@ -7322,14 +7317,14 @@
       <c r="AT36" s="5">
         <v>2E-3</v>
       </c>
-      <c r="AU36" s="11">
-        <f>AP36/AG36</f>
+      <c r="AU36">
+        <f t="shared" si="4"/>
         <v>0.99643798847398746</v>
       </c>
       <c r="AV36" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AW36" s="19">
+      <c r="AW36" s="10">
         <v>1157000</v>
       </c>
       <c r="AX36" s="5">
@@ -7348,11 +7343,11 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="BC36" s="5">
-        <f>AX36/AP36</f>
+        <f t="shared" si="5"/>
         <v>1.015222243701678</v>
       </c>
     </row>
-    <row r="37" spans="1:55">
+    <row r="37" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -7417,7 +7412,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="V37">
-        <f>Q37/C37</f>
+        <f t="shared" si="0"/>
         <v>0.56411655855520759</v>
       </c>
       <c r="W37" t="s">
@@ -7442,42 +7437,42 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="AD37">
-        <f>Y37/Q37</f>
+        <f t="shared" si="1"/>
         <v>0.64443067245398022</v>
       </c>
-      <c r="AE37" s="16" t="s">
+      <c r="AE37" t="s">
         <v>44</v>
       </c>
-      <c r="AF37" s="16">
+      <c r="AF37">
         <v>2062678</v>
       </c>
-      <c r="AG37" s="16">
+      <c r="AG37">
         <v>1682.1479999999999</v>
       </c>
-      <c r="AH37" s="16">
+      <c r="AH37">
         <v>1E-3</v>
       </c>
-      <c r="AI37" s="16">
+      <c r="AI37">
         <v>0</v>
       </c>
-      <c r="AJ37" s="16">
+      <c r="AJ37">
         <v>0.186</v>
       </c>
-      <c r="AK37" s="16">
+      <c r="AK37">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AL37" s="11">
-        <f>AG37/Y37</f>
+      <c r="AL37">
+        <f t="shared" si="2"/>
         <v>1.0041571552736892</v>
       </c>
-      <c r="AM37" s="11">
-        <f>AG37/C37</f>
+      <c r="AM37">
+        <f t="shared" si="3"/>
         <v>0.3650452805121816</v>
       </c>
-      <c r="AN37" s="11" t="s">
+      <c r="AN37" t="s">
         <v>44</v>
       </c>
-      <c r="AO37" s="11">
+      <c r="AO37">
         <v>2100991</v>
       </c>
       <c r="AP37" s="5">
@@ -7495,14 +7490,14 @@
       <c r="AT37" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AU37" s="11">
-        <f>AP37/AG37</f>
+      <c r="AU37">
+        <f t="shared" si="4"/>
         <v>0.99460451755731361</v>
       </c>
       <c r="AV37" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AW37" s="19">
+      <c r="AW37" s="10">
         <v>2062730</v>
       </c>
       <c r="AX37" s="5">
@@ -7521,11 +7516,11 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="BC37" s="5">
-        <f>AX37/AP37</f>
+        <f t="shared" si="5"/>
         <v>1.0206554171009976</v>
       </c>
     </row>
-    <row r="38" spans="1:55">
+    <row r="38" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -7590,7 +7585,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="V38">
-        <f>Q38/C38</f>
+        <f t="shared" si="0"/>
         <v>1.0153756824730693</v>
       </c>
       <c r="W38" t="s">
@@ -7615,42 +7610,42 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="AD38">
-        <f>Y38/Q38</f>
+        <f t="shared" si="1"/>
         <v>0.24375597288667752</v>
       </c>
-      <c r="AE38" s="11" t="s">
+      <c r="AE38" t="s">
         <v>17</v>
       </c>
-      <c r="AF38" s="11">
+      <c r="AF38">
         <v>2117782</v>
       </c>
-      <c r="AG38" s="11">
+      <c r="AG38">
         <v>2783.7190000000001</v>
       </c>
-      <c r="AH38" s="11">
+      <c r="AH38">
         <v>1E-3</v>
       </c>
-      <c r="AI38" s="11">
+      <c r="AI38">
         <v>0</v>
       </c>
-      <c r="AJ38" s="11">
+      <c r="AJ38">
         <v>0.29299999999999998</v>
       </c>
-      <c r="AK38" s="11">
+      <c r="AK38">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AL38" s="11">
-        <f>AG38/Y38</f>
+      <c r="AL38">
+        <f t="shared" si="2"/>
         <v>1.0294057392204718</v>
       </c>
-      <c r="AM38" s="11">
-        <f>AG38/C38</f>
+      <c r="AM38">
+        <f t="shared" si="3"/>
         <v>0.25478192209347911</v>
       </c>
-      <c r="AN38" s="11" t="s">
+      <c r="AN38" t="s">
         <v>17</v>
       </c>
-      <c r="AO38" s="11">
+      <c r="AO38">
         <v>2093382</v>
       </c>
       <c r="AP38" s="5">
@@ -7668,14 +7663,14 @@
       <c r="AT38" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AU38" s="11">
-        <f>AP38/AG38</f>
+      <c r="AU38">
+        <f t="shared" si="4"/>
         <v>0.99724505239214167</v>
       </c>
       <c r="AV38" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AW38" s="19">
+      <c r="AW38" s="10">
         <v>2094650</v>
       </c>
       <c r="AX38" s="5">
@@ -7694,11 +7689,11 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="BC38" s="5">
-        <f>AX38/AP38</f>
+        <f t="shared" si="5"/>
         <v>1.0272765259991714</v>
       </c>
     </row>
-    <row r="39" spans="1:55">
+    <row r="39" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -7763,7 +7758,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="V39">
-        <f>Q39/C39</f>
+        <f t="shared" si="0"/>
         <v>0.33675959229031988</v>
       </c>
       <c r="W39" t="s">
@@ -7788,42 +7783,42 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="AD39">
-        <f>Y39/Q39</f>
+        <f t="shared" si="1"/>
         <v>0.78141322243669809</v>
       </c>
-      <c r="AE39" s="11" t="s">
+      <c r="AE39" t="s">
         <v>19</v>
       </c>
-      <c r="AF39" s="11">
+      <c r="AF39">
         <v>538400</v>
       </c>
-      <c r="AG39" s="11">
+      <c r="AG39">
         <v>453.93700000000001</v>
       </c>
-      <c r="AH39" s="11">
+      <c r="AH39">
         <v>1E-3</v>
       </c>
-      <c r="AI39" s="11">
+      <c r="AI39">
         <v>0</v>
       </c>
-      <c r="AJ39" s="11">
+      <c r="AJ39">
         <v>0.30099999999999999</v>
       </c>
-      <c r="AK39" s="11">
+      <c r="AK39">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AL39" s="11">
-        <f>AG39/Y39</f>
+      <c r="AL39">
+        <f t="shared" si="2"/>
         <v>1.0306396755986031</v>
       </c>
-      <c r="AM39" s="11">
-        <f>AG39/C39</f>
+      <c r="AM39">
+        <f t="shared" si="3"/>
         <v>0.27121117975312775</v>
       </c>
-      <c r="AN39" s="11" t="s">
+      <c r="AN39" t="s">
         <v>19</v>
       </c>
-      <c r="AO39" s="11">
+      <c r="AO39">
         <v>553600</v>
       </c>
       <c r="AP39" s="5">
@@ -7841,14 +7836,14 @@
       <c r="AT39" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AU39" s="11">
-        <f>AP39/AG39</f>
+      <c r="AU39">
+        <f t="shared" si="4"/>
         <v>1.0143720384106165</v>
       </c>
       <c r="AV39" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AW39" s="19">
+      <c r="AW39" s="10">
         <v>538400</v>
       </c>
       <c r="AX39" s="5">
@@ -7867,11 +7862,11 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="BC39" s="5">
-        <f>AX39/AP39</f>
+        <f t="shared" si="5"/>
         <v>1.0797222783254175</v>
       </c>
     </row>
-    <row r="40" spans="1:55">
+    <row r="40" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -7936,7 +7931,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="V40">
-        <f>Q40/C40</f>
+        <f t="shared" si="0"/>
         <v>0.38977818496770866</v>
       </c>
       <c r="W40" t="s">
@@ -7961,42 +7956,42 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="AD40">
-        <f>Y40/Q40</f>
+        <f t="shared" si="1"/>
         <v>0.75342838836609483</v>
       </c>
-      <c r="AE40" s="11" t="s">
+      <c r="AE40" t="s">
         <v>16</v>
       </c>
-      <c r="AF40" s="11">
+      <c r="AF40">
         <v>3246982</v>
       </c>
-      <c r="AG40" s="11">
+      <c r="AG40">
         <v>3846.605</v>
       </c>
-      <c r="AH40" s="11">
+      <c r="AH40">
         <v>1E-3</v>
       </c>
-      <c r="AI40" s="11">
+      <c r="AI40">
         <v>0</v>
       </c>
-      <c r="AJ40" s="11">
+      <c r="AJ40">
         <v>0.57499999999999996</v>
       </c>
-      <c r="AK40" s="11">
+      <c r="AK40">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AL40" s="11">
-        <f>AG40/Y40</f>
+      <c r="AL40">
+        <f t="shared" si="2"/>
         <v>1.027699986588033</v>
       </c>
-      <c r="AM40" s="11">
-        <f>AG40/C40</f>
+      <c r="AM40">
+        <f t="shared" si="3"/>
         <v>0.30180460338904802</v>
       </c>
-      <c r="AN40" s="11" t="s">
+      <c r="AN40" t="s">
         <v>16</v>
       </c>
-      <c r="AO40" s="11">
+      <c r="AO40">
         <v>3298982</v>
       </c>
       <c r="AP40" s="5">
@@ -8014,14 +8009,14 @@
       <c r="AT40" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AU40" s="11">
-        <f>AP40/AG40</f>
+      <c r="AU40">
+        <f t="shared" si="4"/>
         <v>1.0074759430718776</v>
       </c>
       <c r="AV40" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AW40" s="19">
+      <c r="AW40" s="10">
         <v>3223850</v>
       </c>
       <c r="AX40" s="5">
@@ -8040,11 +8035,11 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="BC40" s="5">
-        <f>AX40/AP40</f>
+        <f t="shared" si="5"/>
         <v>1.0836179949124753</v>
       </c>
     </row>
-    <row r="41" spans="1:55">
+    <row r="41" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -8109,7 +8104,7 @@
         <v>0.02</v>
       </c>
       <c r="V41">
-        <f>Q41/C41</f>
+        <f t="shared" si="0"/>
         <v>1.0085865616952834</v>
       </c>
       <c r="W41" t="s">
@@ -8134,42 +8129,42 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="AD41">
-        <f>Y41/Q41</f>
+        <f t="shared" si="1"/>
         <v>7.6158340522902074E-2</v>
       </c>
-      <c r="AE41" s="11" t="s">
+      <c r="AE41" t="s">
         <v>18</v>
       </c>
-      <c r="AF41" s="11">
+      <c r="AF41">
         <v>1673800</v>
       </c>
-      <c r="AG41" s="11">
+      <c r="AG41">
         <v>675.25199999999995</v>
       </c>
-      <c r="AH41" s="11">
+      <c r="AH41">
         <v>0</v>
       </c>
-      <c r="AI41" s="11">
+      <c r="AI41">
         <v>0</v>
       </c>
-      <c r="AJ41" s="11">
+      <c r="AJ41">
         <v>0.217</v>
       </c>
-      <c r="AK41" s="11">
+      <c r="AK41">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AL41" s="11">
-        <f>AG41/Y41</f>
+      <c r="AL41">
+        <f t="shared" si="2"/>
         <v>1.026363908576744</v>
       </c>
-      <c r="AM41" s="11">
-        <f>AG41/C41</f>
+      <c r="AM41">
+        <f t="shared" si="3"/>
         <v>7.8837350708594184E-2</v>
       </c>
-      <c r="AN41" s="11" t="s">
+      <c r="AN41" t="s">
         <v>18</v>
       </c>
-      <c r="AO41" s="11">
+      <c r="AO41">
         <v>1739800</v>
       </c>
       <c r="AP41" s="5">
@@ -8187,14 +8182,14 @@
       <c r="AT41" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AU41" s="11">
-        <f>AP41/AG41</f>
+      <c r="AU41">
+        <f t="shared" si="4"/>
         <v>1.0206011977750529</v>
       </c>
       <c r="AV41" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="AW41" s="19">
+      <c r="AW41" s="10">
         <v>1673800</v>
       </c>
       <c r="AX41" s="5">
@@ -8213,11 +8208,11 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="BC41" s="5">
-        <f>AX41/AP41</f>
+        <f t="shared" si="5"/>
         <v>0.98964395941163408</v>
       </c>
     </row>
-    <row r="49" spans="1:54">
+    <row r="49" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>46</v>
       </c>
@@ -8366,7 +8361,7 @@
         <v>14.202</v>
       </c>
     </row>
-    <row r="51" spans="1:54">
+    <row r="51" spans="1:54" x14ac:dyDescent="0.25">
       <c r="Y51">
         <f>Y49/Q49</f>
         <v>0.81112318084623669</v>
@@ -8384,7 +8379,7 @@
         <v>0.99802776336738164</v>
       </c>
     </row>
-    <row r="52" spans="1:54">
+    <row r="52" spans="1:54" x14ac:dyDescent="0.25">
       <c r="J52">
         <f>J49/C49</f>
         <v>0.96876012028008951</v>
@@ -8397,7 +8392,7 @@
         <v>86503.131999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:54">
+    <row r="53" spans="1:54" x14ac:dyDescent="0.25">
       <c r="AG53">
         <f>AG49/C49</f>
         <v>0.7148631248390156</v>
@@ -8407,7 +8402,7 @@
         <v>0.9690572188748886</v>
       </c>
     </row>
-    <row r="61" spans="1:54">
+    <row r="61" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>106</v>
       </c>
@@ -8475,7 +8470,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="62" spans="1:54">
+    <row r="62" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>16</v>
       </c>
@@ -8539,12 +8534,12 @@
       <c r="U62">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="V62" s="23">
-        <f>Q62/Q$117</f>
+      <c r="V62" s="11">
+        <f t="shared" ref="V62:V95" si="6">Q62/Q$117</f>
         <v>5.6492670313014255E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:54">
+    <row r="63" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -8608,12 +8603,12 @@
       <c r="U63">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="V63" s="23">
-        <f>Q63/Q$117</f>
+      <c r="V63" s="11">
+        <f t="shared" si="6"/>
         <v>0.18844979357529831</v>
       </c>
     </row>
-    <row r="64" spans="1:54">
+    <row r="64" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -8677,12 +8672,12 @@
       <c r="U64">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="V64" s="23">
-        <f>Q64/Q$117</f>
+      <c r="V64" s="11">
+        <f t="shared" si="6"/>
         <v>2.2462789353050624E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:22">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>25</v>
       </c>
@@ -8746,12 +8741,12 @@
       <c r="U65">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="V65" s="23">
-        <f>Q65/Q$117</f>
+      <c r="V65" s="11">
+        <f t="shared" si="6"/>
         <v>8.0081317469801877E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:22">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -8815,12 +8810,12 @@
       <c r="U66">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="V66" s="23">
-        <f>Q66/Q$117</f>
+      <c r="V66" s="11">
+        <f t="shared" si="6"/>
         <v>3.4946326411109821E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:22">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -8884,12 +8879,12 @@
       <c r="U67">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="V67" s="23">
-        <f>Q67/Q$117</f>
+      <c r="V67" s="11">
+        <f t="shared" si="6"/>
         <v>4.4352522127078582E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:22">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>22</v>
       </c>
@@ -8953,12 +8948,12 @@
       <c r="U68">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="V68" s="23">
-        <f>Q68/Q$117</f>
+      <c r="V68" s="11">
+        <f t="shared" si="6"/>
         <v>2.2932615036434668E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:22">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -9022,12 +9017,12 @@
       <c r="U69">
         <v>0.248</v>
       </c>
-      <c r="V69" s="23">
-        <f>Q69/Q$117</f>
+      <c r="V69" s="11">
+        <f t="shared" si="6"/>
         <v>0.12871793283740798</v>
       </c>
     </row>
-    <row r="70" spans="1:22">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>26</v>
       </c>
@@ -9091,12 +9086,12 @@
       <c r="U70">
         <v>1.4E-2</v>
       </c>
-      <c r="V70" s="23">
-        <f>Q70/Q$117</f>
+      <c r="V70" s="11">
+        <f t="shared" si="6"/>
         <v>7.663803455991912E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:22">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>23</v>
       </c>
@@ -9160,12 +9155,12 @@
       <c r="U71">
         <v>0.28899999999999998</v>
       </c>
-      <c r="V71" s="23">
-        <f>Q71/Q$117</f>
+      <c r="V71" s="11">
+        <f t="shared" si="6"/>
         <v>0.20383408669338143</v>
       </c>
     </row>
-    <row r="72" spans="1:22">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -9229,12 +9224,12 @@
       <c r="U72">
         <v>0.33200000000000002</v>
       </c>
-      <c r="V72" s="23">
-        <f>Q72/Q$117</f>
+      <c r="V72" s="11">
+        <f t="shared" si="6"/>
         <v>0.20956967895578957</v>
       </c>
     </row>
-    <row r="73" spans="1:22">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -9298,12 +9293,12 @@
       <c r="U73">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="V73" s="23">
-        <f>Q73/Q$117</f>
+      <c r="V73" s="11">
+        <f t="shared" si="6"/>
         <v>3.0782132246549524E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:22">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>42</v>
       </c>
@@ -9367,12 +9362,12 @@
       <c r="U74">
         <v>0.441</v>
       </c>
-      <c r="V74" s="23">
-        <f>Q74/Q$117</f>
+      <c r="V74" s="11">
+        <f t="shared" si="6"/>
         <v>0.24705022199680104</v>
       </c>
     </row>
-    <row r="75" spans="1:22">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>20</v>
       </c>
@@ -9436,12 +9431,12 @@
       <c r="U75">
         <v>0.157</v>
       </c>
-      <c r="V75" s="23">
-        <f>Q75/Q$117</f>
+      <c r="V75" s="11">
+        <f t="shared" si="6"/>
         <v>7.0369326243586577E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:22">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>43</v>
       </c>
@@ -9505,12 +9500,12 @@
       <c r="U76">
         <v>0.48399999999999999</v>
       </c>
-      <c r="V76" s="23">
-        <f>Q76/Q$117</f>
+      <c r="V76" s="11">
+        <f t="shared" si="6"/>
         <v>0.1749983063335199</v>
       </c>
     </row>
-    <row r="77" spans="1:22">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>41</v>
       </c>
@@ -9574,12 +9569,12 @@
       <c r="U77">
         <v>0.63600000000000001</v>
       </c>
-      <c r="V77" s="23">
-        <f>Q77/Q$117</f>
+      <c r="V77" s="11">
+        <f t="shared" si="6"/>
         <v>0.22961364464438189</v>
       </c>
     </row>
-    <row r="78" spans="1:22">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>39</v>
       </c>
@@ -9643,12 +9638,12 @@
       <c r="U78">
         <v>0.5</v>
       </c>
-      <c r="V78" s="23">
-        <f>Q78/Q$117</f>
+      <c r="V78" s="11">
+        <f t="shared" si="6"/>
         <v>8.4744245068551938E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:22">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>45</v>
       </c>
@@ -9712,12 +9707,12 @@
       <c r="U79">
         <v>1.2490000000000001</v>
       </c>
-      <c r="V79" s="23">
-        <f>Q79/Q$117</f>
+      <c r="V79" s="11">
+        <f t="shared" si="6"/>
         <v>0.16795420932557398</v>
       </c>
     </row>
-    <row r="80" spans="1:22">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>38</v>
       </c>
@@ -9781,12 +9776,12 @@
       <c r="U80">
         <v>1.105</v>
       </c>
-      <c r="V80" s="23">
-        <f>Q80/Q$117</f>
+      <c r="V80" s="11">
+        <f t="shared" si="6"/>
         <v>8.7547682427088991E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:22">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -9850,12 +9845,12 @@
       <c r="U81">
         <v>0.39100000000000001</v>
       </c>
-      <c r="V81" s="23">
-        <f>Q81/Q$117</f>
+      <c r="V81" s="11">
+        <f t="shared" si="6"/>
         <v>6.142144736115026E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:22">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H82" t="s">
         <v>105</v>
       </c>
@@ -9898,12 +9893,12 @@
       <c r="U82">
         <v>2.1429999999999998</v>
       </c>
-      <c r="V82" s="23">
-        <f>Q82/Q$117</f>
+      <c r="V82" s="11">
+        <f t="shared" si="6"/>
         <v>0.14152551681406425</v>
       </c>
     </row>
-    <row r="83" spans="1:22">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H83" t="s">
         <v>102</v>
       </c>
@@ -9946,12 +9941,12 @@
       <c r="U83">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="V83" s="23">
-        <f>Q83/Q$117</f>
+      <c r="V83" s="11">
+        <f t="shared" si="6"/>
         <v>3.4589159026585797E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:22">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -10015,12 +10010,12 @@
       <c r="U84">
         <v>9.9740000000000002</v>
       </c>
-      <c r="V84" s="23">
-        <f>Q84/Q$117</f>
+      <c r="V84" s="11">
+        <f t="shared" si="6"/>
         <v>0.43079029971026817</v>
       </c>
     </row>
-    <row r="85" spans="1:22">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>29</v>
       </c>
@@ -10084,12 +10079,12 @@
       <c r="U85">
         <v>4.907</v>
       </c>
-      <c r="V85" s="23">
-        <f>Q85/Q$117</f>
+      <c r="V85" s="11">
+        <f t="shared" si="6"/>
         <v>0.19764246940303898</v>
       </c>
     </row>
-    <row r="86" spans="1:22">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>28</v>
       </c>
@@ -10153,12 +10148,12 @@
       <c r="U86">
         <v>10.231999999999999</v>
       </c>
-      <c r="V86" s="23">
-        <f>Q86/Q$117</f>
+      <c r="V86" s="11">
+        <f t="shared" si="6"/>
         <v>0.18644268669720998</v>
       </c>
     </row>
-    <row r="87" spans="1:22">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>32</v>
       </c>
@@ -10222,12 +10217,12 @@
       <c r="U87">
         <v>12.372</v>
       </c>
-      <c r="V87" s="23">
-        <f>Q87/Q$117</f>
+      <c r="V87" s="11">
+        <f t="shared" si="6"/>
         <v>0.1511354950123501</v>
       </c>
     </row>
-    <row r="88" spans="1:22">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>40</v>
       </c>
@@ -10291,12 +10286,12 @@
       <c r="U88">
         <v>0.46300000000000002</v>
       </c>
-      <c r="V88" s="23">
-        <f>Q88/Q$117</f>
+      <c r="V88" s="11">
+        <f t="shared" si="6"/>
         <v>1.5858586161654864E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:22">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>33</v>
       </c>
@@ -10360,12 +10355,12 @@
       <c r="U89">
         <v>19.689</v>
       </c>
-      <c r="V89" s="23">
-        <f>Q89/Q$117</f>
+      <c r="V89" s="11">
+        <f t="shared" si="6"/>
         <v>0.31681473299296736</v>
       </c>
     </row>
-    <row r="90" spans="1:22">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>37</v>
       </c>
@@ -10429,12 +10424,12 @@
       <c r="U90">
         <v>12.997</v>
       </c>
-      <c r="V90" s="23">
-        <f>Q90/Q$117</f>
+      <c r="V90" s="11">
+        <f t="shared" si="6"/>
         <v>0.14180875962864201</v>
       </c>
     </row>
-    <row r="91" spans="1:22">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>31</v>
       </c>
@@ -10498,12 +10493,12 @@
       <c r="U91">
         <v>6.0739999999999998</v>
       </c>
-      <c r="V91" s="23">
-        <f>Q91/Q$117</f>
+      <c r="V91" s="11">
+        <f t="shared" si="6"/>
         <v>0.11471299115096216</v>
       </c>
     </row>
-    <row r="92" spans="1:22">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>34</v>
       </c>
@@ -10567,12 +10562,12 @@
       <c r="U92">
         <v>6.0279999999999996</v>
       </c>
-      <c r="V92" s="23">
-        <f>Q92/Q$117</f>
+      <c r="V92" s="11">
+        <f t="shared" si="6"/>
         <v>0.11375759054040964</v>
       </c>
     </row>
-    <row r="93" spans="1:22">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>36</v>
       </c>
@@ -10636,12 +10631,12 @@
       <c r="U93">
         <v>3.6520000000000001</v>
       </c>
-      <c r="V93" s="23">
-        <f>Q93/Q$117</f>
+      <c r="V93" s="11">
+        <f t="shared" si="6"/>
         <v>8.0285039058733507E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:22">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>30</v>
       </c>
@@ -10705,12 +10700,12 @@
       <c r="U94">
         <v>6.37</v>
       </c>
-      <c r="V94" s="23">
-        <f>Q94/Q$117</f>
+      <c r="V94" s="11">
+        <f t="shared" si="6"/>
         <v>0.10351520131956631</v>
       </c>
     </row>
-    <row r="95" spans="1:22">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>35</v>
       </c>
@@ -10774,12 +10769,12 @@
       <c r="U95">
         <v>2.35</v>
       </c>
-      <c r="V95" s="23">
-        <f>Q95/Q$117</f>
+      <c r="V95" s="11">
+        <f t="shared" si="6"/>
         <v>3.5811554989323334E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:22">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H96" t="s">
         <v>100</v>
       </c>
@@ -10801,9 +10796,9 @@
       <c r="N96">
         <v>2.7E-2</v>
       </c>
-      <c r="V96" s="23"/>
+      <c r="V96" s="11"/>
     </row>
-    <row r="97" spans="1:22">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H97" t="s">
         <v>101</v>
       </c>
@@ -10825,9 +10820,9 @@
       <c r="N97">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="V97" s="23"/>
+      <c r="V97" s="11"/>
     </row>
-    <row r="98" spans="1:22">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>10</v>
       </c>
@@ -10870,9 +10865,9 @@
       <c r="N98">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="V98" s="23"/>
+      <c r="V98" s="11"/>
     </row>
-    <row r="99" spans="1:22">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>21</v>
       </c>
@@ -10915,9 +10910,9 @@
       <c r="N99">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="V99" s="23"/>
+      <c r="V99" s="11"/>
     </row>
-    <row r="100" spans="1:22">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>19</v>
       </c>
@@ -10960,9 +10955,9 @@
       <c r="N100">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="V100" s="23"/>
+      <c r="V100" s="11"/>
     </row>
-    <row r="101" spans="1:22">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>18</v>
       </c>
@@ -11005,9 +11000,9 @@
       <c r="N101">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="V101" s="23"/>
+      <c r="V101" s="11"/>
     </row>
-    <row r="102" spans="1:22">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>44</v>
       </c>
@@ -11050,9 +11045,9 @@
       <c r="N102">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="V102" s="23"/>
+      <c r="V102" s="11"/>
     </row>
-    <row r="103" spans="1:22">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H103" t="s">
         <v>104</v>
       </c>
@@ -11074,9 +11069,9 @@
       <c r="N103">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="V103" s="23"/>
+      <c r="V103" s="11"/>
     </row>
-    <row r="104" spans="1:22">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>27</v>
       </c>
@@ -11119,9 +11114,9 @@
       <c r="N104">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="V104" s="23"/>
+      <c r="V104" s="11"/>
     </row>
-    <row r="105" spans="1:22">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H105" t="s">
         <v>95</v>
       </c>
@@ -11143,9 +11138,9 @@
       <c r="N105">
         <v>2E-3</v>
       </c>
-      <c r="V105" s="23"/>
+      <c r="V105" s="11"/>
     </row>
-    <row r="106" spans="1:22">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>30</v>
       </c>
@@ -11188,9 +11183,9 @@
       <c r="N106">
         <v>0.13300000000000001</v>
       </c>
-      <c r="V106" s="23"/>
+      <c r="V106" s="11"/>
     </row>
-    <row r="107" spans="1:22">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -11233,9 +11228,9 @@
       <c r="N107">
         <v>0.51900000000000002</v>
       </c>
-      <c r="V107" s="23"/>
+      <c r="V107" s="11"/>
     </row>
-    <row r="108" spans="1:22">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H108" t="s">
         <v>96</v>
       </c>
@@ -11257,9 +11252,9 @@
       <c r="N108">
         <v>0.16600000000000001</v>
       </c>
-      <c r="V108" s="23"/>
+      <c r="V108" s="11"/>
     </row>
-    <row r="109" spans="1:22">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H109" t="s">
         <v>97</v>
       </c>
@@ -11281,9 +11276,9 @@
       <c r="N109">
         <v>0.157</v>
       </c>
-      <c r="V109" s="23"/>
+      <c r="V109" s="11"/>
     </row>
-    <row r="110" spans="1:22">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H110" t="s">
         <v>98</v>
       </c>
@@ -11305,9 +11300,9 @@
       <c r="N110">
         <v>0.16300000000000001</v>
       </c>
-      <c r="V110" s="23"/>
+      <c r="V110" s="11"/>
     </row>
-    <row r="111" spans="1:22">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H111" t="s">
         <v>99</v>
       </c>
@@ -11329,9 +11324,9 @@
       <c r="N111">
         <v>0.156</v>
       </c>
-      <c r="V111" s="23"/>
+      <c r="V111" s="11"/>
     </row>
-    <row r="112" spans="1:22">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H112" t="s">
         <v>103</v>
       </c>
@@ -11353,9 +11348,9 @@
       <c r="N112">
         <v>5.0629999999999997</v>
       </c>
-      <c r="V112" s="23"/>
+      <c r="V112" s="11"/>
     </row>
-    <row r="117" spans="1:21">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>46</v>
       </c>
@@ -11377,25 +11372,25 @@
       <c r="G117">
         <v>14.202</v>
       </c>
-      <c r="H117" s="21" t="s">
+      <c r="H117" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I117" s="20">
+      <c r="I117" s="2">
         <v>200</v>
       </c>
-      <c r="J117" s="20">
+      <c r="J117" s="2">
         <v>208768.02900000001</v>
       </c>
-      <c r="K117" s="20">
+      <c r="K117" s="2">
         <v>1043.8399999999999</v>
       </c>
-      <c r="L117" s="20">
+      <c r="L117" s="2">
         <v>1032.8150000000001</v>
       </c>
-      <c r="M117" s="20">
+      <c r="M117" s="2">
         <v>1563.4169999999999</v>
       </c>
-      <c r="N117" s="22">
+      <c r="N117" s="3">
         <v>38.204000000000001</v>
       </c>
       <c r="O117" t="s">
@@ -11420,9 +11415,2377 @@
         <v>147.673</v>
       </c>
     </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>128</v>
+      </c>
+      <c r="H122" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>20</v>
+      </c>
+      <c r="B124">
+        <v>1212484</v>
+      </c>
+      <c r="C124">
+        <v>5370.4880000000003</v>
+      </c>
+      <c r="D124">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0.437</v>
+      </c>
+      <c r="G124">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H124" t="s">
+        <v>20</v>
+      </c>
+      <c r="I124">
+        <v>1198562</v>
+      </c>
+      <c r="J124">
+        <v>39689.819000000003</v>
+      </c>
+      <c r="K124">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="L124">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="M124">
+        <v>2.5609999999999999</v>
+      </c>
+      <c r="N124">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="O124">
+        <f>B124/I124</f>
+        <v>1.0116155860105693</v>
+      </c>
+      <c r="P124">
+        <f>C124/J124</f>
+        <v>0.13531147622517503</v>
+      </c>
+      <c r="Q124">
+        <f>D124/K124</f>
+        <v>0.12121212121212122</v>
+      </c>
+      <c r="R124">
+        <f>E124/L124</f>
+        <v>0</v>
+      </c>
+      <c r="S124">
+        <f>F124/M124</f>
+        <v>0.17063647012885591</v>
+      </c>
+      <c r="T124">
+        <f>G124/N124</f>
+        <v>0.20338983050847459</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>13</v>
+      </c>
+      <c r="B125">
+        <v>540500</v>
+      </c>
+      <c r="C125">
+        <v>900.25300000000004</v>
+      </c>
+      <c r="D125">
+        <v>2E-3</v>
+      </c>
+      <c r="E125">
+        <v>1E-3</v>
+      </c>
+      <c r="F125">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="G125">
+        <v>1E-3</v>
+      </c>
+      <c r="H125" t="s">
+        <v>13</v>
+      </c>
+      <c r="I125">
+        <v>540500</v>
+      </c>
+      <c r="J125">
+        <v>5845.5590000000002</v>
+      </c>
+      <c r="K125">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="L125">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M125">
+        <v>0.621</v>
+      </c>
+      <c r="N125">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="O125">
+        <f>B125/I125</f>
+        <v>1</v>
+      </c>
+      <c r="P125">
+        <f>C125/J125</f>
+        <v>0.15400631487938107</v>
+      </c>
+      <c r="Q125">
+        <f>D125/K125</f>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="R125">
+        <f>E125/L125</f>
+        <v>0.25</v>
+      </c>
+      <c r="S125">
+        <f>F125/M125</f>
+        <v>0.12238325281803543</v>
+      </c>
+      <c r="T125">
+        <f>G125/N125</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>12</v>
+      </c>
+      <c r="B126">
+        <v>1081000</v>
+      </c>
+      <c r="C126">
+        <v>2748.672</v>
+      </c>
+      <c r="D126">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0.3</v>
+      </c>
+      <c r="G126">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H126" t="s">
+        <v>12</v>
+      </c>
+      <c r="I126">
+        <v>1081000</v>
+      </c>
+      <c r="J126">
+        <v>14115.4</v>
+      </c>
+      <c r="K126">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>2.1909999999999998</v>
+      </c>
+      <c r="N126">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="O126">
+        <f>B126/I126</f>
+        <v>1</v>
+      </c>
+      <c r="P126">
+        <f>C126/J126</f>
+        <v>0.19472859430125963</v>
+      </c>
+      <c r="Q126">
+        <f>D126/K126</f>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="R126" t="e">
+        <f>E126/L126</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S126">
+        <f>F126/M126</f>
+        <v>0.13692377909630307</v>
+      </c>
+      <c r="T126">
+        <f>G126/N126</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>41</v>
+      </c>
+      <c r="B127">
+        <v>271000</v>
+      </c>
+      <c r="C127">
+        <v>7268.7839999999997</v>
+      </c>
+      <c r="D127">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E127">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F127">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="G127">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="H127" t="s">
+        <v>41</v>
+      </c>
+      <c r="I127">
+        <v>269000</v>
+      </c>
+      <c r="J127">
+        <v>31370.12</v>
+      </c>
+      <c r="K127">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="L127">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="M127">
+        <v>4.6980000000000004</v>
+      </c>
+      <c r="N127">
+        <v>0.223</v>
+      </c>
+      <c r="O127">
+        <f>B127/I127</f>
+        <v>1.0074349442379182</v>
+      </c>
+      <c r="P127">
+        <f>C127/J127</f>
+        <v>0.23171043018005669</v>
+      </c>
+      <c r="Q127">
+        <f>D127/K127</f>
+        <v>0.23076923076923075</v>
+      </c>
+      <c r="R127">
+        <f>E127/L127</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="S127">
+        <f>F127/M127</f>
+        <v>0.25266070668369517</v>
+      </c>
+      <c r="T127">
+        <f>G127/N127</f>
+        <v>0.22869955156950672</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>105</v>
+      </c>
+      <c r="B128">
+        <v>64500</v>
+      </c>
+      <c r="C128">
+        <v>5631.39</v>
+      </c>
+      <c r="D128">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="E128">
+        <v>1E-3</v>
+      </c>
+      <c r="F128">
+        <v>2.5310000000000001</v>
+      </c>
+      <c r="G128">
+        <v>0.191</v>
+      </c>
+      <c r="H128" t="s">
+        <v>105</v>
+      </c>
+      <c r="I128">
+        <v>64500</v>
+      </c>
+      <c r="J128">
+        <v>20132.671999999999</v>
+      </c>
+      <c r="K128">
+        <v>0.312</v>
+      </c>
+      <c r="L128">
+        <v>0.01</v>
+      </c>
+      <c r="M128">
+        <v>6.3719999999999999</v>
+      </c>
+      <c r="N128">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="O128">
+        <f>B128/I128</f>
+        <v>1</v>
+      </c>
+      <c r="P128">
+        <f>C128/J128</f>
+        <v>0.27971398928070751</v>
+      </c>
+      <c r="Q128">
+        <f>D128/K128</f>
+        <v>0.27884615384615385</v>
+      </c>
+      <c r="R128">
+        <f>E128/L128</f>
+        <v>0.1</v>
+      </c>
+      <c r="S128">
+        <f>F128/M128</f>
+        <v>0.3972065285624608</v>
+      </c>
+      <c r="T128">
+        <f>G128/N128</f>
+        <v>0.2916030534351145</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>40</v>
+      </c>
+      <c r="B129">
+        <v>20000</v>
+      </c>
+      <c r="C129">
+        <v>1730.5239999999999</v>
+      </c>
+      <c r="D129">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="E129">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F129">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="G129">
+        <v>0.06</v>
+      </c>
+      <c r="H129" t="s">
+        <v>40</v>
+      </c>
+      <c r="I129">
+        <v>20000</v>
+      </c>
+      <c r="J129">
+        <v>5621.6840000000002</v>
+      </c>
+      <c r="K129">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="L129">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="M129">
+        <v>2.2450000000000001</v>
+      </c>
+      <c r="N129">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="O129">
+        <f>B129/I129</f>
+        <v>1</v>
+      </c>
+      <c r="P129">
+        <f>C129/J129</f>
+        <v>0.30783018042280569</v>
+      </c>
+      <c r="Q129">
+        <f>D129/K129</f>
+        <v>0.30960854092526685</v>
+      </c>
+      <c r="R129">
+        <f>E129/L129</f>
+        <v>0.3604651162790698</v>
+      </c>
+      <c r="S129">
+        <f>F129/M129</f>
+        <v>0.25167037861915365</v>
+      </c>
+      <c r="T129">
+        <f>G129/N129</f>
+        <v>0.25751072961373389</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>45</v>
+      </c>
+      <c r="B130">
+        <v>56500</v>
+      </c>
+      <c r="C130">
+        <v>4970.7700000000004</v>
+      </c>
+      <c r="D130">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E130">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F130">
+        <v>1.556</v>
+      </c>
+      <c r="G130">
+        <v>0.104</v>
+      </c>
+      <c r="H130" t="s">
+        <v>45</v>
+      </c>
+      <c r="I130">
+        <v>55500</v>
+      </c>
+      <c r="J130">
+        <v>15397.028</v>
+      </c>
+      <c r="K130">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="L130">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="M130">
+        <v>6.218</v>
+      </c>
+      <c r="N130">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="O130">
+        <f>B130/I130</f>
+        <v>1.0180180180180181</v>
+      </c>
+      <c r="P130">
+        <f>C130/J130</f>
+        <v>0.32283957657282952</v>
+      </c>
+      <c r="Q130">
+        <f>D130/K130</f>
+        <v>0.31768953068592054</v>
+      </c>
+      <c r="R130">
+        <f>E130/L130</f>
+        <v>0.3707865168539326</v>
+      </c>
+      <c r="S130">
+        <f>F130/M130</f>
+        <v>0.25024123512383406</v>
+      </c>
+      <c r="T130">
+        <f>G130/N130</f>
+        <v>0.25490196078431371</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131">
+        <v>23000</v>
+      </c>
+      <c r="C131">
+        <v>2020.7139999999999</v>
+      </c>
+      <c r="D131">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E131">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F131">
+        <v>0.997</v>
+      </c>
+      <c r="G131">
+        <v>0.11</v>
+      </c>
+      <c r="H131" t="s">
+        <v>8</v>
+      </c>
+      <c r="I131">
+        <v>23000</v>
+      </c>
+      <c r="J131">
+        <v>5652.1760000000004</v>
+      </c>
+      <c r="K131">
+        <v>0.246</v>
+      </c>
+      <c r="L131">
+        <v>1.2E-2</v>
+      </c>
+      <c r="M131">
+        <v>3.2669999999999999</v>
+      </c>
+      <c r="N131">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="O131">
+        <f>B131/I131</f>
+        <v>1</v>
+      </c>
+      <c r="P131">
+        <f>C131/J131</f>
+        <v>0.35751080645754835</v>
+      </c>
+      <c r="Q131">
+        <f>D131/K131</f>
+        <v>0.35772357723577236</v>
+      </c>
+      <c r="R131">
+        <f>E131/L131</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="S131">
+        <f>F131/M131</f>
+        <v>0.30517294153657792</v>
+      </c>
+      <c r="T131">
+        <f>G131/N131</f>
+        <v>0.2770780856423174</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>33</v>
+      </c>
+      <c r="B132">
+        <v>11000</v>
+      </c>
+      <c r="C132">
+        <v>18876.107</v>
+      </c>
+      <c r="D132">
+        <v>1.716</v>
+      </c>
+      <c r="E132">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F132">
+        <v>23.285</v>
+      </c>
+      <c r="G132">
+        <v>3.0350000000000001</v>
+      </c>
+      <c r="H132" t="s">
+        <v>33</v>
+      </c>
+      <c r="I132">
+        <v>11000</v>
+      </c>
+      <c r="J132">
+        <v>50271.796000000002</v>
+      </c>
+      <c r="K132">
+        <v>4.57</v>
+      </c>
+      <c r="L132">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="M132">
+        <v>69.796000000000006</v>
+      </c>
+      <c r="N132">
+        <v>9.6379999999999999</v>
+      </c>
+      <c r="O132">
+        <f>B132/I132</f>
+        <v>1</v>
+      </c>
+      <c r="P132">
+        <f>C132/J132</f>
+        <v>0.37548105502337731</v>
+      </c>
+      <c r="Q132">
+        <f>D132/K132</f>
+        <v>0.37549234135667392</v>
+      </c>
+      <c r="R132">
+        <f>E132/L132</f>
+        <v>0.4719101123595506</v>
+      </c>
+      <c r="S132">
+        <f>F132/M132</f>
+        <v>0.3336151068829159</v>
+      </c>
+      <c r="T132">
+        <f>G132/N132</f>
+        <v>0.314899356713011</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>10</v>
+      </c>
+      <c r="B133">
+        <v>19500</v>
+      </c>
+      <c r="C133">
+        <v>601.66499999999996</v>
+      </c>
+      <c r="D133">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E133">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F133">
+        <v>0.253</v>
+      </c>
+      <c r="G133">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H133" t="s">
+        <v>10</v>
+      </c>
+      <c r="I133">
+        <v>19500</v>
+      </c>
+      <c r="J133">
+        <v>1578.683</v>
+      </c>
+      <c r="K133">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="L133">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="M133">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="N133">
+        <v>0.02</v>
+      </c>
+      <c r="O133">
+        <f>B133/I133</f>
+        <v>1</v>
+      </c>
+      <c r="P133">
+        <f>C133/J133</f>
+        <v>0.38111831190935735</v>
+      </c>
+      <c r="Q133">
+        <f>D133/K133</f>
+        <v>0.38271604938271603</v>
+      </c>
+      <c r="R133">
+        <f>E133/L133</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S133">
+        <f>F133/M133</f>
+        <v>0.54175588865096358</v>
+      </c>
+      <c r="T133">
+        <f>G133/N133</f>
+        <v>0.54999999999999993</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>42</v>
+      </c>
+      <c r="B134">
+        <v>390000</v>
+      </c>
+      <c r="C134">
+        <v>10246.450000000001</v>
+      </c>
+      <c r="D134">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E134">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F134">
+        <v>3.3519999999999999</v>
+      </c>
+      <c r="G134">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H134" t="s">
+        <v>42</v>
+      </c>
+      <c r="I134">
+        <v>390000</v>
+      </c>
+      <c r="J134">
+        <v>25505.414000000001</v>
+      </c>
+      <c r="K134">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L134">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="M134">
+        <v>5.48</v>
+      </c>
+      <c r="N134">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="O134">
+        <f>B134/I134</f>
+        <v>1</v>
+      </c>
+      <c r="P134">
+        <f>C134/J134</f>
+        <v>0.40173627450234684</v>
+      </c>
+      <c r="Q134">
+        <f>D134/K134</f>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="R134">
+        <f>E134/L134</f>
+        <v>0.60714285714285721</v>
+      </c>
+      <c r="S134">
+        <f>F134/M134</f>
+        <v>0.6116788321167882</v>
+      </c>
+      <c r="T134">
+        <f>G134/N134</f>
+        <v>0.20779220779220781</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>34</v>
+      </c>
+      <c r="B135">
+        <v>8500</v>
+      </c>
+      <c r="C135">
+        <v>5401.8909999999996</v>
+      </c>
+      <c r="D135">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="E135">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F135">
+        <v>4.391</v>
+      </c>
+      <c r="G135">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="H135" t="s">
+        <v>34</v>
+      </c>
+      <c r="I135">
+        <v>8500</v>
+      </c>
+      <c r="J135">
+        <v>12931.736000000001</v>
+      </c>
+      <c r="K135">
+        <v>1.5209999999999999</v>
+      </c>
+      <c r="L135">
+        <v>1.2E-2</v>
+      </c>
+      <c r="M135">
+        <v>12.172000000000001</v>
+      </c>
+      <c r="N135">
+        <v>1.643</v>
+      </c>
+      <c r="O135">
+        <f>B135/I135</f>
+        <v>1</v>
+      </c>
+      <c r="P135">
+        <f>C135/J135</f>
+        <v>0.41772357555087725</v>
+      </c>
+      <c r="Q135">
+        <f>D135/K135</f>
+        <v>0.4181459566074951</v>
+      </c>
+      <c r="R135">
+        <f>E135/L135</f>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="S135">
+        <f>F135/M135</f>
+        <v>0.36074597436740058</v>
+      </c>
+      <c r="T135">
+        <f>G135/N135</f>
+        <v>0.31710286062081561</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>30</v>
+      </c>
+      <c r="B136">
+        <v>7500</v>
+      </c>
+      <c r="C136">
+        <v>6579.6080000000002</v>
+      </c>
+      <c r="D136">
+        <v>0.877</v>
+      </c>
+      <c r="E136">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="F136">
+        <v>6.5430000000000001</v>
+      </c>
+      <c r="G136">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="H136" t="s">
+        <v>30</v>
+      </c>
+      <c r="I136">
+        <v>7500</v>
+      </c>
+      <c r="J136">
+        <v>15474.919</v>
+      </c>
+      <c r="K136">
+        <v>2.0630000000000002</v>
+      </c>
+      <c r="L136">
+        <v>0.48</v>
+      </c>
+      <c r="M136">
+        <v>20.683</v>
+      </c>
+      <c r="N136">
+        <v>3.1579999999999999</v>
+      </c>
+      <c r="O136">
+        <f>B136/I136</f>
+        <v>1</v>
+      </c>
+      <c r="P136">
+        <f>C136/J136</f>
+        <v>0.42517883292313197</v>
+      </c>
+      <c r="Q136">
+        <f>D136/K136</f>
+        <v>0.42510906446921953</v>
+      </c>
+      <c r="R136">
+        <f>E136/L136</f>
+        <v>0.49166666666666664</v>
+      </c>
+      <c r="S136">
+        <f>F136/M136</f>
+        <v>0.31634675820722336</v>
+      </c>
+      <c r="T136">
+        <f>G136/N136</f>
+        <v>0.40373654211526283</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>31</v>
+      </c>
+      <c r="B137">
+        <v>9000</v>
+      </c>
+      <c r="C137">
+        <v>7823.9579999999996</v>
+      </c>
+      <c r="D137">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="E137">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="F137">
+        <v>6.5380000000000003</v>
+      </c>
+      <c r="G137">
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="H137" t="s">
+        <v>31</v>
+      </c>
+      <c r="I137">
+        <v>9000</v>
+      </c>
+      <c r="J137">
+        <v>17829.141</v>
+      </c>
+      <c r="K137">
+        <v>1.9810000000000001</v>
+      </c>
+      <c r="L137">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="M137">
+        <v>20.675999999999998</v>
+      </c>
+      <c r="N137">
+        <v>2.9540000000000002</v>
+      </c>
+      <c r="O137">
+        <f>B137/I137</f>
+        <v>1</v>
+      </c>
+      <c r="P137">
+        <f>C137/J137</f>
+        <v>0.43882977873134771</v>
+      </c>
+      <c r="Q137">
+        <f>D137/K137</f>
+        <v>0.4386673397274104</v>
+      </c>
+      <c r="R137">
+        <f>E137/L137</f>
+        <v>0.48842105263157898</v>
+      </c>
+      <c r="S137">
+        <f>F137/M137</f>
+        <v>0.31621203327529507</v>
+      </c>
+      <c r="T137">
+        <f>G137/N137</f>
+        <v>0.41130670277589709</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>9</v>
+      </c>
+      <c r="B138">
+        <v>99000</v>
+      </c>
+      <c r="C138">
+        <v>6671.0439999999999</v>
+      </c>
+      <c r="D138">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E138">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F138">
+        <v>1.0620000000000001</v>
+      </c>
+      <c r="G138">
+        <v>6.2E-2</v>
+      </c>
+      <c r="H138" t="s">
+        <v>9</v>
+      </c>
+      <c r="I138">
+        <v>99000</v>
+      </c>
+      <c r="J138">
+        <v>14927.989</v>
+      </c>
+      <c r="K138">
+        <v>0.151</v>
+      </c>
+      <c r="L138">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="M138">
+        <v>3.2610000000000001</v>
+      </c>
+      <c r="N138">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="O138">
+        <f>B138/I138</f>
+        <v>1</v>
+      </c>
+      <c r="P138">
+        <f>C138/J138</f>
+        <v>0.44688162618554983</v>
+      </c>
+      <c r="Q138">
+        <f>D138/K138</f>
+        <v>0.44370860927152322</v>
+      </c>
+      <c r="R138">
+        <f>E138/L138</f>
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="S138">
+        <f>F138/M138</f>
+        <v>0.32566697332106714</v>
+      </c>
+      <c r="T138">
+        <f>G138/N138</f>
+        <v>0.29245283018867924</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>11</v>
+      </c>
+      <c r="B139">
+        <v>51000</v>
+      </c>
+      <c r="C139">
+        <v>23420.654999999999</v>
+      </c>
+      <c r="D139">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="E139">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F139">
+        <v>18.914999999999999</v>
+      </c>
+      <c r="G139">
+        <v>1.26</v>
+      </c>
+      <c r="H139" t="s">
+        <v>11</v>
+      </c>
+      <c r="I139">
+        <v>51000</v>
+      </c>
+      <c r="J139">
+        <v>51871.998</v>
+      </c>
+      <c r="K139">
+        <v>1.0169999999999999</v>
+      </c>
+      <c r="L139">
+        <v>0.107</v>
+      </c>
+      <c r="M139">
+        <v>56.033000000000001</v>
+      </c>
+      <c r="N139">
+        <v>3.7509999999999999</v>
+      </c>
+      <c r="O139">
+        <f>B139/I139</f>
+        <v>1</v>
+      </c>
+      <c r="P139">
+        <f>C139/J139</f>
+        <v>0.45150863477439213</v>
+      </c>
+      <c r="Q139">
+        <f>D139/K139</f>
+        <v>0.45132743362831862</v>
+      </c>
+      <c r="R139">
+        <f>E139/L139</f>
+        <v>0.53271028037383183</v>
+      </c>
+      <c r="S139">
+        <f>F139/M139</f>
+        <v>0.33756893259329324</v>
+      </c>
+      <c r="T139">
+        <f>G139/N139</f>
+        <v>0.33591042388696352</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>38</v>
+      </c>
+      <c r="B140">
+        <v>135500</v>
+      </c>
+      <c r="C140">
+        <v>3779.7159999999999</v>
+      </c>
+      <c r="D140">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E140">
+        <v>1E-3</v>
+      </c>
+      <c r="F140">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="G140">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="H140" t="s">
+        <v>38</v>
+      </c>
+      <c r="I140">
+        <v>134500</v>
+      </c>
+      <c r="J140">
+        <v>8073.5370000000003</v>
+      </c>
+      <c r="K140">
+        <v>0.06</v>
+      </c>
+      <c r="L140">
+        <v>1E-3</v>
+      </c>
+      <c r="M140">
+        <v>1.712</v>
+      </c>
+      <c r="N140">
+        <v>0.13</v>
+      </c>
+      <c r="O140">
+        <f>B140/I140</f>
+        <v>1.0074349442379182</v>
+      </c>
+      <c r="P140">
+        <f>C140/J140</f>
+        <v>0.4681611046063206</v>
+      </c>
+      <c r="Q140">
+        <f>D140/K140</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="R140">
+        <f>E140/L140</f>
+        <v>1</v>
+      </c>
+      <c r="S140">
+        <f>F140/M140</f>
+        <v>0.38084112149532712</v>
+      </c>
+      <c r="T140">
+        <f>G140/N140</f>
+        <v>0.35384615384615381</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>14</v>
+      </c>
+      <c r="B141">
+        <v>540500</v>
+      </c>
+      <c r="C141">
+        <v>10835.968999999999</v>
+      </c>
+      <c r="D141">
+        <v>0.02</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>3.36</v>
+      </c>
+      <c r="G141">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="H141" t="s">
+        <v>14</v>
+      </c>
+      <c r="I141">
+        <v>540500</v>
+      </c>
+      <c r="J141">
+        <v>22984.922999999999</v>
+      </c>
+      <c r="K141">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>5.4969999999999999</v>
+      </c>
+      <c r="N141">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="O141">
+        <f>B141/I141</f>
+        <v>1</v>
+      </c>
+      <c r="P141">
+        <f>C141/J141</f>
+        <v>0.47143812489604597</v>
+      </c>
+      <c r="Q141">
+        <f>D141/K141</f>
+        <v>0.46511627906976749</v>
+      </c>
+      <c r="R141" t="e">
+        <f>E141/L141</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S141">
+        <f>F141/M141</f>
+        <v>0.61124249590685831</v>
+      </c>
+      <c r="T141">
+        <f>G141/N141</f>
+        <v>0.29729729729729731</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>29</v>
+      </c>
+      <c r="B142">
+        <v>19500</v>
+      </c>
+      <c r="C142">
+        <v>14477.493</v>
+      </c>
+      <c r="D142">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="E142">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="F142">
+        <v>6.2859999999999996</v>
+      </c>
+      <c r="G142">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="H142" t="s">
+        <v>29</v>
+      </c>
+      <c r="I142">
+        <v>19500</v>
+      </c>
+      <c r="J142">
+        <v>30586.879000000001</v>
+      </c>
+      <c r="K142">
+        <v>1.569</v>
+      </c>
+      <c r="L142">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="M142">
+        <v>20.297999999999998</v>
+      </c>
+      <c r="N142">
+        <v>2.2309999999999999</v>
+      </c>
+      <c r="O142">
+        <f>B142/I142</f>
+        <v>1</v>
+      </c>
+      <c r="P142">
+        <f>C142/J142</f>
+        <v>0.47332364312161435</v>
+      </c>
+      <c r="Q142">
+        <f>D142/K142</f>
+        <v>0.47291268323773106</v>
+      </c>
+      <c r="R142">
+        <f>E142/L142</f>
+        <v>0.48739495798319327</v>
+      </c>
+      <c r="S142">
+        <f>F142/M142</f>
+        <v>0.30968568331855356</v>
+      </c>
+      <c r="T142">
+        <f>G142/N142</f>
+        <v>0.43388614970865086</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>27</v>
+      </c>
+      <c r="B143">
+        <v>20000</v>
+      </c>
+      <c r="C143">
+        <v>1552.7929999999999</v>
+      </c>
+      <c r="D143">
+        <v>7.8E-2</v>
+      </c>
+      <c r="E143">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="F143">
+        <v>2.3439999999999999</v>
+      </c>
+      <c r="G143">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="H143" t="s">
+        <v>27</v>
+      </c>
+      <c r="I143">
+        <v>20000</v>
+      </c>
+      <c r="J143">
+        <v>3069.7469999999998</v>
+      </c>
+      <c r="K143">
+        <v>0.153</v>
+      </c>
+      <c r="L143">
+        <v>0.108</v>
+      </c>
+      <c r="M143">
+        <v>0.749</v>
+      </c>
+      <c r="N143">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="O143">
+        <f>B143/I143</f>
+        <v>1</v>
+      </c>
+      <c r="P143">
+        <f>C143/J143</f>
+        <v>0.50583745175090977</v>
+      </c>
+      <c r="Q143">
+        <f>D143/K143</f>
+        <v>0.50980392156862742</v>
+      </c>
+      <c r="R143">
+        <f>E143/L143</f>
+        <v>0.48148148148148145</v>
+      </c>
+      <c r="S143">
+        <f>F143/M143</f>
+        <v>3.1295060080106807</v>
+      </c>
+      <c r="T143">
+        <f>G143/N143</f>
+        <v>0.62686567164179108</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>37</v>
+      </c>
+      <c r="B144">
+        <v>13500</v>
+      </c>
+      <c r="C144">
+        <v>6939.0929999999998</v>
+      </c>
+      <c r="D144">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="E144">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="F144">
+        <v>2.7029999999999998</v>
+      </c>
+      <c r="G144">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="H144" t="s">
+        <v>37</v>
+      </c>
+      <c r="I144">
+        <v>13500</v>
+      </c>
+      <c r="J144">
+        <v>13466.868</v>
+      </c>
+      <c r="K144">
+        <v>0.998</v>
+      </c>
+      <c r="L144">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="M144">
+        <v>4.0819999999999999</v>
+      </c>
+      <c r="N144">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="O144">
+        <f>B144/I144</f>
+        <v>1</v>
+      </c>
+      <c r="P144">
+        <f>C144/J144</f>
+        <v>0.51527147960461184</v>
+      </c>
+      <c r="Q144">
+        <f>D144/K144</f>
+        <v>0.51503006012024044</v>
+      </c>
+      <c r="R144">
+        <f>E144/L144</f>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="S144">
+        <f>F144/M144</f>
+        <v>0.66217540421362076</v>
+      </c>
+      <c r="T144">
+        <f>G144/N144</f>
+        <v>0.55608591885441527</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>32</v>
+      </c>
+      <c r="B145">
+        <v>15000</v>
+      </c>
+      <c r="C145">
+        <v>7934.902</v>
+      </c>
+      <c r="D145">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="E145">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="F145">
+        <v>2.6970000000000001</v>
+      </c>
+      <c r="G145">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="H145" t="s">
+        <v>32</v>
+      </c>
+      <c r="I145">
+        <v>15000</v>
+      </c>
+      <c r="J145">
+        <v>15358.878000000001</v>
+      </c>
+      <c r="K145">
+        <v>1.024</v>
+      </c>
+      <c r="L145">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="M145">
+        <v>4.069</v>
+      </c>
+      <c r="N145">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="O145">
+        <f>B145/I145</f>
+        <v>1</v>
+      </c>
+      <c r="P145">
+        <f>C145/J145</f>
+        <v>0.51663292071204681</v>
+      </c>
+      <c r="Q145">
+        <f>D145/K145</f>
+        <v>0.5166015625</v>
+      </c>
+      <c r="R145">
+        <f>E145/L145</f>
+        <v>0.53753753753753752</v>
+      </c>
+      <c r="S145">
+        <f>F145/M145</f>
+        <v>0.66281641681002701</v>
+      </c>
+      <c r="T145">
+        <f>G145/N145</f>
+        <v>0.5633187772925764</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>36</v>
+      </c>
+      <c r="B146">
+        <v>9000</v>
+      </c>
+      <c r="C146">
+        <v>6273.3940000000002</v>
+      </c>
+      <c r="D146">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="E146">
+        <v>0.18</v>
+      </c>
+      <c r="F146">
+        <v>3.7229999999999999</v>
+      </c>
+      <c r="G146">
+        <v>0.71</v>
+      </c>
+      <c r="H146" t="s">
+        <v>36</v>
+      </c>
+      <c r="I146">
+        <v>9000</v>
+      </c>
+      <c r="J146">
+        <v>12120.592000000001</v>
+      </c>
+      <c r="K146">
+        <v>1.347</v>
+      </c>
+      <c r="L146">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="M146">
+        <v>8.5350000000000001</v>
+      </c>
+      <c r="N146">
+        <v>1.35</v>
+      </c>
+      <c r="O146">
+        <f>B146/I146</f>
+        <v>1</v>
+      </c>
+      <c r="P146">
+        <f>C146/J146</f>
+        <v>0.51758148446874541</v>
+      </c>
+      <c r="Q146">
+        <f>D146/K146</f>
+        <v>0.51744617668893833</v>
+      </c>
+      <c r="R146">
+        <f>E146/L146</f>
+        <v>0.49586776859504134</v>
+      </c>
+      <c r="S146">
+        <f>F146/M146</f>
+        <v>0.43620386643233738</v>
+      </c>
+      <c r="T146">
+        <f>G146/N146</f>
+        <v>0.52592592592592591</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>28</v>
+      </c>
+      <c r="B147">
+        <v>22000</v>
+      </c>
+      <c r="C147">
+        <v>11130.121999999999</v>
+      </c>
+      <c r="D147">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="E147">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="F147">
+        <v>2.411</v>
+      </c>
+      <c r="G147">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="H147" t="s">
+        <v>28</v>
+      </c>
+      <c r="I147">
+        <v>22000</v>
+      </c>
+      <c r="J147">
+        <v>21181.793000000001</v>
+      </c>
+      <c r="K147">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="L147">
+        <v>0.153</v>
+      </c>
+      <c r="M147">
+        <v>3.6619999999999999</v>
+      </c>
+      <c r="N147">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="O147">
+        <f>B147/I147</f>
+        <v>1</v>
+      </c>
+      <c r="P147">
+        <f>C147/J147</f>
+        <v>0.52545702811844108</v>
+      </c>
+      <c r="Q147">
+        <f>D147/K147</f>
+        <v>0.52544132917964692</v>
+      </c>
+      <c r="R147">
+        <f>E147/L147</f>
+        <v>0.5163398692810458</v>
+      </c>
+      <c r="S147">
+        <f>F147/M147</f>
+        <v>0.65838339705079196</v>
+      </c>
+      <c r="T147">
+        <f>G147/N147</f>
+        <v>0.57640232108317213</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>96</v>
+      </c>
+      <c r="B148">
+        <v>12500</v>
+      </c>
+      <c r="C148">
+        <v>754.84199999999998</v>
+      </c>
+      <c r="D148">
+        <v>0.06</v>
+      </c>
+      <c r="E148">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F148">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="G148">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H148" t="s">
+        <v>96</v>
+      </c>
+      <c r="I148">
+        <v>12500</v>
+      </c>
+      <c r="J148">
+        <v>1399.8409999999999</v>
+      </c>
+      <c r="K148">
+        <v>0.112</v>
+      </c>
+      <c r="L148">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M148">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="N148">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="O148">
+        <f>B148/I148</f>
+        <v>1</v>
+      </c>
+      <c r="P148">
+        <f>C148/J148</f>
+        <v>0.53923409872978434</v>
+      </c>
+      <c r="Q148">
+        <f>D148/K148</f>
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="R148">
+        <f>E148/L148</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="S148">
+        <f>F148/M148</f>
+        <v>0.96296296296296313</v>
+      </c>
+      <c r="T148">
+        <f>G148/N148</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>98</v>
+      </c>
+      <c r="B149">
+        <v>6000</v>
+      </c>
+      <c r="C149">
+        <v>390.96699999999998</v>
+      </c>
+      <c r="D149">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E149">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F149">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="G149">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H149" t="s">
+        <v>98</v>
+      </c>
+      <c r="I149">
+        <v>6000</v>
+      </c>
+      <c r="J149">
+        <v>712.36300000000006</v>
+      </c>
+      <c r="K149">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="L149">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="M149">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="N149">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="O149">
+        <f>B149/I149</f>
+        <v>1</v>
+      </c>
+      <c r="P149">
+        <f>C149/J149</f>
+        <v>0.54883114367253771</v>
+      </c>
+      <c r="Q149">
+        <f>D149/K149</f>
+        <v>0.54621848739495804</v>
+      </c>
+      <c r="R149">
+        <f>E149/L149</f>
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="S149">
+        <f>F149/M149</f>
+        <v>0.96147110332749575</v>
+      </c>
+      <c r="T149">
+        <f>G149/N149</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>35</v>
+      </c>
+      <c r="B150">
+        <v>5500</v>
+      </c>
+      <c r="C150">
+        <v>3438.5239999999999</v>
+      </c>
+      <c r="D150">
+        <v>0.625</v>
+      </c>
+      <c r="E150">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="F150">
+        <v>2.42</v>
+      </c>
+      <c r="G150">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="H150" t="s">
+        <v>35</v>
+      </c>
+      <c r="I150">
+        <v>5500</v>
+      </c>
+      <c r="J150">
+        <v>6260.5839999999998</v>
+      </c>
+      <c r="K150">
+        <v>1.1379999999999999</v>
+      </c>
+      <c r="L150">
+        <v>0.157</v>
+      </c>
+      <c r="M150">
+        <v>3.673</v>
+      </c>
+      <c r="N150">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="O150">
+        <f>B150/I150</f>
+        <v>1</v>
+      </c>
+      <c r="P150">
+        <f>C150/J150</f>
+        <v>0.54923374560584126</v>
+      </c>
+      <c r="Q150">
+        <f>D150/K150</f>
+        <v>0.54920913884007039</v>
+      </c>
+      <c r="R150">
+        <f>E150/L150</f>
+        <v>0.5286624203821656</v>
+      </c>
+      <c r="S150">
+        <f>F150/M150</f>
+        <v>0.65886196569561661</v>
+      </c>
+      <c r="T150">
+        <f>G150/N150</f>
+        <v>0.59475218658892115</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>99</v>
+      </c>
+      <c r="B151">
+        <v>3500</v>
+      </c>
+      <c r="C151">
+        <v>241.006</v>
+      </c>
+      <c r="D151">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="E151">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F151">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="G151">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H151" t="s">
+        <v>99</v>
+      </c>
+      <c r="I151">
+        <v>3500</v>
+      </c>
+      <c r="J151">
+        <v>437.02100000000002</v>
+      </c>
+      <c r="K151">
+        <v>0.125</v>
+      </c>
+      <c r="L151">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="M151">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="N151">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="O151">
+        <f>B151/I151</f>
+        <v>1</v>
+      </c>
+      <c r="P151">
+        <f>C151/J151</f>
+        <v>0.5514746430949542</v>
+      </c>
+      <c r="Q151">
+        <f>D151/K151</f>
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="R151">
+        <f>E151/L151</f>
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="S151">
+        <f>F151/M151</f>
+        <v>0.72283813747228387</v>
+      </c>
+      <c r="T151">
+        <f>G151/N151</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>97</v>
+      </c>
+      <c r="B152">
+        <v>3500</v>
+      </c>
+      <c r="C152">
+        <v>249.97900000000001</v>
+      </c>
+      <c r="D152">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="E152">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F152">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="G152">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H152" t="s">
+        <v>97</v>
+      </c>
+      <c r="I152">
+        <v>3500</v>
+      </c>
+      <c r="J152">
+        <v>449.51499999999999</v>
+      </c>
+      <c r="K152">
+        <v>0.128</v>
+      </c>
+      <c r="L152">
+        <v>0.02</v>
+      </c>
+      <c r="M152">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="N152">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="O152">
+        <f>B152/I152</f>
+        <v>1</v>
+      </c>
+      <c r="P152">
+        <f>C152/J152</f>
+        <v>0.55610825000278086</v>
+      </c>
+      <c r="Q152">
+        <f>D152/K152</f>
+        <v>0.55468749999999989</v>
+      </c>
+      <c r="R152">
+        <f>E152/L152</f>
+        <v>0.95</v>
+      </c>
+      <c r="S152">
+        <f>F152/M152</f>
+        <v>0.96335078534031426</v>
+      </c>
+      <c r="T152">
+        <f>G152/N152</f>
+        <v>0.50724637681159424</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>43</v>
+      </c>
+      <c r="B153">
+        <v>395000</v>
+      </c>
+      <c r="C153">
+        <v>19502.981</v>
+      </c>
+      <c r="D153">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>2.3319999999999999</v>
+      </c>
+      <c r="G153">
+        <v>0.123</v>
+      </c>
+      <c r="H153" t="s">
+        <v>43</v>
+      </c>
+      <c r="I153">
+        <v>395000</v>
+      </c>
+      <c r="J153">
+        <v>32346.567999999999</v>
+      </c>
+      <c r="K153">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>7.984</v>
+      </c>
+      <c r="N153">
+        <v>0.159</v>
+      </c>
+      <c r="O153">
+        <f>B153/I153</f>
+        <v>1</v>
+      </c>
+      <c r="P153">
+        <f>C153/J153</f>
+        <v>0.60293818497220475</v>
+      </c>
+      <c r="Q153">
+        <f>D153/K153</f>
+        <v>0.59756097560975607</v>
+      </c>
+      <c r="R153" t="e">
+        <f>E153/L153</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S153">
+        <f>F153/M153</f>
+        <v>0.29208416833667333</v>
+      </c>
+      <c r="T153">
+        <f>G153/N153</f>
+        <v>0.7735849056603773</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>39</v>
+      </c>
+      <c r="B154">
+        <v>230500</v>
+      </c>
+      <c r="C154">
+        <v>14470.967000000001</v>
+      </c>
+      <c r="D154">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E154">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F154">
+        <v>2.04</v>
+      </c>
+      <c r="G154">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="H154" t="s">
+        <v>39</v>
+      </c>
+      <c r="I154">
+        <v>230500</v>
+      </c>
+      <c r="J154">
+        <v>14802.394</v>
+      </c>
+      <c r="K154">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="L154">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="M154">
+        <v>2.4089999999999998</v>
+      </c>
+      <c r="N154">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="O154">
+        <f>B154/I154</f>
+        <v>1</v>
+      </c>
+      <c r="P154">
+        <f>C154/J154</f>
+        <v>0.97760990553284832</v>
+      </c>
+      <c r="Q154">
+        <f>D154/K154</f>
+        <v>0.984375</v>
+      </c>
+      <c r="R154">
+        <f>E154/L154</f>
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="S154">
+        <f>F154/M154</f>
+        <v>0.84682440846824414</v>
+      </c>
+      <c r="T154">
+        <f>G154/N154</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>101</v>
+      </c>
+      <c r="B155">
+        <v>21000</v>
+      </c>
+      <c r="C155">
+        <v>325.19</v>
+      </c>
+      <c r="D155">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E155">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F155">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G155">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H155" t="s">
+        <v>101</v>
+      </c>
+      <c r="I155">
+        <v>21000</v>
+      </c>
+      <c r="J155">
+        <v>332.53899999999999</v>
+      </c>
+      <c r="K155">
+        <v>1.6E-2</v>
+      </c>
+      <c r="L155">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="M155">
+        <v>0.129</v>
+      </c>
+      <c r="N155">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="O155">
+        <f>B155/I155</f>
+        <v>1</v>
+      </c>
+      <c r="P155">
+        <f>C155/J155</f>
+        <v>0.97790033650188402</v>
+      </c>
+      <c r="Q155">
+        <f>D155/K155</f>
+        <v>0.9375</v>
+      </c>
+      <c r="R155">
+        <f>E155/L155</f>
+        <v>1</v>
+      </c>
+      <c r="S155">
+        <f>F155/M155</f>
+        <v>1.0852713178294575</v>
+      </c>
+      <c r="T155">
+        <f>G155/N155</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>100</v>
+      </c>
+      <c r="B156">
+        <v>10500</v>
+      </c>
+      <c r="C156">
+        <v>278.29899999999998</v>
+      </c>
+      <c r="D156">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E156">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F156">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="G156">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H156" t="s">
+        <v>100</v>
+      </c>
+      <c r="I156">
+        <v>10500</v>
+      </c>
+      <c r="J156">
+        <v>282.45100000000002</v>
+      </c>
+      <c r="K156">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L156">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M156">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="N156">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="O156">
+        <f>B156/I156</f>
+        <v>1</v>
+      </c>
+      <c r="P156">
+        <f>C156/J156</f>
+        <v>0.98530010515098176</v>
+      </c>
+      <c r="Q156">
+        <f>D156/K156</f>
+        <v>1</v>
+      </c>
+      <c r="R156">
+        <f>E156/L156</f>
+        <v>1</v>
+      </c>
+      <c r="S156">
+        <f>F156/M156</f>
+        <v>2.2620689655172415</v>
+      </c>
+      <c r="T156">
+        <f>G156/N156</f>
+        <v>1.0769230769230771</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>15</v>
+      </c>
+      <c r="B157">
+        <v>1969500</v>
+      </c>
+      <c r="C157">
+        <v>292.66899999999998</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="G157">
+        <v>1E-3</v>
+      </c>
+      <c r="H157" t="s">
+        <v>15</v>
+      </c>
+      <c r="I157">
+        <v>1969500</v>
+      </c>
+      <c r="J157">
+        <v>210.63499999999999</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="N157">
+        <v>0</v>
+      </c>
+      <c r="O157">
+        <f>B157/I157</f>
+        <v>1</v>
+      </c>
+      <c r="P157">
+        <f>C157/J157</f>
+        <v>1.3894604410473093</v>
+      </c>
+      <c r="Q157" t="e">
+        <f>D157/K157</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R157" t="e">
+        <f>E157/L157</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S157">
+        <f>F157/M157</f>
+        <v>0.77544910179640714</v>
+      </c>
+      <c r="T157" t="e">
+        <f>G157/N157</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>46</v>
+      </c>
+      <c r="B161">
+        <v>500</v>
+      </c>
+      <c r="C161">
+        <v>63070.447</v>
+      </c>
+      <c r="D161">
+        <v>126.14100000000001</v>
+      </c>
+      <c r="E161">
+        <v>123.096</v>
+      </c>
+      <c r="F161">
+        <v>180.535</v>
+      </c>
+      <c r="G161">
+        <v>3.9740000000000002</v>
+      </c>
+      <c r="H161" t="s">
+        <v>46</v>
+      </c>
+      <c r="I161">
+        <v>500</v>
+      </c>
+      <c r="J161">
+        <v>142714.73499999999</v>
+      </c>
+      <c r="K161">
+        <v>285.42899999999997</v>
+      </c>
+      <c r="L161">
+        <v>280.12099999999998</v>
+      </c>
+      <c r="M161">
+        <v>378.38099999999997</v>
+      </c>
+      <c r="N161">
+        <v>6.4530000000000003</v>
+      </c>
+      <c r="Q161">
+        <f t="shared" ref="Q125:Q161" si="7">C161/J161</f>
+        <v>0.44193367279139051</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="Q62:W96">
-    <sortCondition ref="Q62"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A124:T157">
+    <sortCondition ref="P124:P157"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:C45">
@@ -11437,8 +13800,44 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C62:C103">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62:C112">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D2:D45">
     <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62:D112">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11473,6 +13872,42 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J62:J112">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K62:K112">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O63:O65 O111 O105:O106 O101:O102 O93:O94 O90:O91 O87 O85 O83 O80 O75">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q41">
     <cfRule type="colorScale" priority="25">
       <colorScale>
@@ -11485,8 +13920,44 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Q62:Q112">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R62:R95">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="V2:V41">
     <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V62:V95">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11557,18 +14028,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU2:AU41">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AP2:AP41">
     <cfRule type="colorScale" priority="40">
       <colorScale>
@@ -11581,104 +14040,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D62:D112">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K62:K112">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J62:J112">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62:C103">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O63:O65 O111 O105:O106 O101:O102 O93:O94 O90:O91 O87 O85 O83 O80 O75">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q62:Q112">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62:C112">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R62:R95">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V62:V95">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="AU2:AU41">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/real_algebraic_numbers/Book1.xlsx
+++ b/real_algebraic_numbers/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshu\Desktop\bapr\RealAlgebraicNumbers\real_algebraic_numbers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshu\Desktop\bachelorproef\RealAlgebraicNumbers\real_algebraic_numbers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43297258-880A-421D-8B49-84979B5BC35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB84331D-DAA9-45F8-BD43-7B2FE29FE475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1100,10 +1100,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BC161"/>
+  <dimension ref="A1:BC175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P124" sqref="P124"/>
+    <sheetView tabSelected="1" topLeftCell="A152" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G167" sqref="G167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11467,27 +11467,27 @@
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="O124">
-        <f>B124/I124</f>
+        <f t="shared" ref="O124:O157" si="7">B124/I124</f>
         <v>1.0116155860105693</v>
       </c>
       <c r="P124">
-        <f>C124/J124</f>
+        <f t="shared" ref="P124:P157" si="8">C124/J124</f>
         <v>0.13531147622517503</v>
       </c>
       <c r="Q124">
-        <f>D124/K124</f>
+        <f t="shared" ref="Q124:Q157" si="9">D124/K124</f>
         <v>0.12121212121212122</v>
       </c>
       <c r="R124">
-        <f>E124/L124</f>
+        <f t="shared" ref="R124:R157" si="10">E124/L124</f>
         <v>0</v>
       </c>
       <c r="S124">
-        <f>F124/M124</f>
+        <f t="shared" ref="S124:S157" si="11">F124/M124</f>
         <v>0.17063647012885591</v>
       </c>
       <c r="T124">
-        <f>G124/N124</f>
+        <f t="shared" ref="T124:T157" si="12">G124/N124</f>
         <v>0.20338983050847459</v>
       </c>
     </row>
@@ -11535,27 +11535,27 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="O125">
-        <f>B125/I125</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P125">
-        <f>C125/J125</f>
+        <f t="shared" si="8"/>
         <v>0.15400631487938107</v>
       </c>
       <c r="Q125">
-        <f>D125/K125</f>
+        <f t="shared" si="9"/>
         <v>0.18181818181818182</v>
       </c>
       <c r="R125">
-        <f>E125/L125</f>
+        <f t="shared" si="10"/>
         <v>0.25</v>
       </c>
       <c r="S125">
-        <f>F125/M125</f>
+        <f t="shared" si="11"/>
         <v>0.12238325281803543</v>
       </c>
       <c r="T125">
-        <f>G125/N125</f>
+        <f t="shared" si="12"/>
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
@@ -11603,27 +11603,27 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="O126">
-        <f>B126/I126</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P126">
-        <f>C126/J126</f>
+        <f t="shared" si="8"/>
         <v>0.19472859430125963</v>
       </c>
       <c r="Q126">
-        <f>D126/K126</f>
+        <f t="shared" si="9"/>
         <v>0.23076923076923078</v>
       </c>
       <c r="R126" t="e">
-        <f>E126/L126</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S126">
-        <f>F126/M126</f>
+        <f t="shared" si="11"/>
         <v>0.13692377909630307</v>
       </c>
       <c r="T126">
-        <f>G126/N126</f>
+        <f t="shared" si="12"/>
         <v>0.16666666666666666</v>
       </c>
     </row>
@@ -11671,27 +11671,27 @@
         <v>0.223</v>
       </c>
       <c r="O127">
-        <f>B127/I127</f>
+        <f t="shared" si="7"/>
         <v>1.0074349442379182</v>
       </c>
       <c r="P127">
-        <f>C127/J127</f>
+        <f t="shared" si="8"/>
         <v>0.23171043018005669</v>
       </c>
       <c r="Q127">
-        <f>D127/K127</f>
+        <f t="shared" si="9"/>
         <v>0.23076923076923075</v>
       </c>
       <c r="R127">
-        <f>E127/L127</f>
+        <f t="shared" si="10"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="S127">
-        <f>F127/M127</f>
+        <f t="shared" si="11"/>
         <v>0.25266070668369517</v>
       </c>
       <c r="T127">
-        <f>G127/N127</f>
+        <f t="shared" si="12"/>
         <v>0.22869955156950672</v>
       </c>
     </row>
@@ -11739,27 +11739,27 @@
         <v>0.65500000000000003</v>
       </c>
       <c r="O128">
-        <f>B128/I128</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P128">
-        <f>C128/J128</f>
+        <f t="shared" si="8"/>
         <v>0.27971398928070751</v>
       </c>
       <c r="Q128">
-        <f>D128/K128</f>
+        <f t="shared" si="9"/>
         <v>0.27884615384615385</v>
       </c>
       <c r="R128">
-        <f>E128/L128</f>
+        <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
       <c r="S128">
-        <f>F128/M128</f>
+        <f t="shared" si="11"/>
         <v>0.3972065285624608</v>
       </c>
       <c r="T128">
-        <f>G128/N128</f>
+        <f t="shared" si="12"/>
         <v>0.2916030534351145</v>
       </c>
     </row>
@@ -11807,27 +11807,27 @@
         <v>0.23300000000000001</v>
       </c>
       <c r="O129">
-        <f>B129/I129</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P129">
-        <f>C129/J129</f>
+        <f t="shared" si="8"/>
         <v>0.30783018042280569</v>
       </c>
       <c r="Q129">
-        <f>D129/K129</f>
+        <f t="shared" si="9"/>
         <v>0.30960854092526685</v>
       </c>
       <c r="R129">
-        <f>E129/L129</f>
+        <f t="shared" si="10"/>
         <v>0.3604651162790698</v>
       </c>
       <c r="S129">
-        <f>F129/M129</f>
+        <f t="shared" si="11"/>
         <v>0.25167037861915365</v>
       </c>
       <c r="T129">
-        <f>G129/N129</f>
+        <f t="shared" si="12"/>
         <v>0.25751072961373389</v>
       </c>
     </row>
@@ -11875,27 +11875,27 @@
         <v>0.40799999999999997</v>
       </c>
       <c r="O130">
-        <f>B130/I130</f>
+        <f t="shared" si="7"/>
         <v>1.0180180180180181</v>
       </c>
       <c r="P130">
-        <f>C130/J130</f>
+        <f t="shared" si="8"/>
         <v>0.32283957657282952</v>
       </c>
       <c r="Q130">
-        <f>D130/K130</f>
+        <f t="shared" si="9"/>
         <v>0.31768953068592054</v>
       </c>
       <c r="R130">
-        <f>E130/L130</f>
+        <f t="shared" si="10"/>
         <v>0.3707865168539326</v>
       </c>
       <c r="S130">
-        <f>F130/M130</f>
+        <f t="shared" si="11"/>
         <v>0.25024123512383406</v>
       </c>
       <c r="T130">
-        <f>G130/N130</f>
+        <f t="shared" si="12"/>
         <v>0.25490196078431371</v>
       </c>
     </row>
@@ -11943,27 +11943,27 @@
         <v>0.39700000000000002</v>
       </c>
       <c r="O131">
-        <f>B131/I131</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P131">
-        <f>C131/J131</f>
+        <f t="shared" si="8"/>
         <v>0.35751080645754835</v>
       </c>
       <c r="Q131">
-        <f>D131/K131</f>
+        <f t="shared" si="9"/>
         <v>0.35772357723577236</v>
       </c>
       <c r="R131">
-        <f>E131/L131</f>
+        <f t="shared" si="10"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="S131">
-        <f>F131/M131</f>
+        <f t="shared" si="11"/>
         <v>0.30517294153657792</v>
       </c>
       <c r="T131">
-        <f>G131/N131</f>
+        <f t="shared" si="12"/>
         <v>0.2770780856423174</v>
       </c>
     </row>
@@ -12011,27 +12011,27 @@
         <v>9.6379999999999999</v>
       </c>
       <c r="O132">
-        <f>B132/I132</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P132">
-        <f>C132/J132</f>
+        <f t="shared" si="8"/>
         <v>0.37548105502337731</v>
       </c>
       <c r="Q132">
-        <f>D132/K132</f>
+        <f t="shared" si="9"/>
         <v>0.37549234135667392</v>
       </c>
       <c r="R132">
-        <f>E132/L132</f>
+        <f t="shared" si="10"/>
         <v>0.4719101123595506</v>
       </c>
       <c r="S132">
-        <f>F132/M132</f>
+        <f t="shared" si="11"/>
         <v>0.3336151068829159</v>
       </c>
       <c r="T132">
-        <f>G132/N132</f>
+        <f t="shared" si="12"/>
         <v>0.314899356713011</v>
       </c>
     </row>
@@ -12079,27 +12079,27 @@
         <v>0.02</v>
       </c>
       <c r="O133">
-        <f>B133/I133</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P133">
-        <f>C133/J133</f>
+        <f t="shared" si="8"/>
         <v>0.38111831190935735</v>
       </c>
       <c r="Q133">
-        <f>D133/K133</f>
+        <f t="shared" si="9"/>
         <v>0.38271604938271603</v>
       </c>
       <c r="R133">
-        <f>E133/L133</f>
+        <f t="shared" si="10"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="S133">
-        <f>F133/M133</f>
+        <f t="shared" si="11"/>
         <v>0.54175588865096358</v>
       </c>
       <c r="T133">
-        <f>G133/N133</f>
+        <f t="shared" si="12"/>
         <v>0.54999999999999993</v>
       </c>
     </row>
@@ -12147,27 +12147,27 @@
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="O134">
-        <f>B134/I134</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P134">
-        <f>C134/J134</f>
+        <f t="shared" si="8"/>
         <v>0.40173627450234684</v>
       </c>
       <c r="Q134">
-        <f>D134/K134</f>
+        <f t="shared" si="9"/>
         <v>0.39999999999999997</v>
       </c>
       <c r="R134">
-        <f>E134/L134</f>
+        <f t="shared" si="10"/>
         <v>0.60714285714285721</v>
       </c>
       <c r="S134">
-        <f>F134/M134</f>
+        <f t="shared" si="11"/>
         <v>0.6116788321167882</v>
       </c>
       <c r="T134">
-        <f>G134/N134</f>
+        <f t="shared" si="12"/>
         <v>0.20779220779220781</v>
       </c>
     </row>
@@ -12215,27 +12215,27 @@
         <v>1.643</v>
       </c>
       <c r="O135">
-        <f>B135/I135</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P135">
-        <f>C135/J135</f>
+        <f t="shared" si="8"/>
         <v>0.41772357555087725</v>
       </c>
       <c r="Q135">
-        <f>D135/K135</f>
+        <f t="shared" si="9"/>
         <v>0.4181459566074951</v>
       </c>
       <c r="R135">
-        <f>E135/L135</f>
+        <f t="shared" si="10"/>
         <v>0.74999999999999989</v>
       </c>
       <c r="S135">
-        <f>F135/M135</f>
+        <f t="shared" si="11"/>
         <v>0.36074597436740058</v>
       </c>
       <c r="T135">
-        <f>G135/N135</f>
+        <f t="shared" si="12"/>
         <v>0.31710286062081561</v>
       </c>
     </row>
@@ -12283,27 +12283,27 @@
         <v>3.1579999999999999</v>
       </c>
       <c r="O136">
-        <f>B136/I136</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P136">
-        <f>C136/J136</f>
+        <f t="shared" si="8"/>
         <v>0.42517883292313197</v>
       </c>
       <c r="Q136">
-        <f>D136/K136</f>
+        <f t="shared" si="9"/>
         <v>0.42510906446921953</v>
       </c>
       <c r="R136">
-        <f>E136/L136</f>
+        <f t="shared" si="10"/>
         <v>0.49166666666666664</v>
       </c>
       <c r="S136">
-        <f>F136/M136</f>
+        <f t="shared" si="11"/>
         <v>0.31634675820722336</v>
       </c>
       <c r="T136">
-        <f>G136/N136</f>
+        <f t="shared" si="12"/>
         <v>0.40373654211526283</v>
       </c>
     </row>
@@ -12351,27 +12351,27 @@
         <v>2.9540000000000002</v>
       </c>
       <c r="O137">
-        <f>B137/I137</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P137">
-        <f>C137/J137</f>
+        <f t="shared" si="8"/>
         <v>0.43882977873134771</v>
       </c>
       <c r="Q137">
-        <f>D137/K137</f>
+        <f t="shared" si="9"/>
         <v>0.4386673397274104</v>
       </c>
       <c r="R137">
-        <f>E137/L137</f>
+        <f t="shared" si="10"/>
         <v>0.48842105263157898</v>
       </c>
       <c r="S137">
-        <f>F137/M137</f>
+        <f t="shared" si="11"/>
         <v>0.31621203327529507</v>
       </c>
       <c r="T137">
-        <f>G137/N137</f>
+        <f t="shared" si="12"/>
         <v>0.41130670277589709</v>
       </c>
     </row>
@@ -12419,27 +12419,27 @@
         <v>0.21199999999999999</v>
       </c>
       <c r="O138">
-        <f>B138/I138</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P138">
-        <f>C138/J138</f>
+        <f t="shared" si="8"/>
         <v>0.44688162618554983</v>
       </c>
       <c r="Q138">
-        <f>D138/K138</f>
+        <f t="shared" si="9"/>
         <v>0.44370860927152322</v>
       </c>
       <c r="R138">
-        <f>E138/L138</f>
+        <f t="shared" si="10"/>
         <v>0.88888888888888895</v>
       </c>
       <c r="S138">
-        <f>F138/M138</f>
+        <f t="shared" si="11"/>
         <v>0.32566697332106714</v>
       </c>
       <c r="T138">
-        <f>G138/N138</f>
+        <f t="shared" si="12"/>
         <v>0.29245283018867924</v>
       </c>
     </row>
@@ -12487,27 +12487,27 @@
         <v>3.7509999999999999</v>
       </c>
       <c r="O139">
-        <f>B139/I139</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P139">
-        <f>C139/J139</f>
+        <f t="shared" si="8"/>
         <v>0.45150863477439213</v>
       </c>
       <c r="Q139">
-        <f>D139/K139</f>
+        <f t="shared" si="9"/>
         <v>0.45132743362831862</v>
       </c>
       <c r="R139">
-        <f>E139/L139</f>
+        <f t="shared" si="10"/>
         <v>0.53271028037383183</v>
       </c>
       <c r="S139">
-        <f>F139/M139</f>
+        <f t="shared" si="11"/>
         <v>0.33756893259329324</v>
       </c>
       <c r="T139">
-        <f>G139/N139</f>
+        <f t="shared" si="12"/>
         <v>0.33591042388696352</v>
       </c>
     </row>
@@ -12555,27 +12555,27 @@
         <v>0.13</v>
       </c>
       <c r="O140">
-        <f>B140/I140</f>
+        <f t="shared" si="7"/>
         <v>1.0074349442379182</v>
       </c>
       <c r="P140">
-        <f>C140/J140</f>
+        <f t="shared" si="8"/>
         <v>0.4681611046063206</v>
       </c>
       <c r="Q140">
-        <f>D140/K140</f>
+        <f t="shared" si="9"/>
         <v>0.46666666666666667</v>
       </c>
       <c r="R140">
-        <f>E140/L140</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="S140">
-        <f>F140/M140</f>
+        <f t="shared" si="11"/>
         <v>0.38084112149532712</v>
       </c>
       <c r="T140">
-        <f>G140/N140</f>
+        <f t="shared" si="12"/>
         <v>0.35384615384615381</v>
       </c>
     </row>
@@ -12623,27 +12623,27 @@
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="O141">
-        <f>B141/I141</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P141">
-        <f>C141/J141</f>
+        <f t="shared" si="8"/>
         <v>0.47143812489604597</v>
       </c>
       <c r="Q141">
-        <f>D141/K141</f>
+        <f t="shared" si="9"/>
         <v>0.46511627906976749</v>
       </c>
       <c r="R141" t="e">
-        <f>E141/L141</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S141">
-        <f>F141/M141</f>
+        <f t="shared" si="11"/>
         <v>0.61124249590685831</v>
       </c>
       <c r="T141">
-        <f>G141/N141</f>
+        <f t="shared" si="12"/>
         <v>0.29729729729729731</v>
       </c>
     </row>
@@ -12691,27 +12691,27 @@
         <v>2.2309999999999999</v>
       </c>
       <c r="O142">
-        <f>B142/I142</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P142">
-        <f>C142/J142</f>
+        <f t="shared" si="8"/>
         <v>0.47332364312161435</v>
       </c>
       <c r="Q142">
-        <f>D142/K142</f>
+        <f t="shared" si="9"/>
         <v>0.47291268323773106</v>
       </c>
       <c r="R142">
-        <f>E142/L142</f>
+        <f t="shared" si="10"/>
         <v>0.48739495798319327</v>
       </c>
       <c r="S142">
-        <f>F142/M142</f>
+        <f t="shared" si="11"/>
         <v>0.30968568331855356</v>
       </c>
       <c r="T142">
-        <f>G142/N142</f>
+        <f t="shared" si="12"/>
         <v>0.43388614970865086</v>
       </c>
     </row>
@@ -12759,27 +12759,27 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="O143">
-        <f>B143/I143</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P143">
-        <f>C143/J143</f>
+        <f t="shared" si="8"/>
         <v>0.50583745175090977</v>
       </c>
       <c r="Q143">
-        <f>D143/K143</f>
+        <f t="shared" si="9"/>
         <v>0.50980392156862742</v>
       </c>
       <c r="R143">
-        <f>E143/L143</f>
+        <f t="shared" si="10"/>
         <v>0.48148148148148145</v>
       </c>
       <c r="S143">
-        <f>F143/M143</f>
+        <f t="shared" si="11"/>
         <v>3.1295060080106807</v>
       </c>
       <c r="T143">
-        <f>G143/N143</f>
+        <f t="shared" si="12"/>
         <v>0.62686567164179108</v>
       </c>
     </row>
@@ -12827,27 +12827,27 @@
         <v>0.41899999999999998</v>
       </c>
       <c r="O144">
-        <f>B144/I144</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P144">
-        <f>C144/J144</f>
+        <f t="shared" si="8"/>
         <v>0.51527147960461184</v>
       </c>
       <c r="Q144">
-        <f>D144/K144</f>
+        <f t="shared" si="9"/>
         <v>0.51503006012024044</v>
       </c>
       <c r="R144">
-        <f>E144/L144</f>
+        <f t="shared" si="10"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="S144">
-        <f>F144/M144</f>
+        <f t="shared" si="11"/>
         <v>0.66217540421362076</v>
       </c>
       <c r="T144">
-        <f>G144/N144</f>
+        <f t="shared" si="12"/>
         <v>0.55608591885441527</v>
       </c>
     </row>
@@ -12895,27 +12895,27 @@
         <v>0.45800000000000002</v>
       </c>
       <c r="O145">
-        <f>B145/I145</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P145">
-        <f>C145/J145</f>
+        <f t="shared" si="8"/>
         <v>0.51663292071204681</v>
       </c>
       <c r="Q145">
-        <f>D145/K145</f>
+        <f t="shared" si="9"/>
         <v>0.5166015625</v>
       </c>
       <c r="R145">
-        <f>E145/L145</f>
+        <f t="shared" si="10"/>
         <v>0.53753753753753752</v>
       </c>
       <c r="S145">
-        <f>F145/M145</f>
+        <f t="shared" si="11"/>
         <v>0.66281641681002701</v>
       </c>
       <c r="T145">
-        <f>G145/N145</f>
+        <f t="shared" si="12"/>
         <v>0.5633187772925764</v>
       </c>
     </row>
@@ -12963,27 +12963,27 @@
         <v>1.35</v>
       </c>
       <c r="O146">
-        <f>B146/I146</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P146">
-        <f>C146/J146</f>
+        <f t="shared" si="8"/>
         <v>0.51758148446874541</v>
       </c>
       <c r="Q146">
-        <f>D146/K146</f>
+        <f t="shared" si="9"/>
         <v>0.51744617668893833</v>
       </c>
       <c r="R146">
-        <f>E146/L146</f>
+        <f t="shared" si="10"/>
         <v>0.49586776859504134</v>
       </c>
       <c r="S146">
-        <f>F146/M146</f>
+        <f t="shared" si="11"/>
         <v>0.43620386643233738</v>
       </c>
       <c r="T146">
-        <f>G146/N146</f>
+        <f t="shared" si="12"/>
         <v>0.52592592592592591</v>
       </c>
     </row>
@@ -13031,27 +13031,27 @@
         <v>0.51700000000000002</v>
       </c>
       <c r="O147">
-        <f>B147/I147</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P147">
-        <f>C147/J147</f>
+        <f t="shared" si="8"/>
         <v>0.52545702811844108</v>
       </c>
       <c r="Q147">
-        <f>D147/K147</f>
+        <f t="shared" si="9"/>
         <v>0.52544132917964692</v>
       </c>
       <c r="R147">
-        <f>E147/L147</f>
+        <f t="shared" si="10"/>
         <v>0.5163398692810458</v>
       </c>
       <c r="S147">
-        <f>F147/M147</f>
+        <f t="shared" si="11"/>
         <v>0.65838339705079196</v>
       </c>
       <c r="T147">
-        <f>G147/N147</f>
+        <f t="shared" si="12"/>
         <v>0.57640232108317213</v>
       </c>
     </row>
@@ -13099,27 +13099,27 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="O148">
-        <f>B148/I148</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P148">
-        <f>C148/J148</f>
+        <f t="shared" si="8"/>
         <v>0.53923409872978434</v>
       </c>
       <c r="Q148">
-        <f>D148/K148</f>
+        <f t="shared" si="9"/>
         <v>0.5357142857142857</v>
       </c>
       <c r="R148">
-        <f>E148/L148</f>
+        <f t="shared" si="10"/>
         <v>0.8666666666666667</v>
       </c>
       <c r="S148">
-        <f>F148/M148</f>
+        <f t="shared" si="11"/>
         <v>0.96296296296296313</v>
       </c>
       <c r="T148">
-        <f>G148/N148</f>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
     </row>
@@ -13167,27 +13167,27 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="O149">
-        <f>B149/I149</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P149">
-        <f>C149/J149</f>
+        <f t="shared" si="8"/>
         <v>0.54883114367253771</v>
       </c>
       <c r="Q149">
-        <f>D149/K149</f>
+        <f t="shared" si="9"/>
         <v>0.54621848739495804</v>
       </c>
       <c r="R149">
-        <f>E149/L149</f>
+        <f t="shared" si="10"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="S149">
-        <f>F149/M149</f>
+        <f t="shared" si="11"/>
         <v>0.96147110332749575</v>
       </c>
       <c r="T149">
-        <f>G149/N149</f>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
     </row>
@@ -13235,27 +13235,27 @@
         <v>0.68600000000000005</v>
       </c>
       <c r="O150">
-        <f>B150/I150</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P150">
-        <f>C150/J150</f>
+        <f t="shared" si="8"/>
         <v>0.54923374560584126</v>
       </c>
       <c r="Q150">
-        <f>D150/K150</f>
+        <f t="shared" si="9"/>
         <v>0.54920913884007039</v>
       </c>
       <c r="R150">
-        <f>E150/L150</f>
+        <f t="shared" si="10"/>
         <v>0.5286624203821656</v>
       </c>
       <c r="S150">
-        <f>F150/M150</f>
+        <f t="shared" si="11"/>
         <v>0.65886196569561661</v>
       </c>
       <c r="T150">
-        <f>G150/N150</f>
+        <f t="shared" si="12"/>
         <v>0.59475218658892115</v>
       </c>
     </row>
@@ -13303,27 +13303,27 @@
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="O151">
-        <f>B151/I151</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P151">
-        <f>C151/J151</f>
+        <f t="shared" si="8"/>
         <v>0.5514746430949542</v>
       </c>
       <c r="Q151">
-        <f>D151/K151</f>
+        <f t="shared" si="9"/>
         <v>0.55200000000000005</v>
       </c>
       <c r="R151">
-        <f>E151/L151</f>
+        <f t="shared" si="10"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="S151">
-        <f>F151/M151</f>
+        <f t="shared" si="11"/>
         <v>0.72283813747228387</v>
       </c>
       <c r="T151">
-        <f>G151/N151</f>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
     </row>
@@ -13371,27 +13371,27 @@
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="O152">
-        <f>B152/I152</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P152">
-        <f>C152/J152</f>
+        <f t="shared" si="8"/>
         <v>0.55610825000278086</v>
       </c>
       <c r="Q152">
-        <f>D152/K152</f>
+        <f t="shared" si="9"/>
         <v>0.55468749999999989</v>
       </c>
       <c r="R152">
-        <f>E152/L152</f>
+        <f t="shared" si="10"/>
         <v>0.95</v>
       </c>
       <c r="S152">
-        <f>F152/M152</f>
+        <f t="shared" si="11"/>
         <v>0.96335078534031426</v>
       </c>
       <c r="T152">
-        <f>G152/N152</f>
+        <f t="shared" si="12"/>
         <v>0.50724637681159424</v>
       </c>
     </row>
@@ -13439,27 +13439,27 @@
         <v>0.159</v>
       </c>
       <c r="O153">
-        <f>B153/I153</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P153">
-        <f>C153/J153</f>
+        <f t="shared" si="8"/>
         <v>0.60293818497220475</v>
       </c>
       <c r="Q153">
-        <f>D153/K153</f>
+        <f t="shared" si="9"/>
         <v>0.59756097560975607</v>
       </c>
       <c r="R153" t="e">
-        <f>E153/L153</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S153">
-        <f>F153/M153</f>
+        <f t="shared" si="11"/>
         <v>0.29208416833667333</v>
       </c>
       <c r="T153">
-        <f>G153/N153</f>
+        <f t="shared" si="12"/>
         <v>0.7735849056603773</v>
       </c>
     </row>
@@ -13507,27 +13507,27 @@
         <v>0.14399999999999999</v>
       </c>
       <c r="O154">
-        <f>B154/I154</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P154">
-        <f>C154/J154</f>
+        <f t="shared" si="8"/>
         <v>0.97760990553284832</v>
       </c>
       <c r="Q154">
-        <f>D154/K154</f>
+        <f t="shared" si="9"/>
         <v>0.984375</v>
       </c>
       <c r="R154">
-        <f>E154/L154</f>
+        <f t="shared" si="10"/>
         <v>0.88888888888888895</v>
       </c>
       <c r="S154">
-        <f>F154/M154</f>
+        <f t="shared" si="11"/>
         <v>0.84682440846824414</v>
       </c>
       <c r="T154">
-        <f>G154/N154</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -13575,27 +13575,27 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="O155">
-        <f>B155/I155</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P155">
-        <f>C155/J155</f>
+        <f t="shared" si="8"/>
         <v>0.97790033650188402</v>
       </c>
       <c r="Q155">
-        <f>D155/K155</f>
+        <f t="shared" si="9"/>
         <v>0.9375</v>
       </c>
       <c r="R155">
-        <f>E155/L155</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="S155">
-        <f>F155/M155</f>
+        <f t="shared" si="11"/>
         <v>1.0852713178294575</v>
       </c>
       <c r="T155">
-        <f>G155/N155</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -13643,27 +13643,27 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="O156">
-        <f>B156/I156</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P156">
-        <f>C156/J156</f>
+        <f t="shared" si="8"/>
         <v>0.98530010515098176</v>
       </c>
       <c r="Q156">
-        <f>D156/K156</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="R156">
-        <f>E156/L156</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="S156">
-        <f>F156/M156</f>
+        <f t="shared" si="11"/>
         <v>2.2620689655172415</v>
       </c>
       <c r="T156">
-        <f>G156/N156</f>
+        <f t="shared" si="12"/>
         <v>1.0769230769230771</v>
       </c>
     </row>
@@ -13711,27 +13711,27 @@
         <v>0</v>
       </c>
       <c r="O157">
-        <f>B157/I157</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P157">
-        <f>C157/J157</f>
+        <f t="shared" si="8"/>
         <v>1.3894604410473093</v>
       </c>
       <c r="Q157" t="e">
-        <f>D157/K157</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R157" t="e">
-        <f>E157/L157</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S157">
-        <f>F157/M157</f>
+        <f t="shared" si="11"/>
         <v>0.77544910179640714</v>
       </c>
       <c r="T157" t="e">
-        <f>G157/N157</f>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13779,8 +13779,88 @@
         <v>6.4530000000000003</v>
       </c>
       <c r="Q161">
-        <f t="shared" ref="Q125:Q161" si="7">C161/J161</f>
+        <f t="shared" ref="Q161" si="13">C161/J161</f>
         <v>0.44193367279139051</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C165" s="2">
+        <v>125116.967</v>
+      </c>
+      <c r="D165" s="2">
+        <v>625.58500000000004</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C166" s="4">
+        <v>121208.32799999999</v>
+      </c>
+      <c r="D166" s="4">
+        <v>606.04200000000003</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C167" s="2">
+        <v>119423.591</v>
+      </c>
+      <c r="D167" s="2">
+        <v>597.11800000000005</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C168">
+        <v>96867.243000000002</v>
+      </c>
+      <c r="D168">
+        <v>484.33600000000001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C169">
+        <v>89441.505999999994</v>
+      </c>
+      <c r="D169">
+        <v>447.20800000000003</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C170">
+        <v>89265.247000000003</v>
+      </c>
+      <c r="D170">
+        <v>446.32600000000002</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C171">
+        <v>90292.404999999999</v>
+      </c>
+      <c r="D171">
+        <v>451.46199999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C173">
+        <v>90292.404999999999</v>
+      </c>
+      <c r="D173">
+        <v>451.46199999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C174" s="2">
+        <v>208768.02900000001</v>
+      </c>
+      <c r="D174" s="2">
+        <v>1043.8399999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C175">
+        <v>180643.59400000001</v>
+      </c>
+      <c r="D175">
+        <v>903.21799999999996</v>
       </c>
     </row>
   </sheetData>
